--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillk\Documents\GitHub\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95BBFE-1A19-4A80-AA33-F3288D061F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432ADAE-B0A1-4DF3-ACC2-60D055625D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>You should install the required software</t>
   </si>
@@ -110,6 +110,12 @@
   <si>
     <t>Darkshah</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -218,6 +224,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,28 +459,28 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="94.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
-    <col min="15" max="24" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="103.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -475,10 +490,10 @@
       <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -519,7 +534,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -529,7 +544,9 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -551,7 +568,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -561,7 +578,9 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -583,17 +602,19 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -615,7 +636,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -625,7 +646,9 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -647,7 +670,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -657,7 +680,9 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -679,7 +704,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -689,7 +714,9 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -711,7 +738,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -721,7 +748,9 @@
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -743,7 +772,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -753,7 +782,9 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -775,7 +806,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -785,7 +816,9 @@
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -807,7 +840,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -817,7 +850,9 @@
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -839,7 +874,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -871,7 +906,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -897,7 +932,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -923,7 +958,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -949,7 +984,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -975,7 +1010,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1001,7 +1036,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1027,7 +1062,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1053,7 +1088,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1079,7 +1114,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1105,7 +1140,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1131,7 +1166,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1157,7 +1192,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1183,7 +1218,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1209,7 +1244,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1235,7 +1270,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1261,7 +1296,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1287,7 +1322,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1313,7 +1348,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1339,7 +1374,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1365,7 +1400,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1391,7 +1426,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1417,7 +1452,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1443,7 +1478,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1467,7 +1502,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1491,7 +1526,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1515,7 +1550,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1539,7 +1574,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1563,7 +1598,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1587,7 +1622,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1611,7 +1646,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1635,7 +1670,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1659,7 +1694,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1683,7 +1718,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1707,7 +1742,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1731,7 +1766,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1755,7 +1790,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1779,7 +1814,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1803,7 +1838,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1827,7 +1862,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1851,7 +1886,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1875,7 +1910,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1899,7 +1934,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1923,7 +1958,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1947,7 +1982,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1971,7 +2006,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1995,7 +2030,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2019,7 +2054,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2043,7 +2078,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2067,7 +2102,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2091,7 +2126,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2115,7 +2150,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2139,7 +2174,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2163,7 +2198,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2187,7 +2222,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2211,7 +2246,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2235,7 +2270,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2259,7 +2294,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2283,7 +2318,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2307,7 +2342,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2331,7 +2366,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2355,7 +2390,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2379,7 +2414,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2403,7 +2438,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2427,7 +2462,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2451,7 +2486,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2475,7 +2510,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2499,7 +2534,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2523,7 +2558,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2547,7 +2582,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2571,7 +2606,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2595,7 +2630,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2619,7 +2654,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2643,7 +2678,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2667,7 +2702,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2691,7 +2726,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2715,7 +2750,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2739,7 +2774,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2763,7 +2798,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2787,7 +2822,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2811,7 +2846,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2835,7 +2870,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2859,7 +2894,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2883,7 +2918,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2907,7 +2942,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2931,7 +2966,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2955,7 +2990,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -2979,7 +3014,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3003,7 +3038,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3027,7 +3062,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3051,7 +3086,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3075,7 +3110,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3099,7 +3134,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3123,7 +3158,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3147,7 +3182,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3171,7 +3206,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3195,7 +3230,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3219,7 +3254,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3243,7 +3278,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3267,7 +3302,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3291,7 +3326,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3315,7 +3350,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3339,7 +3374,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3363,7 +3398,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3387,7 +3422,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3411,7 +3446,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3435,7 +3470,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3459,7 +3494,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3483,7 +3518,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3507,7 +3542,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3531,7 +3566,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3555,7 +3590,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3579,7 +3614,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3603,7 +3638,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3627,7 +3662,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3651,7 +3686,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3675,7 +3710,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3699,7 +3734,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3723,7 +3758,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3747,7 +3782,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3771,7 +3806,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3795,7 +3830,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3819,7 +3854,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3843,7 +3878,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3867,7 +3902,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3891,7 +3926,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3915,7 +3950,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3939,7 +3974,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3963,7 +3998,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3987,7 +4022,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4011,7 +4046,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4035,7 +4070,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4059,7 +4094,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4083,7 +4118,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4107,7 +4142,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4131,7 +4166,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4155,7 +4190,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4179,7 +4214,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4203,7 +4238,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4227,7 +4262,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4251,7 +4286,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4275,7 +4310,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4299,7 +4334,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4323,7 +4358,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4347,7 +4382,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4371,7 +4406,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4395,7 +4430,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4419,7 +4454,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4443,7 +4478,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4467,7 +4502,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4491,7 +4526,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4515,7 +4550,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4539,7 +4574,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4563,7 +4598,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4587,7 +4622,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4611,7 +4646,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4635,7 +4670,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4659,7 +4694,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4683,7 +4718,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4707,7 +4742,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4731,7 +4766,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4755,7 +4790,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4779,7 +4814,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4803,7 +4838,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4827,7 +4862,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4851,7 +4886,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4875,7 +4910,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4899,7 +4934,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4923,7 +4958,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4947,7 +4982,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -4971,7 +5006,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -4995,7 +5030,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5019,7 +5054,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5043,7 +5078,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5067,7 +5102,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5091,7 +5126,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5115,7 +5150,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5139,7 +5174,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5163,7 +5198,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5187,7 +5222,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5211,7 +5246,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5235,7 +5270,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5259,7 +5294,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5283,7 +5318,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5307,7 +5342,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5331,7 +5366,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5355,7 +5390,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5379,7 +5414,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5403,7 +5438,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5427,7 +5462,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5451,7 +5486,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5475,7 +5510,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5499,7 +5534,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5523,7 +5558,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5547,7 +5582,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5571,7 +5606,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5595,7 +5630,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5619,7 +5654,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5643,7 +5678,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5667,7 +5702,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5691,7 +5726,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5715,7 +5750,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5739,7 +5774,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5763,7 +5798,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5787,7 +5822,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5811,7 +5846,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5835,7 +5870,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5859,7 +5894,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5883,7 +5918,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5907,7 +5942,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5931,7 +5966,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5955,7 +5990,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5979,7 +6014,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6003,7 +6038,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6027,7 +6062,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6051,7 +6086,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6075,7 +6110,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6099,7 +6134,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6123,7 +6158,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6147,7 +6182,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6171,7 +6206,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6195,7 +6230,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6219,7 +6254,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6243,7 +6278,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6267,7 +6302,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6291,7 +6326,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6315,7 +6350,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6339,7 +6374,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6363,7 +6398,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6387,7 +6422,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6411,7 +6446,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6435,7 +6470,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6459,7 +6494,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6483,7 +6518,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6507,7 +6542,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6531,7 +6566,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6555,7 +6590,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6579,7 +6614,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6603,7 +6638,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6627,7 +6662,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6651,7 +6686,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6675,7 +6710,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6699,7 +6734,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6723,7 +6758,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6747,7 +6782,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6771,7 +6806,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6795,7 +6830,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6819,7 +6854,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6843,7 +6878,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6867,7 +6902,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6891,7 +6926,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6915,7 +6950,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6939,7 +6974,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6963,7 +6998,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6987,7 +7022,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7011,7 +7046,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7035,7 +7070,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7059,7 +7094,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7083,7 +7118,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7107,7 +7142,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7131,7 +7166,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7155,7 +7190,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7179,7 +7214,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7203,7 +7238,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7227,7 +7262,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7251,7 +7286,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7275,7 +7310,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7299,7 +7334,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7323,7 +7358,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7347,7 +7382,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7371,7 +7406,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7395,7 +7430,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7419,7 +7454,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7443,7 +7478,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7467,7 +7502,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7491,7 +7526,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7515,7 +7550,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7539,7 +7574,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7563,7 +7598,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7587,7 +7622,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7611,7 +7646,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7635,7 +7670,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7659,7 +7694,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7683,7 +7718,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7707,7 +7742,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7731,7 +7766,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7755,7 +7790,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7779,7 +7814,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7803,7 +7838,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7827,7 +7862,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7851,7 +7886,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7875,7 +7910,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -7899,7 +7934,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -7923,7 +7958,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -7947,7 +7982,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -7971,7 +8006,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -7995,7 +8030,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8019,7 +8054,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8043,7 +8078,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8067,7 +8102,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8091,7 +8126,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8115,7 +8150,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8139,7 +8174,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8163,7 +8198,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8187,7 +8222,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8211,7 +8246,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8235,7 +8270,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8259,7 +8294,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8283,7 +8318,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -8307,7 +8342,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -8331,7 +8366,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -8355,7 +8390,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8379,7 +8414,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -8403,7 +8438,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8427,7 +8462,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8451,7 +8486,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -8475,7 +8510,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8499,7 +8534,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8523,7 +8558,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -8547,7 +8582,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8571,7 +8606,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8595,7 +8630,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -8619,7 +8654,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8643,7 +8678,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8667,7 +8702,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -8691,7 +8726,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8715,7 +8750,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8739,7 +8774,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -8763,7 +8798,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8787,7 +8822,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8811,7 +8846,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -8835,7 +8870,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8859,7 +8894,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8883,7 +8918,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -8907,7 +8942,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -8931,7 +8966,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -8955,7 +8990,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -8979,7 +9014,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9003,7 +9038,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9027,7 +9062,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9051,7 +9086,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9075,7 +9110,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9099,7 +9134,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9123,7 +9158,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9147,7 +9182,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9171,7 +9206,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9195,7 +9230,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9219,7 +9254,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9243,7 +9278,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9267,7 +9302,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -9291,7 +9326,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -9315,7 +9350,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -9339,7 +9374,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -9363,7 +9398,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -9387,7 +9422,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -9411,7 +9446,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -9435,7 +9470,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -9459,7 +9494,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -9483,7 +9518,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -9507,7 +9542,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -9531,7 +9566,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -9555,7 +9590,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -9579,7 +9614,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -9603,7 +9638,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -9627,7 +9662,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -9651,7 +9686,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9675,7 +9710,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -9699,7 +9734,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9723,7 +9758,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9747,7 +9782,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -9771,7 +9806,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9795,7 +9830,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9819,7 +9854,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -9843,7 +9878,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9867,7 +9902,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9891,7 +9926,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -9915,7 +9950,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -9939,7 +9974,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -9963,7 +9998,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -9987,7 +10022,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10011,7 +10046,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10035,7 +10070,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10059,7 +10094,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10083,7 +10118,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10107,7 +10142,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10131,7 +10166,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10155,7 +10190,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10179,7 +10214,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10203,7 +10238,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10227,7 +10262,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10251,7 +10286,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10275,7 +10310,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -10299,7 +10334,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -10323,7 +10358,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -10347,7 +10382,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -10371,7 +10406,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -10395,7 +10430,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -10419,7 +10454,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -10443,7 +10478,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -10467,7 +10502,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -10491,7 +10526,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -10515,7 +10550,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -10539,7 +10574,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -10563,7 +10598,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -10587,7 +10622,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -10611,7 +10646,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -10635,7 +10670,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -10659,7 +10694,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -10683,7 +10718,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -10707,7 +10742,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -10731,7 +10766,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -10755,7 +10790,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -10779,7 +10814,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -10803,7 +10838,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -10827,7 +10862,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -10851,7 +10886,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -10875,7 +10910,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -10899,7 +10934,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -10923,7 +10958,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -10947,7 +10982,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -10971,7 +11006,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -10995,7 +11030,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11019,7 +11054,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11043,7 +11078,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11067,7 +11102,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11091,7 +11126,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11115,7 +11150,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11139,7 +11174,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11163,7 +11198,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11187,7 +11222,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11211,7 +11246,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11235,7 +11270,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11259,7 +11294,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11283,7 +11318,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -11307,7 +11342,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -11331,7 +11366,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -11355,7 +11390,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -11379,7 +11414,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -11403,7 +11438,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -11427,7 +11462,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -11451,7 +11486,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -11475,7 +11510,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -11499,7 +11534,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -11523,7 +11558,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -11547,7 +11582,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -11571,7 +11606,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -11595,7 +11630,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -11619,7 +11654,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -11643,7 +11678,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -11667,7 +11702,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -11691,7 +11726,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -11715,7 +11750,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11739,7 +11774,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -11763,7 +11798,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -11787,7 +11822,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -11811,7 +11846,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -11835,7 +11870,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -11859,7 +11894,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -11883,7 +11918,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -11907,7 +11942,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -11931,7 +11966,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -11955,7 +11990,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -11979,7 +12014,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12003,7 +12038,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12027,7 +12062,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12051,7 +12086,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12075,7 +12110,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12099,7 +12134,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12123,7 +12158,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12147,7 +12182,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12171,7 +12206,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12195,7 +12230,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12219,7 +12254,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12243,7 +12278,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12267,7 +12302,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -12291,7 +12326,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -12315,7 +12350,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -12339,7 +12374,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -12363,7 +12398,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -12387,7 +12422,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -12411,7 +12446,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -12435,7 +12470,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -12459,7 +12494,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -12483,7 +12518,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -12507,7 +12542,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -12531,7 +12566,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -12555,7 +12590,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -12579,7 +12614,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -12603,7 +12638,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -12627,7 +12662,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -12651,7 +12686,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -12675,7 +12710,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -12699,7 +12734,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -12723,7 +12758,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -12747,7 +12782,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -12771,7 +12806,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -12795,7 +12830,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -12819,7 +12854,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -12843,7 +12878,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -12867,7 +12902,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -12891,7 +12926,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -12915,7 +12950,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -12939,7 +12974,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -12963,7 +12998,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -12987,7 +13022,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13011,7 +13046,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13035,7 +13070,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13059,7 +13094,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13083,7 +13118,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13107,7 +13142,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13131,7 +13166,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13155,7 +13190,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13179,7 +13214,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13203,7 +13238,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13227,7 +13262,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13251,7 +13286,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13275,7 +13310,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -13299,7 +13334,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -13323,7 +13358,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -13347,7 +13382,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -13371,7 +13406,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -13395,7 +13430,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -13419,7 +13454,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -13443,7 +13478,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -13467,7 +13502,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -13491,7 +13526,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -13515,7 +13550,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -13539,7 +13574,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -13563,7 +13598,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -13587,7 +13622,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -13611,7 +13646,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -13635,7 +13670,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -13659,7 +13694,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -13683,7 +13718,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -13707,7 +13742,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -13731,7 +13766,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -13755,7 +13790,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -13779,7 +13814,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -13803,7 +13838,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -13827,7 +13862,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -13851,7 +13886,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -13875,7 +13910,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -13899,7 +13934,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -13923,7 +13958,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -13947,7 +13982,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -13971,7 +14006,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -13995,7 +14030,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14019,7 +14054,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14043,7 +14078,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14067,7 +14102,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14091,7 +14126,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14115,7 +14150,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14139,7 +14174,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14163,7 +14198,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14187,7 +14222,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14211,7 +14246,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14235,7 +14270,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14259,7 +14294,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14283,7 +14318,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -14307,7 +14342,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -14331,7 +14366,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -14355,7 +14390,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -14379,7 +14414,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -14403,7 +14438,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -14427,7 +14462,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -14451,7 +14486,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -14475,7 +14510,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -14499,7 +14534,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -14523,7 +14558,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -14547,7 +14582,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -14571,7 +14606,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -14595,7 +14630,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -14619,7 +14654,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -14643,7 +14678,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -14667,7 +14702,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -14691,7 +14726,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -14715,7 +14750,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -14739,7 +14774,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -14763,7 +14798,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -14787,7 +14822,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -14811,7 +14846,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -14835,7 +14870,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -14859,7 +14894,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -14883,7 +14918,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -14907,7 +14942,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -14931,7 +14966,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -14955,7 +14990,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -14979,7 +15014,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15003,7 +15038,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15027,7 +15062,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15051,7 +15086,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15075,7 +15110,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15099,7 +15134,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15123,7 +15158,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15147,7 +15182,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15171,7 +15206,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15195,7 +15230,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15219,7 +15254,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15243,7 +15278,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15267,7 +15302,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -15291,7 +15326,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -15315,7 +15350,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -15339,7 +15374,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -15363,7 +15398,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -15387,7 +15422,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -15411,7 +15446,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -15435,7 +15470,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -15459,7 +15494,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -15483,7 +15518,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -15507,7 +15542,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -15531,7 +15566,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -15555,7 +15590,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -15579,7 +15614,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -15603,7 +15638,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -15627,7 +15662,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -15651,7 +15686,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -15675,7 +15710,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -15699,7 +15734,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -15723,7 +15758,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -15747,7 +15782,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -15771,7 +15806,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -15795,7 +15830,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -15819,7 +15854,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -15843,7 +15878,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -15867,7 +15902,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -15891,7 +15926,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -15915,7 +15950,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -15939,7 +15974,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -15963,7 +15998,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -15987,7 +16022,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16011,7 +16046,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16035,7 +16070,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16059,7 +16094,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16083,7 +16118,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16107,7 +16142,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16131,7 +16166,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16155,7 +16190,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16179,7 +16214,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16203,7 +16238,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16227,7 +16262,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16251,7 +16286,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16275,7 +16310,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -16299,7 +16334,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -16323,7 +16358,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -16347,7 +16382,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -16371,7 +16406,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -16395,7 +16430,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -16419,7 +16454,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -16443,7 +16478,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -16467,7 +16502,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -16491,7 +16526,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -16515,7 +16550,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -16539,7 +16574,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -16563,7 +16598,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -16587,7 +16622,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -16611,7 +16646,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -16635,7 +16670,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -16659,7 +16694,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -16683,7 +16718,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -16707,7 +16742,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -16731,7 +16766,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -16755,7 +16790,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -16779,7 +16814,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -16803,7 +16838,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -16827,7 +16862,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -16851,7 +16886,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -16875,7 +16910,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -16899,7 +16934,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -16923,7 +16958,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -16947,7 +16982,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -16971,7 +17006,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -16995,7 +17030,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17019,7 +17054,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17043,7 +17078,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17067,7 +17102,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17091,7 +17126,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17115,7 +17150,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17139,7 +17174,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17163,7 +17198,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17187,7 +17222,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17211,7 +17246,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17235,7 +17270,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17259,7 +17294,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17283,7 +17318,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -17307,7 +17342,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -17331,7 +17366,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -17355,7 +17390,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -17379,7 +17414,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -17403,7 +17438,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -17427,7 +17462,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -17451,7 +17486,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -17475,7 +17510,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -17499,7 +17534,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -17523,7 +17558,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -17547,7 +17582,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -17571,7 +17606,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -17595,7 +17630,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -17619,7 +17654,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -17643,7 +17678,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -17667,7 +17702,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -17691,7 +17726,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -17715,7 +17750,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -17739,7 +17774,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -17763,7 +17798,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -17787,7 +17822,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -17811,7 +17846,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -17835,7 +17870,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -17859,7 +17894,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -17883,7 +17918,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -17907,7 +17942,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -17931,7 +17966,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -17955,7 +17990,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -17979,7 +18014,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18003,7 +18038,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18027,7 +18062,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18051,7 +18086,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18075,7 +18110,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18099,7 +18134,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18123,7 +18158,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18147,7 +18182,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18171,7 +18206,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18195,7 +18230,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18219,7 +18254,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18243,7 +18278,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18267,7 +18302,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -18291,7 +18326,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -18315,7 +18350,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -18339,7 +18374,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -18363,7 +18398,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -18387,7 +18422,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -18411,7 +18446,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -18435,7 +18470,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -18459,7 +18494,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -18483,7 +18518,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -18507,7 +18542,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -18531,7 +18566,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -18555,7 +18590,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -18579,7 +18614,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -18603,7 +18638,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -18627,7 +18662,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -18651,7 +18686,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -18675,7 +18710,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -18699,7 +18734,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -18723,7 +18758,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -18747,7 +18782,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -18771,7 +18806,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -18795,7 +18830,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -18819,7 +18854,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -18843,7 +18878,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -18867,7 +18902,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -18891,7 +18926,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -18915,7 +18950,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -18939,7 +18974,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -18963,7 +18998,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -18987,7 +19022,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19011,7 +19046,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19035,7 +19070,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19059,7 +19094,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19083,7 +19118,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19107,7 +19142,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19131,7 +19166,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19155,7 +19190,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19179,7 +19214,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19203,7 +19238,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19227,7 +19262,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19251,7 +19286,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19275,7 +19310,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -19299,7 +19334,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -19323,7 +19358,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -19347,7 +19382,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -19371,7 +19406,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -19395,7 +19430,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -19419,7 +19454,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -19443,7 +19478,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -19467,7 +19502,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -19491,7 +19526,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -19515,7 +19550,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -19539,7 +19574,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -19563,7 +19598,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -19587,7 +19622,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -19611,7 +19646,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -19635,7 +19670,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -19659,7 +19694,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -19683,7 +19718,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -19707,7 +19742,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -19731,7 +19766,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -19755,7 +19790,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -19779,7 +19814,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -19803,7 +19838,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -19827,7 +19862,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -19851,7 +19886,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -19875,7 +19910,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -19899,7 +19934,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -19923,7 +19958,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -19947,7 +19982,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -19971,7 +20006,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -19995,7 +20030,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20019,7 +20054,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20043,7 +20078,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20067,7 +20102,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20091,7 +20126,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20115,7 +20150,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20139,7 +20174,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20163,7 +20198,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20187,7 +20222,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20211,7 +20246,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20235,7 +20270,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20259,7 +20294,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20283,7 +20318,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -20307,7 +20342,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -20331,7 +20366,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -20355,7 +20390,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -20379,7 +20414,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -20403,7 +20438,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -20427,7 +20462,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -20451,7 +20486,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -20475,7 +20510,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -20499,7 +20534,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -20523,7 +20558,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -20547,7 +20582,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -20571,7 +20606,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -20595,7 +20630,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -20619,7 +20654,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -20643,7 +20678,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -20667,7 +20702,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -20691,7 +20726,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -20715,7 +20750,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -20739,7 +20774,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -20763,7 +20798,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -20787,7 +20822,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -20811,7 +20846,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -20835,7 +20870,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -20859,7 +20894,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -20883,7 +20918,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -20907,7 +20942,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -20931,7 +20966,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -20955,7 +20990,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -20979,7 +21014,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21003,7 +21038,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21027,7 +21062,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21051,7 +21086,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21075,7 +21110,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21099,7 +21134,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21123,7 +21158,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21147,7 +21182,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21171,7 +21206,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21195,7 +21230,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21219,7 +21254,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21243,7 +21278,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21267,7 +21302,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -21291,7 +21326,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -21315,7 +21350,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -21339,7 +21374,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -21363,7 +21398,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -21387,7 +21422,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -21411,7 +21446,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -21435,7 +21470,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -21459,7 +21494,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -21483,7 +21518,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -21507,7 +21542,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -21531,7 +21566,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -21555,7 +21590,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -21579,7 +21614,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -21603,7 +21638,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -21627,7 +21662,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -21651,7 +21686,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -21675,7 +21710,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -21699,7 +21734,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -21723,7 +21758,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -21747,7 +21782,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -21771,7 +21806,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -21795,7 +21830,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -21819,7 +21854,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -21843,7 +21878,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -21867,7 +21902,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -21891,7 +21926,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -21915,7 +21950,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -21939,7 +21974,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -21963,7 +21998,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -21987,7 +22022,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22011,7 +22046,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22035,7 +22070,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22059,7 +22094,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22083,7 +22118,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22107,7 +22142,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22131,7 +22166,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22155,7 +22190,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22179,7 +22214,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22203,7 +22238,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22227,7 +22262,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22251,7 +22286,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22275,7 +22310,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -22299,7 +22334,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -22323,7 +22358,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -22347,7 +22382,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -22371,7 +22406,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -22395,7 +22430,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -22419,7 +22454,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -22443,7 +22478,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -22467,7 +22502,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -22491,7 +22526,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -22515,7 +22550,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -22539,7 +22574,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -22563,7 +22598,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -22587,7 +22622,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -22611,7 +22646,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -22635,7 +22670,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -22659,7 +22694,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -22683,7 +22718,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -22707,7 +22742,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -22731,7 +22766,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -22755,7 +22790,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -22779,7 +22814,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -22803,7 +22838,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -22827,7 +22862,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -22851,7 +22886,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -22875,7 +22910,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -22899,7 +22934,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -22923,7 +22958,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -22947,7 +22982,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -22971,7 +23006,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -22995,7 +23030,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23019,7 +23054,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23043,7 +23078,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23067,7 +23102,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23091,7 +23126,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23115,7 +23150,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23139,7 +23174,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23163,7 +23198,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23187,7 +23222,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23211,7 +23246,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23235,7 +23270,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23259,7 +23294,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23283,7 +23318,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -23307,7 +23342,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -23331,7 +23366,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -23355,7 +23390,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -23379,7 +23414,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -23403,7 +23438,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -23427,7 +23462,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -23451,7 +23486,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -23475,7 +23510,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -23499,7 +23534,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -23523,7 +23558,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -23547,7 +23582,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -23571,7 +23606,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -23595,7 +23630,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -23619,7 +23654,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -23643,7 +23678,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -23667,7 +23702,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -23691,7 +23726,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -23715,7 +23750,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -23739,7 +23774,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -23763,7 +23798,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -23787,7 +23822,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -23811,7 +23846,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -23835,7 +23870,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -23859,7 +23894,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -23883,7 +23918,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -23907,7 +23942,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -23931,7 +23966,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -23955,7 +23990,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -23979,7 +24014,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24003,7 +24038,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24027,7 +24062,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24051,7 +24086,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24075,7 +24110,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24099,7 +24134,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24123,7 +24158,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24147,7 +24182,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24171,7 +24206,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24195,7 +24230,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
@@ -24218,7 +24253,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
@@ -24241,7 +24276,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillk\Documents\GitHub\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432ADAE-B0A1-4DF3-ACC2-60D055625D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7740242-DEDF-455C-AC0F-B56836F864E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>You should install the required software</t>
   </si>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>Darkshah</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -459,7 +453,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -544,8 +538,8 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
+      <c r="D2" s="9">
+        <v>1</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -578,8 +572,8 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
+      <c r="D3" s="9">
+        <v>1</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -612,8 +606,8 @@
       <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
+      <c r="D4" s="9">
+        <v>1</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -646,8 +640,8 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>28</v>
+      <c r="D5" s="9">
+        <v>1</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -680,8 +674,8 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
+      <c r="D6" s="9">
+        <v>1</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -714,8 +708,8 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
+      <c r="D7" s="9">
+        <v>1</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -748,8 +742,8 @@
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
+      <c r="D8" s="9">
+        <v>1</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -782,8 +776,8 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
+      <c r="D9" s="9">
+        <v>1</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -816,8 +810,8 @@
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
+      <c r="D10" s="9">
+        <v>1</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -850,8 +844,8 @@
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
+      <c r="D11" s="9">
+        <v>0.3</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillk\Documents\GitHub\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7740242-DEDF-455C-AC0F-B56836F864E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F7740242-DEDF-455C-AC0F-B56836F864E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DBEBA1D-4BDC-46C6-BD37-FD19B30B7D10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="xVZS5a/E8qws//PLhbk6vpqXulO7KwKAGCvX5FlAURA="/>
     </ext>
@@ -27,55 +41,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
-    <t>You should install the required software</t>
-  </si>
-  <si>
-    <t>You should create GitHub account</t>
-  </si>
-  <si>
-    <t>You should create two GitHub Repositories one for FlowCharts, and one for Pseudocodes</t>
-  </si>
-  <si>
-    <t>You should check in the artifacts into the main repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. One check in into FlowCharts Repository </t>
-  </si>
-  <si>
-    <t>2. One check in into Pseudocodes Repository</t>
-  </si>
-  <si>
-    <t>You should be able to add others into your repository as collaborators</t>
-  </si>
-  <si>
-    <t>You should create the branch policies</t>
-  </si>
-  <si>
-    <t>You should create a feature branch, make all the changes and check-in into feature branch</t>
-  </si>
-  <si>
-    <t>You should be able to raise the PR, Review, and complete the PR</t>
-  </si>
-  <si>
-    <t>This Lab should cover 1, 2, and 4 only</t>
-  </si>
-  <si>
     <t>Assignment #</t>
   </si>
   <si>
-    <t>Assignment-1</t>
-  </si>
-  <si>
-    <t>LAB-1</t>
-  </si>
-  <si>
-    <t>LAB-2</t>
+    <t>LAB #</t>
   </si>
   <si>
     <t>Lab Item</t>
-  </si>
-  <si>
-    <t>LAB #</t>
   </si>
   <si>
     <t>Maryam</t>
@@ -88,6 +60,9 @@
   </si>
   <si>
     <t>Irtiqa</t>
+  </si>
+  <si>
+    <t>Darkshah</t>
   </si>
   <si>
     <t>Haider</t>
@@ -108,14 +83,53 @@
     <t>Misbah</t>
   </si>
   <si>
-    <t>Darkshah</t>
+    <t>Assignment-1</t>
+  </si>
+  <si>
+    <t>LAB-1</t>
+  </si>
+  <si>
+    <t>You should install the required software</t>
+  </si>
+  <si>
+    <t>You should create GitHub account</t>
+  </si>
+  <si>
+    <t>You should create two GitHub Repositories one for FlowCharts, and one for Pseudocodes</t>
+  </si>
+  <si>
+    <t>You should check in the artifacts into the main repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. One check in into FlowCharts Repository </t>
+  </si>
+  <si>
+    <t>2. One check in into Pseudocodes Repository</t>
+  </si>
+  <si>
+    <t>LAB-2</t>
+  </si>
+  <si>
+    <t>You should be able to add others into your repository as collaborators</t>
+  </si>
+  <si>
+    <t>You should create the branch policies</t>
+  </si>
+  <si>
+    <t>You should create a feature branch, make all the changes and check-in into feature branch</t>
+  </si>
+  <si>
+    <t>You should be able to raise the PR, Review, and complete the PR</t>
+  </si>
+  <si>
+    <t>This Lab should cover 1, 2, and 4 only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,13 +464,13 @@
   <dimension ref="A1:X985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="103.42578125" customWidth="1"/>
@@ -474,48 +488,48 @@
     <col min="15" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="1"/>
@@ -528,15 +542,15 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -547,7 +561,9 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -562,15 +578,15 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -581,7 +597,9 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -596,15 +614,15 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -615,7 +633,9 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -630,15 +650,15 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -649,7 +669,9 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -664,15 +686,15 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -683,7 +705,9 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -698,15 +722,15 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -717,7 +741,9 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -732,15 +758,15 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -751,7 +777,9 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -766,15 +794,15 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -785,7 +813,9 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -800,15 +830,15 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -819,7 +849,9 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -834,15 +866,15 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9">
         <v>0.3</v>
@@ -853,7 +885,9 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9">
+        <v>0.8</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -868,15 +902,15 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -900,7 +934,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -926,7 +960,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -952,7 +986,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -978,7 +1012,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1004,7 +1038,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1030,7 +1064,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1056,7 +1090,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1082,7 +1116,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1108,7 +1142,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1134,7 +1168,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1160,7 +1194,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1186,7 +1220,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1212,7 +1246,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1238,7 +1272,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1264,7 +1298,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1290,7 +1324,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1316,7 +1350,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1342,7 +1376,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1368,7 +1402,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1394,7 +1428,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1420,7 +1454,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1446,7 +1480,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1472,7 +1506,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1496,7 +1530,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1520,7 +1554,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1544,7 +1578,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1568,7 +1602,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1592,7 +1626,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1616,7 +1650,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1640,7 +1674,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1664,7 +1698,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1688,7 +1722,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1712,7 +1746,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1736,7 +1770,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1760,7 +1794,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1784,7 +1818,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1808,7 +1842,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:24" ht="15.75" customHeight="1">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1832,7 +1866,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:24" ht="15.75" customHeight="1">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1856,7 +1890,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:24" ht="15.75" customHeight="1">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1880,7 +1914,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:24" ht="15.75" customHeight="1">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1904,7 +1938,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:24" ht="15.75" customHeight="1">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1928,7 +1962,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:24" ht="15.75" customHeight="1">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1952,7 +1986,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:24" ht="15.75" customHeight="1">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1976,7 +2010,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:24" ht="15.75" customHeight="1">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2000,7 +2034,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:24" ht="15.75" customHeight="1">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2024,7 +2058,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:24" ht="15.75" customHeight="1">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2048,7 +2082,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:24" ht="15.75" customHeight="1">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2072,7 +2106,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:24" ht="15.75" customHeight="1">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2096,7 +2130,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24" ht="15.75" customHeight="1">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2120,7 +2154,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:24" ht="15.75" customHeight="1">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2144,7 +2178,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:24" ht="15.75" customHeight="1">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2168,7 +2202,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:24" ht="15.75" customHeight="1">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2192,7 +2226,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" ht="15.75" customHeight="1">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2216,7 +2250,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24" ht="15.75" customHeight="1">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2240,7 +2274,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24" ht="15.75" customHeight="1">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2264,7 +2298,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:24" ht="15.75" customHeight="1">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2288,7 +2322,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" ht="15.75" customHeight="1">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2312,7 +2346,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:24" ht="15.75" customHeight="1">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2336,7 +2370,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" ht="15.75" customHeight="1">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2360,7 +2394,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:24" ht="15.75" customHeight="1">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2384,7 +2418,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:24" ht="15.75" customHeight="1">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2408,7 +2442,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:24" ht="15.75" customHeight="1">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2432,7 +2466,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:24" ht="15.75" customHeight="1">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2456,7 +2490,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:24" ht="15.75" customHeight="1">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2480,7 +2514,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:24" ht="15.75" customHeight="1">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2504,7 +2538,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:24" ht="15.75" customHeight="1">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2528,7 +2562,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:24" ht="15.75" customHeight="1">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2552,7 +2586,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:24" ht="15.75" customHeight="1">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2576,7 +2610,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" ht="15.75" customHeight="1">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2600,7 +2634,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" ht="15.75" customHeight="1">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2624,7 +2658,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:24" ht="15.75" customHeight="1">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2648,7 +2682,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:24" ht="15.75" customHeight="1">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2672,7 +2706,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:24" ht="15.75" customHeight="1">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2696,7 +2730,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:24" ht="15.75" customHeight="1">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2720,7 +2754,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:24" ht="15.75" customHeight="1">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2744,7 +2778,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:24" ht="15.75" customHeight="1">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2768,7 +2802,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:24" ht="15.75" customHeight="1">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2792,7 +2826,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:24" ht="15.75" customHeight="1">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2816,7 +2850,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:24" ht="15.75" customHeight="1">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2840,7 +2874,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" ht="15.75" customHeight="1">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2864,7 +2898,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:24" ht="15.75" customHeight="1">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2888,7 +2922,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:24" ht="15.75" customHeight="1">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2912,7 +2946,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:24" ht="15.75" customHeight="1">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2936,7 +2970,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" ht="15.75" customHeight="1">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2960,7 +2994,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:24" ht="15.75" customHeight="1">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2984,7 +3018,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:24" ht="15.75" customHeight="1">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3008,7 +3042,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:24" ht="15.75" customHeight="1">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3032,7 +3066,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:24" ht="15.75" customHeight="1">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3056,7 +3090,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:24" ht="15.75" customHeight="1">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3080,7 +3114,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:24" ht="15.75" customHeight="1">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3104,7 +3138,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:24" ht="15.75" customHeight="1">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3128,7 +3162,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:24" ht="15.75" customHeight="1">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3152,7 +3186,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:24" ht="15.75" customHeight="1">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3176,7 +3210,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:24" ht="15.75" customHeight="1">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3200,7 +3234,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:24" ht="15.75" customHeight="1">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3224,7 +3258,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:24" ht="15.75" customHeight="1">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3248,7 +3282,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:24" ht="15.75" customHeight="1">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3272,7 +3306,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:24" ht="15.75" customHeight="1">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3296,7 +3330,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:24" ht="15.75" customHeight="1">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3320,7 +3354,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:24" ht="15.75" customHeight="1">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3344,7 +3378,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:24" ht="15.75" customHeight="1">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3368,7 +3402,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:24" ht="15.75" customHeight="1">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3392,7 +3426,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:24" ht="15.75" customHeight="1">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3416,7 +3450,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:24" ht="15.75" customHeight="1">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3440,7 +3474,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:24" ht="15.75" customHeight="1">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3464,7 +3498,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:24" ht="15.75" customHeight="1">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3488,7 +3522,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:24" ht="15.75" customHeight="1">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3512,7 +3546,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:24" ht="15.75" customHeight="1">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3536,7 +3570,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:24" ht="15.75" customHeight="1">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3560,7 +3594,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:24" ht="15.75" customHeight="1">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3584,7 +3618,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:24" ht="15.75" customHeight="1">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3608,7 +3642,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:24" ht="15.75" customHeight="1">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3632,7 +3666,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:24" ht="15.75" customHeight="1">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3656,7 +3690,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:24" ht="15.75" customHeight="1">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3680,7 +3714,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:24" ht="15.75" customHeight="1">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3704,7 +3738,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:24" ht="15.75" customHeight="1">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3728,7 +3762,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:24" ht="15.75" customHeight="1">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3752,7 +3786,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:24" ht="15.75" customHeight="1">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3776,7 +3810,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24" ht="15.75" customHeight="1">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3800,7 +3834,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:24" ht="15.75" customHeight="1">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3824,7 +3858,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:24" ht="15.75" customHeight="1">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3848,7 +3882,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:24" ht="15.75" customHeight="1">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3872,7 +3906,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:24" ht="15.75" customHeight="1">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3896,7 +3930,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:24" ht="15.75" customHeight="1">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3920,7 +3954,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:24" ht="15.75" customHeight="1">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3944,7 +3978,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:24" ht="15.75" customHeight="1">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3968,7 +4002,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:24" ht="15.75" customHeight="1">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3992,7 +4026,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:24" ht="15.75" customHeight="1">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4016,7 +4050,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:24" ht="15.75" customHeight="1">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4040,7 +4074,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:24" ht="15.75" customHeight="1">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4064,7 +4098,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:24" ht="15.75" customHeight="1">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4088,7 +4122,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:24" ht="15.75" customHeight="1">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4112,7 +4146,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" ht="15.75" customHeight="1">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4136,7 +4170,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" ht="15.75" customHeight="1">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4160,7 +4194,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" ht="15.75" customHeight="1">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4184,7 +4218,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" ht="15.75" customHeight="1">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4208,7 +4242,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" ht="15.75" customHeight="1">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4232,7 +4266,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" ht="15.75" customHeight="1">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4256,7 +4290,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" ht="15.75" customHeight="1">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4280,7 +4314,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" ht="15.75" customHeight="1">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4304,7 +4338,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" ht="15.75" customHeight="1">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4328,7 +4362,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" ht="15.75" customHeight="1">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4352,7 +4386,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" ht="15.75" customHeight="1">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4376,7 +4410,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" ht="15.75" customHeight="1">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4400,7 +4434,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" ht="15.75" customHeight="1">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4424,7 +4458,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" ht="15.75" customHeight="1">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4448,7 +4482,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" ht="15.75" customHeight="1">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4472,7 +4506,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:24" ht="15.75" customHeight="1">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4496,7 +4530,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:24" ht="15.75" customHeight="1">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4520,7 +4554,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:24" ht="15.75" customHeight="1">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4544,7 +4578,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:24" ht="15.75" customHeight="1">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4568,7 +4602,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:24" ht="15.75" customHeight="1">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4592,7 +4626,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:24" ht="15.75" customHeight="1">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4616,7 +4650,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:24" ht="15.75" customHeight="1">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4640,7 +4674,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:24" ht="15.75" customHeight="1">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4664,7 +4698,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:24" ht="15.75" customHeight="1">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4688,7 +4722,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:24" ht="15.75" customHeight="1">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4712,7 +4746,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:24" ht="15.75" customHeight="1">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4736,7 +4770,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:24" ht="15.75" customHeight="1">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4760,7 +4794,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:24" ht="15.75" customHeight="1">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4784,7 +4818,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:24" ht="15.75" customHeight="1">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4808,7 +4842,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:24" ht="15.75" customHeight="1">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4832,7 +4866,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:24" ht="15.75" customHeight="1">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4856,7 +4890,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:24" ht="15.75" customHeight="1">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4880,7 +4914,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" ht="15.75" customHeight="1">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4904,7 +4938,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:24" ht="15.75" customHeight="1">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4928,7 +4962,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:24" ht="15.75" customHeight="1">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4952,7 +4986,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:24" ht="15.75" customHeight="1">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4976,7 +5010,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:24" ht="15.75" customHeight="1">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5000,7 +5034,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:24" ht="15.75" customHeight="1">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5024,7 +5058,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:24" ht="15.75" customHeight="1">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5048,7 +5082,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:24" ht="15.75" customHeight="1">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5072,7 +5106,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:24" ht="15.75" customHeight="1">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5096,7 +5130,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:24" ht="15.75" customHeight="1">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5120,7 +5154,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:24" ht="15.75" customHeight="1">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5144,7 +5178,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:24" ht="15.75" customHeight="1">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5168,7 +5202,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:24" ht="15.75" customHeight="1">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5192,7 +5226,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:24" ht="15.75" customHeight="1">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5216,7 +5250,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:24" ht="15.75" customHeight="1">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5240,7 +5274,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:24" ht="15.75" customHeight="1">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5264,7 +5298,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:24" ht="15.75" customHeight="1">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5288,7 +5322,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:24" ht="15.75" customHeight="1">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5312,7 +5346,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:24" ht="15.75" customHeight="1">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5336,7 +5370,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:24" ht="15.75" customHeight="1">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5360,7 +5394,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:24" ht="15.75" customHeight="1">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5384,7 +5418,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:24" ht="15.75" customHeight="1">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5408,7 +5442,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:24" ht="15.75" customHeight="1">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5432,7 +5466,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:24" ht="15.75" customHeight="1">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5456,7 +5490,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:24" ht="15.75" customHeight="1">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5480,7 +5514,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:24" ht="15.75" customHeight="1">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5504,7 +5538,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:24" ht="15.75" customHeight="1">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5528,7 +5562,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:24" ht="15.75" customHeight="1">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5552,7 +5586,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:24" ht="15.75" customHeight="1">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5576,7 +5610,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:24" ht="15.75" customHeight="1">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5600,7 +5634,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:24" ht="15.75" customHeight="1">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5624,7 +5658,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:24" ht="15.75" customHeight="1">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5648,7 +5682,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:24" ht="15.75" customHeight="1">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5672,7 +5706,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:24" ht="15.75" customHeight="1">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5696,7 +5730,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:24" ht="15.75" customHeight="1">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5720,7 +5754,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:24" ht="15.75" customHeight="1">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5744,7 +5778,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:24" ht="15.75" customHeight="1">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5768,7 +5802,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:24" ht="15.75" customHeight="1">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5792,7 +5826,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:24" ht="15.75" customHeight="1">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5816,7 +5850,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:24" ht="15.75" customHeight="1">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5840,7 +5874,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:24" ht="15.75" customHeight="1">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5864,7 +5898,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:24" ht="15.75" customHeight="1">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5888,7 +5922,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:24" ht="15.75" customHeight="1">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5912,7 +5946,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:24" ht="15.75" customHeight="1">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5936,7 +5970,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:24" ht="15.75" customHeight="1">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5960,7 +5994,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:24" ht="15.75" customHeight="1">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5984,7 +6018,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:24" ht="15.75" customHeight="1">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6008,7 +6042,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:24" ht="15.75" customHeight="1">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6032,7 +6066,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:24" ht="15.75" customHeight="1">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6056,7 +6090,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:24" ht="15.75" customHeight="1">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6080,7 +6114,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:24" ht="15.75" customHeight="1">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6104,7 +6138,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:24" ht="15.75" customHeight="1">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6128,7 +6162,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:24" ht="15.75" customHeight="1">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6152,7 +6186,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:24" ht="15.75" customHeight="1">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6176,7 +6210,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:24" ht="15.75" customHeight="1">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6200,7 +6234,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:24" ht="15.75" customHeight="1">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6224,7 +6258,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:24" ht="15.75" customHeight="1">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6248,7 +6282,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:24" ht="15.75" customHeight="1">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6272,7 +6306,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:24" ht="15.75" customHeight="1">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6296,7 +6330,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:24" ht="15.75" customHeight="1">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6320,7 +6354,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:24" ht="15.75" customHeight="1">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6344,7 +6378,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:24" ht="15.75" customHeight="1">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6368,7 +6402,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:24" ht="15.75" customHeight="1">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6392,7 +6426,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:24" ht="15.75" customHeight="1">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6416,7 +6450,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:24" ht="15.75" customHeight="1">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6440,7 +6474,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:24" ht="15.75" customHeight="1">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6464,7 +6498,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:24" ht="15.75" customHeight="1">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6488,7 +6522,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:24" ht="15.75" customHeight="1">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6512,7 +6546,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:24" ht="15.75" customHeight="1">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6536,7 +6570,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:24" ht="15.75" customHeight="1">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6560,7 +6594,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:24" ht="15.75" customHeight="1">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6584,7 +6618,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:24" ht="15.75" customHeight="1">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6608,7 +6642,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:24" ht="15.75" customHeight="1">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6632,7 +6666,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:24" ht="15.75" customHeight="1">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6656,7 +6690,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:24" ht="15.75" customHeight="1">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6680,7 +6714,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:24" ht="15.75" customHeight="1">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6704,7 +6738,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:24" ht="15.75" customHeight="1">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6728,7 +6762,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:24" ht="15.75" customHeight="1">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6752,7 +6786,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:24" ht="15.75" customHeight="1">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6776,7 +6810,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:24" ht="15.75" customHeight="1">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6800,7 +6834,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:24" ht="15.75" customHeight="1">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6824,7 +6858,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:24" ht="15.75" customHeight="1">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6848,7 +6882,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:24" ht="15.75" customHeight="1">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6872,7 +6906,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:24" ht="15.75" customHeight="1">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6896,7 +6930,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:24" ht="15.75" customHeight="1">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6920,7 +6954,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:24" ht="15.75" customHeight="1">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6944,7 +6978,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:24" ht="15.75" customHeight="1">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6968,7 +7002,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:24" ht="15.75" customHeight="1">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6992,7 +7026,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:24" ht="15.75" customHeight="1">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7016,7 +7050,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:24" ht="15.75" customHeight="1">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7040,7 +7074,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:24" ht="15.75" customHeight="1">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7064,7 +7098,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:24" ht="15.75" customHeight="1">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7088,7 +7122,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:24" ht="15.75" customHeight="1">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7112,7 +7146,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:24" ht="15.75" customHeight="1">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7136,7 +7170,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:24" ht="15.75" customHeight="1">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7160,7 +7194,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:24" ht="15.75" customHeight="1">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7184,7 +7218,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:24" ht="15.75" customHeight="1">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7208,7 +7242,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:24" ht="15.75" customHeight="1">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7232,7 +7266,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:24" ht="15.75" customHeight="1">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7256,7 +7290,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:24" ht="15.75" customHeight="1">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7280,7 +7314,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:24" ht="15.75" customHeight="1">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7304,7 +7338,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:24" ht="15.75" customHeight="1">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7328,7 +7362,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:24" ht="15.75" customHeight="1">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7352,7 +7386,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:24" ht="15.75" customHeight="1">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7376,7 +7410,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:24" ht="15.75" customHeight="1">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7400,7 +7434,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:24" ht="15.75" customHeight="1">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7424,7 +7458,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:24" ht="15.75" customHeight="1">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7448,7 +7482,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:24" ht="15.75" customHeight="1">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7472,7 +7506,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:24" ht="15.75" customHeight="1">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7496,7 +7530,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:24" ht="15.75" customHeight="1">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7520,7 +7554,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:24" ht="15.75" customHeight="1">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7544,7 +7578,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:24" ht="15.75" customHeight="1">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7568,7 +7602,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:24" ht="15.75" customHeight="1">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7592,7 +7626,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:24" ht="15.75" customHeight="1">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7616,7 +7650,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:24" ht="15.75" customHeight="1">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7640,7 +7674,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:24" ht="15.75" customHeight="1">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7664,7 +7698,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:24" ht="15.75" customHeight="1">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7688,7 +7722,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:24" ht="15.75" customHeight="1">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7712,7 +7746,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:24" ht="15.75" customHeight="1">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7736,7 +7770,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:24" ht="15.75" customHeight="1">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7760,7 +7794,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:24" ht="15.75" customHeight="1">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7784,7 +7818,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:24" ht="15.75" customHeight="1">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7808,7 +7842,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:24" ht="15.75" customHeight="1">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7832,7 +7866,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:24" ht="15.75" customHeight="1">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7856,7 +7890,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:24" ht="15.75" customHeight="1">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7880,7 +7914,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:24" ht="15.75" customHeight="1">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7904,7 +7938,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:24" ht="15.75" customHeight="1">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -7928,7 +7962,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:24" ht="15.75" customHeight="1">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -7952,7 +7986,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:24" ht="15.75" customHeight="1">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -7976,7 +8010,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:24" ht="15.75" customHeight="1">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8000,7 +8034,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:24" ht="15.75" customHeight="1">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8024,7 +8058,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:24" ht="15.75" customHeight="1">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8048,7 +8082,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:24" ht="15.75" customHeight="1">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8072,7 +8106,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:24" ht="15.75" customHeight="1">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8096,7 +8130,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:24" ht="15.75" customHeight="1">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8120,7 +8154,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:24" ht="15.75" customHeight="1">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8144,7 +8178,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:24" ht="15.75" customHeight="1">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8168,7 +8202,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:24" ht="15.75" customHeight="1">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8192,7 +8226,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:24" ht="15.75" customHeight="1">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8216,7 +8250,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:24" ht="15.75" customHeight="1">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8240,7 +8274,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:24" ht="15.75" customHeight="1">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8264,7 +8298,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:24" ht="15.75" customHeight="1">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8288,7 +8322,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:24" ht="15.75" customHeight="1">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8312,7 +8346,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:24" ht="15.75" customHeight="1">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -8336,7 +8370,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:24" ht="15.75" customHeight="1">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -8360,7 +8394,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:24" ht="15.75" customHeight="1">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -8384,7 +8418,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:24" ht="15.75" customHeight="1">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8408,7 +8442,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:24" ht="15.75" customHeight="1">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -8432,7 +8466,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:24" ht="15.75" customHeight="1">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8456,7 +8490,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:24" ht="15.75" customHeight="1">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8480,7 +8514,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:24" ht="15.75" customHeight="1">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -8504,7 +8538,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:24" ht="15.75" customHeight="1">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8528,7 +8562,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:24" ht="15.75" customHeight="1">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8552,7 +8586,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:24" ht="15.75" customHeight="1">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -8576,7 +8610,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:24" ht="15.75" customHeight="1">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8600,7 +8634,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:24" ht="15.75" customHeight="1">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8624,7 +8658,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:24" ht="15.75" customHeight="1">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -8648,7 +8682,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:24" ht="15.75" customHeight="1">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8672,7 +8706,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:24" ht="15.75" customHeight="1">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8696,7 +8730,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:24" ht="15.75" customHeight="1">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -8720,7 +8754,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:24" ht="15.75" customHeight="1">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8744,7 +8778,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:24" ht="15.75" customHeight="1">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8768,7 +8802,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:24" ht="15.75" customHeight="1">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -8792,7 +8826,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:24" ht="15.75" customHeight="1">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8816,7 +8850,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:24" ht="15.75" customHeight="1">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8840,7 +8874,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:24" ht="15.75" customHeight="1">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -8864,7 +8898,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:24" ht="15.75" customHeight="1">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8888,7 +8922,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:24" ht="15.75" customHeight="1">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8912,7 +8946,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:24" ht="15.75" customHeight="1">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -8936,7 +8970,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:24" ht="15.75" customHeight="1">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -8960,7 +8994,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:24" ht="15.75" customHeight="1">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -8984,7 +9018,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:24" ht="15.75" customHeight="1">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9008,7 +9042,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:24" ht="15.75" customHeight="1">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9032,7 +9066,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:24" ht="15.75" customHeight="1">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9056,7 +9090,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:24" ht="15.75" customHeight="1">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9080,7 +9114,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:24" ht="15.75" customHeight="1">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9104,7 +9138,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:24" ht="15.75" customHeight="1">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9128,7 +9162,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:24" ht="15.75" customHeight="1">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9152,7 +9186,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:24" ht="15.75" customHeight="1">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9176,7 +9210,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:24" ht="15.75" customHeight="1">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9200,7 +9234,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:24" ht="15.75" customHeight="1">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9224,7 +9258,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:24" ht="15.75" customHeight="1">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9248,7 +9282,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:24" ht="15.75" customHeight="1">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9272,7 +9306,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:24" ht="15.75" customHeight="1">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9296,7 +9330,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:24" ht="15.75" customHeight="1">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -9320,7 +9354,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:24" ht="15.75" customHeight="1">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -9344,7 +9378,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:24" ht="15.75" customHeight="1">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -9368,7 +9402,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:24" ht="15.75" customHeight="1">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -9392,7 +9426,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:24" ht="15.75" customHeight="1">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -9416,7 +9450,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:24" ht="15.75" customHeight="1">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -9440,7 +9474,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:24" ht="15.75" customHeight="1">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -9464,7 +9498,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:24" ht="15.75" customHeight="1">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -9488,7 +9522,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:24" ht="15.75" customHeight="1">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -9512,7 +9546,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:24" ht="15.75" customHeight="1">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -9536,7 +9570,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:24" ht="15.75" customHeight="1">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -9560,7 +9594,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:24" ht="15.75" customHeight="1">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -9584,7 +9618,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:24" ht="15.75" customHeight="1">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -9608,7 +9642,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:24" ht="15.75" customHeight="1">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -9632,7 +9666,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:24" ht="15.75" customHeight="1">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -9656,7 +9690,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:24" ht="15.75" customHeight="1">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -9680,7 +9714,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:24" ht="15.75" customHeight="1">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9704,7 +9738,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:24" ht="15.75" customHeight="1">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -9728,7 +9762,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:24" ht="15.75" customHeight="1">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9752,7 +9786,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:24" ht="15.75" customHeight="1">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9776,7 +9810,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:24" ht="15.75" customHeight="1">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -9800,7 +9834,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:24" ht="15.75" customHeight="1">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9824,7 +9858,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:24" ht="15.75" customHeight="1">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9848,7 +9882,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:24" ht="15.75" customHeight="1">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -9872,7 +9906,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:24" ht="15.75" customHeight="1">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9896,7 +9930,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:24" ht="15.75" customHeight="1">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9920,7 +9954,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:24" ht="15.75" customHeight="1">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -9944,7 +9978,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:24" ht="15.75" customHeight="1">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -9968,7 +10002,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:24" ht="15.75" customHeight="1">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -9992,7 +10026,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:24" ht="15.75" customHeight="1">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10016,7 +10050,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:24" ht="15.75" customHeight="1">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10040,7 +10074,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:24" ht="15.75" customHeight="1">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10064,7 +10098,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:24" ht="15.75" customHeight="1">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10088,7 +10122,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:24" ht="15.75" customHeight="1">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10112,7 +10146,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:24" ht="15.75" customHeight="1">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10136,7 +10170,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:24" ht="15.75" customHeight="1">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10160,7 +10194,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:24" ht="15.75" customHeight="1">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10184,7 +10218,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:24" ht="15.75" customHeight="1">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10208,7 +10242,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:24" ht="15.75" customHeight="1">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10232,7 +10266,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:24" ht="15.75" customHeight="1">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10256,7 +10290,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:24" ht="15.75" customHeight="1">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10280,7 +10314,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:24" ht="15.75" customHeight="1">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10304,7 +10338,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:24" ht="15.75" customHeight="1">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -10328,7 +10362,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:24" ht="15.75" customHeight="1">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -10352,7 +10386,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:24" ht="15.75" customHeight="1">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -10376,7 +10410,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:24" ht="15.75" customHeight="1">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -10400,7 +10434,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:24" ht="15.75" customHeight="1">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -10424,7 +10458,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:24" ht="15.75" customHeight="1">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -10448,7 +10482,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:24" ht="15.75" customHeight="1">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -10472,7 +10506,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:24" ht="15.75" customHeight="1">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -10496,7 +10530,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:24" ht="15.75" customHeight="1">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -10520,7 +10554,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:24" ht="15.75" customHeight="1">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -10544,7 +10578,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:24" ht="15.75" customHeight="1">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -10568,7 +10602,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:24" ht="15.75" customHeight="1">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -10592,7 +10626,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:24" ht="15.75" customHeight="1">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -10616,7 +10650,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:24" ht="15.75" customHeight="1">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -10640,7 +10674,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:24" ht="15.75" customHeight="1">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -10664,7 +10698,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:24" ht="15.75" customHeight="1">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -10688,7 +10722,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:24" ht="15.75" customHeight="1">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -10712,7 +10746,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:24" ht="15.75" customHeight="1">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -10736,7 +10770,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:24" ht="15.75" customHeight="1">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -10760,7 +10794,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:24" ht="15.75" customHeight="1">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -10784,7 +10818,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:24" ht="15.75" customHeight="1">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -10808,7 +10842,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:24" ht="15.75" customHeight="1">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -10832,7 +10866,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:24" ht="15.75" customHeight="1">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -10856,7 +10890,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:24" ht="15.75" customHeight="1">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -10880,7 +10914,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:24" ht="15.75" customHeight="1">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -10904,7 +10938,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:24" ht="15.75" customHeight="1">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -10928,7 +10962,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:24" ht="15.75" customHeight="1">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -10952,7 +10986,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:24" ht="15.75" customHeight="1">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -10976,7 +11010,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:24" ht="15.75" customHeight="1">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11000,7 +11034,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:24" ht="15.75" customHeight="1">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11024,7 +11058,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:24" ht="15.75" customHeight="1">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11048,7 +11082,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:24" ht="15.75" customHeight="1">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11072,7 +11106,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:24" ht="15.75" customHeight="1">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11096,7 +11130,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:24" ht="15.75" customHeight="1">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11120,7 +11154,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:24" ht="15.75" customHeight="1">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11144,7 +11178,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:24" ht="15.75" customHeight="1">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11168,7 +11202,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:24" ht="15.75" customHeight="1">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11192,7 +11226,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:24" ht="15.75" customHeight="1">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11216,7 +11250,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:24" ht="15.75" customHeight="1">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11240,7 +11274,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:24" ht="15.75" customHeight="1">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11264,7 +11298,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:24" ht="15.75" customHeight="1">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11288,7 +11322,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:24" ht="15.75" customHeight="1">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11312,7 +11346,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:24" ht="15.75" customHeight="1">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -11336,7 +11370,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:24" ht="15.75" customHeight="1">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -11360,7 +11394,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:24" ht="15.75" customHeight="1">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -11384,7 +11418,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:24" ht="15.75" customHeight="1">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -11408,7 +11442,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:24" ht="15.75" customHeight="1">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -11432,7 +11466,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:24" ht="15.75" customHeight="1">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -11456,7 +11490,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:24" ht="15.75" customHeight="1">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -11480,7 +11514,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:24" ht="15.75" customHeight="1">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -11504,7 +11538,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:24" ht="15.75" customHeight="1">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -11528,7 +11562,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:24" ht="15.75" customHeight="1">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -11552,7 +11586,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:24" ht="15.75" customHeight="1">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -11576,7 +11610,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:24" ht="15.75" customHeight="1">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -11600,7 +11634,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:24" ht="15.75" customHeight="1">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -11624,7 +11658,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:24" ht="15.75" customHeight="1">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -11648,7 +11682,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:24" ht="15.75" customHeight="1">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -11672,7 +11706,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:24" ht="15.75" customHeight="1">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -11696,7 +11730,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:24" ht="15.75" customHeight="1">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -11720,7 +11754,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:24" ht="15.75" customHeight="1">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -11744,7 +11778,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:24" ht="15.75" customHeight="1">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11768,7 +11802,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:24" ht="15.75" customHeight="1">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -11792,7 +11826,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:24" ht="15.75" customHeight="1">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -11816,7 +11850,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:24" ht="15.75" customHeight="1">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -11840,7 +11874,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:24" ht="15.75" customHeight="1">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -11864,7 +11898,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:24" ht="15.75" customHeight="1">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -11888,7 +11922,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:24" ht="15.75" customHeight="1">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -11912,7 +11946,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:24" ht="15.75" customHeight="1">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -11936,7 +11970,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:24" ht="15.75" customHeight="1">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -11960,7 +11994,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:24" ht="15.75" customHeight="1">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -11984,7 +12018,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:24" ht="15.75" customHeight="1">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12008,7 +12042,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:24" ht="15.75" customHeight="1">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12032,7 +12066,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:24" ht="15.75" customHeight="1">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12056,7 +12090,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:24" ht="15.75" customHeight="1">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12080,7 +12114,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:24" ht="15.75" customHeight="1">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12104,7 +12138,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:24" ht="15.75" customHeight="1">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12128,7 +12162,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:24" ht="15.75" customHeight="1">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12152,7 +12186,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:24" ht="15.75" customHeight="1">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12176,7 +12210,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:24" ht="15.75" customHeight="1">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12200,7 +12234,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:24" ht="15.75" customHeight="1">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12224,7 +12258,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:24" ht="15.75" customHeight="1">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12248,7 +12282,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:24" ht="15.75" customHeight="1">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12272,7 +12306,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:24" ht="15.75" customHeight="1">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12296,7 +12330,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:24" ht="15.75" customHeight="1">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -12320,7 +12354,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:24" ht="15.75" customHeight="1">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -12344,7 +12378,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:24" ht="15.75" customHeight="1">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -12368,7 +12402,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:24" ht="15.75" customHeight="1">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -12392,7 +12426,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:24" ht="15.75" customHeight="1">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -12416,7 +12450,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:24" ht="15.75" customHeight="1">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -12440,7 +12474,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:24" ht="15.75" customHeight="1">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -12464,7 +12498,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:24" ht="15.75" customHeight="1">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -12488,7 +12522,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:24" ht="15.75" customHeight="1">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -12512,7 +12546,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:24" ht="15.75" customHeight="1">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -12536,7 +12570,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:24" ht="15.75" customHeight="1">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -12560,7 +12594,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:24" ht="15.75" customHeight="1">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -12584,7 +12618,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:24" ht="15.75" customHeight="1">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -12608,7 +12642,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:24" ht="15.75" customHeight="1">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -12632,7 +12666,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:24" ht="15.75" customHeight="1">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -12656,7 +12690,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:24" ht="15.75" customHeight="1">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -12680,7 +12714,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:24" ht="15.75" customHeight="1">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -12704,7 +12738,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:24" ht="15.75" customHeight="1">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -12728,7 +12762,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:24" ht="15.75" customHeight="1">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -12752,7 +12786,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:24" ht="15.75" customHeight="1">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -12776,7 +12810,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:24" ht="15.75" customHeight="1">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -12800,7 +12834,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:24" ht="15.75" customHeight="1">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -12824,7 +12858,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:24" ht="15.75" customHeight="1">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -12848,7 +12882,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:24" ht="15.75" customHeight="1">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -12872,7 +12906,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:24" ht="15.75" customHeight="1">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -12896,7 +12930,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:24" ht="15.75" customHeight="1">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -12920,7 +12954,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:24" ht="15.75" customHeight="1">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -12944,7 +12978,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:24" ht="15.75" customHeight="1">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -12968,7 +13002,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:24" ht="15.75" customHeight="1">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -12992,7 +13026,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:24" ht="15.75" customHeight="1">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13016,7 +13050,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:24" ht="15.75" customHeight="1">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13040,7 +13074,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:24" ht="15.75" customHeight="1">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13064,7 +13098,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:24" ht="15.75" customHeight="1">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13088,7 +13122,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:24" ht="15.75" customHeight="1">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13112,7 +13146,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:24" ht="15.75" customHeight="1">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13136,7 +13170,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:24" ht="15.75" customHeight="1">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13160,7 +13194,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:24" ht="15.75" customHeight="1">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13184,7 +13218,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:24" ht="15.75" customHeight="1">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13208,7 +13242,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:24" ht="15.75" customHeight="1">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13232,7 +13266,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:24" ht="15.75" customHeight="1">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13256,7 +13290,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:24" ht="15.75" customHeight="1">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13280,7 +13314,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:24" ht="15.75" customHeight="1">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13304,7 +13338,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:24" ht="15.75" customHeight="1">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -13328,7 +13362,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:24" ht="15.75" customHeight="1">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -13352,7 +13386,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:24" ht="15.75" customHeight="1">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -13376,7 +13410,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:24" ht="15.75" customHeight="1">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -13400,7 +13434,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:24" ht="15.75" customHeight="1">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -13424,7 +13458,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:24" ht="15.75" customHeight="1">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -13448,7 +13482,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:24" ht="15.75" customHeight="1">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -13472,7 +13506,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:24" ht="15.75" customHeight="1">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -13496,7 +13530,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:24" ht="15.75" customHeight="1">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -13520,7 +13554,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:24" ht="15.75" customHeight="1">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -13544,7 +13578,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:24" ht="15.75" customHeight="1">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -13568,7 +13602,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:24" ht="15.75" customHeight="1">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -13592,7 +13626,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:24" ht="15.75" customHeight="1">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -13616,7 +13650,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:24" ht="15.75" customHeight="1">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -13640,7 +13674,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:24" ht="15.75" customHeight="1">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -13664,7 +13698,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:24" ht="15.75" customHeight="1">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -13688,7 +13722,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:24" ht="15.75" customHeight="1">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -13712,7 +13746,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:24" ht="15.75" customHeight="1">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -13736,7 +13770,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:24" ht="15.75" customHeight="1">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -13760,7 +13794,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:24" ht="15.75" customHeight="1">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -13784,7 +13818,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:24" ht="15.75" customHeight="1">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -13808,7 +13842,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:24" ht="15.75" customHeight="1">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -13832,7 +13866,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:24" ht="15.75" customHeight="1">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -13856,7 +13890,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:24" ht="15.75" customHeight="1">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -13880,7 +13914,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:24" ht="15.75" customHeight="1">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -13904,7 +13938,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:24" ht="15.75" customHeight="1">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -13928,7 +13962,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:24" ht="15.75" customHeight="1">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -13952,7 +13986,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:24" ht="15.75" customHeight="1">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -13976,7 +14010,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:24" ht="15.75" customHeight="1">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14000,7 +14034,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:24" ht="15.75" customHeight="1">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14024,7 +14058,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:24" ht="15.75" customHeight="1">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14048,7 +14082,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:24" ht="15.75" customHeight="1">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14072,7 +14106,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:24" ht="15.75" customHeight="1">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14096,7 +14130,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:24" ht="15.75" customHeight="1">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14120,7 +14154,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:24" ht="15.75" customHeight="1">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14144,7 +14178,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:24" ht="15.75" customHeight="1">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14168,7 +14202,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:24" ht="15.75" customHeight="1">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14192,7 +14226,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:24" ht="15.75" customHeight="1">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14216,7 +14250,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:24" ht="15.75" customHeight="1">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14240,7 +14274,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:24" ht="15.75" customHeight="1">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14264,7 +14298,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:24" ht="15.75" customHeight="1">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14288,7 +14322,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:24" ht="15.75" customHeight="1">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14312,7 +14346,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:24" ht="15.75" customHeight="1">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -14336,7 +14370,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:24" ht="15.75" customHeight="1">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -14360,7 +14394,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:24" ht="15.75" customHeight="1">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -14384,7 +14418,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:24" ht="15.75" customHeight="1">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -14408,7 +14442,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:24" ht="15.75" customHeight="1">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -14432,7 +14466,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:24" ht="15.75" customHeight="1">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -14456,7 +14490,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:24" ht="15.75" customHeight="1">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -14480,7 +14514,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:24" ht="15.75" customHeight="1">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -14504,7 +14538,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:24" ht="15.75" customHeight="1">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -14528,7 +14562,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:24" ht="15.75" customHeight="1">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -14552,7 +14586,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:24" ht="15.75" customHeight="1">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -14576,7 +14610,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:24" ht="15.75" customHeight="1">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -14600,7 +14634,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:24" ht="15.75" customHeight="1">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -14624,7 +14658,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:24" ht="15.75" customHeight="1">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -14648,7 +14682,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:24" ht="15.75" customHeight="1">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -14672,7 +14706,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:24" ht="15.75" customHeight="1">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -14696,7 +14730,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:24" ht="15.75" customHeight="1">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -14720,7 +14754,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:24" ht="15.75" customHeight="1">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -14744,7 +14778,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:24" ht="15.75" customHeight="1">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -14768,7 +14802,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:24" ht="15.75" customHeight="1">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -14792,7 +14826,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:24" ht="15.75" customHeight="1">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -14816,7 +14850,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:24" ht="15.75" customHeight="1">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -14840,7 +14874,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:24" ht="15.75" customHeight="1">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -14864,7 +14898,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:24" ht="15.75" customHeight="1">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -14888,7 +14922,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:24" ht="15.75" customHeight="1">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -14912,7 +14946,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:24" ht="15.75" customHeight="1">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -14936,7 +14970,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:24" ht="15.75" customHeight="1">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -14960,7 +14994,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:24" ht="15.75" customHeight="1">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -14984,7 +15018,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:24" ht="15.75" customHeight="1">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15008,7 +15042,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:24" ht="15.75" customHeight="1">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15032,7 +15066,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:24" ht="15.75" customHeight="1">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15056,7 +15090,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:24" ht="15.75" customHeight="1">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15080,7 +15114,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:24" ht="15.75" customHeight="1">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15104,7 +15138,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:24" ht="15.75" customHeight="1">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15128,7 +15162,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:24" ht="15.75" customHeight="1">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15152,7 +15186,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:24" ht="15.75" customHeight="1">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15176,7 +15210,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:24" ht="15.75" customHeight="1">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15200,7 +15234,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:24" ht="15.75" customHeight="1">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15224,7 +15258,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:24" ht="15.75" customHeight="1">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15248,7 +15282,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:24" ht="15.75" customHeight="1">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15272,7 +15306,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:24" ht="15.75" customHeight="1">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15296,7 +15330,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:24" ht="15.75" customHeight="1">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -15320,7 +15354,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:24" ht="15.75" customHeight="1">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -15344,7 +15378,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:24" ht="15.75" customHeight="1">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -15368,7 +15402,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:24" ht="15.75" customHeight="1">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -15392,7 +15426,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:24" ht="15.75" customHeight="1">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -15416,7 +15450,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:24" ht="15.75" customHeight="1">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -15440,7 +15474,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:24" ht="15.75" customHeight="1">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -15464,7 +15498,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:24" ht="15.75" customHeight="1">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -15488,7 +15522,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:24" ht="15.75" customHeight="1">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -15512,7 +15546,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:24" ht="15.75" customHeight="1">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -15536,7 +15570,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:24" ht="15.75" customHeight="1">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -15560,7 +15594,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:24" ht="15.75" customHeight="1">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -15584,7 +15618,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:24" ht="15.75" customHeight="1">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -15608,7 +15642,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:24" ht="15.75" customHeight="1">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -15632,7 +15666,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:24" ht="15.75" customHeight="1">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -15656,7 +15690,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:24" ht="15.75" customHeight="1">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -15680,7 +15714,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:24" ht="15.75" customHeight="1">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -15704,7 +15738,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:24" ht="15.75" customHeight="1">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -15728,7 +15762,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:24" ht="15.75" customHeight="1">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -15752,7 +15786,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:24" ht="15.75" customHeight="1">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -15776,7 +15810,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:24" ht="15.75" customHeight="1">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -15800,7 +15834,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:24" ht="15.75" customHeight="1">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -15824,7 +15858,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:24" ht="15.75" customHeight="1">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -15848,7 +15882,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:24" ht="15.75" customHeight="1">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -15872,7 +15906,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:24" ht="15.75" customHeight="1">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -15896,7 +15930,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:24" ht="15.75" customHeight="1">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -15920,7 +15954,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:24" ht="15.75" customHeight="1">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -15944,7 +15978,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:24" ht="15.75" customHeight="1">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -15968,7 +16002,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:24" ht="15.75" customHeight="1">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -15992,7 +16026,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:24" ht="15.75" customHeight="1">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16016,7 +16050,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:24" ht="15.75" customHeight="1">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16040,7 +16074,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:24" ht="15.75" customHeight="1">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16064,7 +16098,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:24" ht="15.75" customHeight="1">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16088,7 +16122,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:24" ht="15.75" customHeight="1">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16112,7 +16146,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:24" ht="15.75" customHeight="1">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16136,7 +16170,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:24" ht="15.75" customHeight="1">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16160,7 +16194,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:24" ht="15.75" customHeight="1">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16184,7 +16218,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:24" ht="15.75" customHeight="1">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16208,7 +16242,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:24" ht="15.75" customHeight="1">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16232,7 +16266,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:24" ht="15.75" customHeight="1">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16256,7 +16290,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:24" ht="15.75" customHeight="1">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16280,7 +16314,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:24" ht="15.75" customHeight="1">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16304,7 +16338,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:24" ht="15.75" customHeight="1">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -16328,7 +16362,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:24" ht="15.75" customHeight="1">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -16352,7 +16386,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:24" ht="15.75" customHeight="1">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -16376,7 +16410,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:24" ht="15.75" customHeight="1">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -16400,7 +16434,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:24" ht="15.75" customHeight="1">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -16424,7 +16458,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:24" ht="15.75" customHeight="1">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -16448,7 +16482,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:24" ht="15.75" customHeight="1">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -16472,7 +16506,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:24" ht="15.75" customHeight="1">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -16496,7 +16530,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:24" ht="15.75" customHeight="1">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -16520,7 +16554,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:24" ht="15.75" customHeight="1">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -16544,7 +16578,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:24" ht="15.75" customHeight="1">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -16568,7 +16602,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:24" ht="15.75" customHeight="1">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -16592,7 +16626,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:24" ht="15.75" customHeight="1">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -16616,7 +16650,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:24" ht="15.75" customHeight="1">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -16640,7 +16674,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:24" ht="15.75" customHeight="1">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -16664,7 +16698,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:24" ht="15.75" customHeight="1">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -16688,7 +16722,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:24" ht="15.75" customHeight="1">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -16712,7 +16746,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:24" ht="15.75" customHeight="1">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -16736,7 +16770,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:24" ht="15.75" customHeight="1">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -16760,7 +16794,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:24" ht="15.75" customHeight="1">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -16784,7 +16818,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:24" ht="15.75" customHeight="1">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -16808,7 +16842,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:24" ht="15.75" customHeight="1">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -16832,7 +16866,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:24" ht="15.75" customHeight="1">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -16856,7 +16890,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:24" ht="15.75" customHeight="1">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -16880,7 +16914,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:24" ht="15.75" customHeight="1">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -16904,7 +16938,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:24" ht="15.75" customHeight="1">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -16928,7 +16962,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:24" ht="15.75" customHeight="1">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -16952,7 +16986,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:24" ht="15.75" customHeight="1">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -16976,7 +17010,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:24" ht="15.75" customHeight="1">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17000,7 +17034,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:24" ht="15.75" customHeight="1">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17024,7 +17058,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:24" ht="15.75" customHeight="1">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17048,7 +17082,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:24" ht="15.75" customHeight="1">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17072,7 +17106,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:24" ht="15.75" customHeight="1">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17096,7 +17130,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:24" ht="15.75" customHeight="1">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17120,7 +17154,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:24" ht="15.75" customHeight="1">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17144,7 +17178,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:24" ht="15.75" customHeight="1">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17168,7 +17202,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:24" ht="15.75" customHeight="1">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17192,7 +17226,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:24" ht="15.75" customHeight="1">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17216,7 +17250,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:24" ht="15.75" customHeight="1">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17240,7 +17274,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:24" ht="15.75" customHeight="1">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17264,7 +17298,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:24" ht="15.75" customHeight="1">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17288,7 +17322,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:24" ht="15.75" customHeight="1">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17312,7 +17346,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:24" ht="15.75" customHeight="1">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -17336,7 +17370,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:24" ht="15.75" customHeight="1">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -17360,7 +17394,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:24" ht="15.75" customHeight="1">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -17384,7 +17418,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:24" ht="15.75" customHeight="1">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -17408,7 +17442,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:24" ht="15.75" customHeight="1">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -17432,7 +17466,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:24" ht="15.75" customHeight="1">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -17456,7 +17490,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:24" ht="15.75" customHeight="1">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -17480,7 +17514,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:24" ht="15.75" customHeight="1">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -17504,7 +17538,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:24" ht="15.75" customHeight="1">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -17528,7 +17562,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:24" ht="15.75" customHeight="1">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -17552,7 +17586,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:24" ht="15.75" customHeight="1">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -17576,7 +17610,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:24" ht="15.75" customHeight="1">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -17600,7 +17634,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:24" ht="15.75" customHeight="1">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -17624,7 +17658,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:24" ht="15.75" customHeight="1">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -17648,7 +17682,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:24" ht="15.75" customHeight="1">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -17672,7 +17706,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:24" ht="15.75" customHeight="1">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -17696,7 +17730,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:24" ht="15.75" customHeight="1">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -17720,7 +17754,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:24" ht="15.75" customHeight="1">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -17744,7 +17778,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:24" ht="15.75" customHeight="1">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -17768,7 +17802,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:24" ht="15.75" customHeight="1">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -17792,7 +17826,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:24" ht="15.75" customHeight="1">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -17816,7 +17850,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:24" ht="15.75" customHeight="1">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -17840,7 +17874,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:24" ht="15.75" customHeight="1">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -17864,7 +17898,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:24" ht="15.75" customHeight="1">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -17888,7 +17922,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:24" ht="15.75" customHeight="1">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -17912,7 +17946,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:24" ht="15.75" customHeight="1">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -17936,7 +17970,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:24" ht="15.75" customHeight="1">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -17960,7 +17994,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:24" ht="15.75" customHeight="1">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -17984,7 +18018,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:24" ht="15.75" customHeight="1">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18008,7 +18042,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:24" ht="15.75" customHeight="1">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18032,7 +18066,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:24" ht="15.75" customHeight="1">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18056,7 +18090,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:24" ht="15.75" customHeight="1">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18080,7 +18114,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:24" ht="15.75" customHeight="1">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18104,7 +18138,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:24" ht="15.75" customHeight="1">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18128,7 +18162,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:24" ht="15.75" customHeight="1">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18152,7 +18186,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:24" ht="15.75" customHeight="1">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18176,7 +18210,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:24" ht="15.75" customHeight="1">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18200,7 +18234,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:24" ht="15.75" customHeight="1">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18224,7 +18258,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:24" ht="15.75" customHeight="1">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18248,7 +18282,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:24" ht="15.75" customHeight="1">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18272,7 +18306,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:24" ht="15.75" customHeight="1">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18296,7 +18330,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:24" ht="15.75" customHeight="1">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -18320,7 +18354,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:24" ht="15.75" customHeight="1">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -18344,7 +18378,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:24" ht="15.75" customHeight="1">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -18368,7 +18402,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:24" ht="15.75" customHeight="1">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -18392,7 +18426,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:24" ht="15.75" customHeight="1">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -18416,7 +18450,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:24" ht="15.75" customHeight="1">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -18440,7 +18474,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:24" ht="15.75" customHeight="1">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -18464,7 +18498,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:24" ht="15.75" customHeight="1">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -18488,7 +18522,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:24" ht="15.75" customHeight="1">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -18512,7 +18546,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:24" ht="15.75" customHeight="1">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -18536,7 +18570,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:24" ht="15.75" customHeight="1">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -18560,7 +18594,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:24" ht="15.75" customHeight="1">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -18584,7 +18618,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:24" ht="15.75" customHeight="1">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -18608,7 +18642,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:24" ht="15.75" customHeight="1">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -18632,7 +18666,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:24" ht="15.75" customHeight="1">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -18656,7 +18690,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:24" ht="15.75" customHeight="1">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -18680,7 +18714,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:24" ht="15.75" customHeight="1">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -18704,7 +18738,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:24" ht="15.75" customHeight="1">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -18728,7 +18762,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:24" ht="15.75" customHeight="1">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -18752,7 +18786,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:24" ht="15.75" customHeight="1">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -18776,7 +18810,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:24" ht="15.75" customHeight="1">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -18800,7 +18834,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:24" ht="15.75" customHeight="1">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -18824,7 +18858,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:24" ht="15.75" customHeight="1">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -18848,7 +18882,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:24" ht="15.75" customHeight="1">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -18872,7 +18906,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:24" ht="15.75" customHeight="1">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -18896,7 +18930,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:24" ht="15.75" customHeight="1">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -18920,7 +18954,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:24" ht="15.75" customHeight="1">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -18944,7 +18978,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:24" ht="15.75" customHeight="1">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -18968,7 +19002,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:24" ht="15.75" customHeight="1">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -18992,7 +19026,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:24" ht="15.75" customHeight="1">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19016,7 +19050,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:24" ht="15.75" customHeight="1">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19040,7 +19074,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:24" ht="15.75" customHeight="1">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19064,7 +19098,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:24" ht="15.75" customHeight="1">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19088,7 +19122,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:24" ht="15.75" customHeight="1">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19112,7 +19146,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:24" ht="15.75" customHeight="1">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19136,7 +19170,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:24" ht="15.75" customHeight="1">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19160,7 +19194,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:24" ht="15.75" customHeight="1">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19184,7 +19218,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:24" ht="15.75" customHeight="1">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19208,7 +19242,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:24" ht="15.75" customHeight="1">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19232,7 +19266,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:24" ht="15.75" customHeight="1">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19256,7 +19290,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:24" ht="15.75" customHeight="1">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19280,7 +19314,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:24" ht="15.75" customHeight="1">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19304,7 +19338,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:24" ht="15.75" customHeight="1">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -19328,7 +19362,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:24" ht="15.75" customHeight="1">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -19352,7 +19386,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:24" ht="15.75" customHeight="1">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -19376,7 +19410,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:24" ht="15.75" customHeight="1">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -19400,7 +19434,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:24" ht="15.75" customHeight="1">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -19424,7 +19458,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:24" ht="15.75" customHeight="1">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -19448,7 +19482,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:24" ht="15.75" customHeight="1">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -19472,7 +19506,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:24" ht="15.75" customHeight="1">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -19496,7 +19530,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:24" ht="15.75" customHeight="1">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -19520,7 +19554,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:24" ht="15.75" customHeight="1">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -19544,7 +19578,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:24" ht="15.75" customHeight="1">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -19568,7 +19602,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:24" ht="15.75" customHeight="1">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -19592,7 +19626,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:24" ht="15.75" customHeight="1">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -19616,7 +19650,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:24" ht="15.75" customHeight="1">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -19640,7 +19674,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:24" ht="15.75" customHeight="1">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -19664,7 +19698,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:24" ht="15.75" customHeight="1">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -19688,7 +19722,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:24" ht="15.75" customHeight="1">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -19712,7 +19746,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:24" ht="15.75" customHeight="1">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -19736,7 +19770,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:24" ht="15.75" customHeight="1">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -19760,7 +19794,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:24" ht="15.75" customHeight="1">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -19784,7 +19818,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:24" ht="15.75" customHeight="1">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -19808,7 +19842,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:24" ht="15.75" customHeight="1">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -19832,7 +19866,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:24" ht="15.75" customHeight="1">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -19856,7 +19890,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:24" ht="15.75" customHeight="1">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -19880,7 +19914,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:24" ht="15.75" customHeight="1">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -19904,7 +19938,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:24" ht="15.75" customHeight="1">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -19928,7 +19962,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:24" ht="15.75" customHeight="1">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -19952,7 +19986,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:24" ht="15.75" customHeight="1">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -19976,7 +20010,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:24" ht="15.75" customHeight="1">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20000,7 +20034,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:24" ht="15.75" customHeight="1">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20024,7 +20058,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:24" ht="15.75" customHeight="1">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20048,7 +20082,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:24" ht="15.75" customHeight="1">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20072,7 +20106,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:24" ht="15.75" customHeight="1">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20096,7 +20130,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:24" ht="15.75" customHeight="1">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20120,7 +20154,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:24" ht="15.75" customHeight="1">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20144,7 +20178,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:24" ht="15.75" customHeight="1">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20168,7 +20202,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:24" ht="15.75" customHeight="1">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20192,7 +20226,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:24" ht="15.75" customHeight="1">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20216,7 +20250,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:24" ht="15.75" customHeight="1">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20240,7 +20274,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:24" ht="15.75" customHeight="1">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20264,7 +20298,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:24" ht="15.75" customHeight="1">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20288,7 +20322,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:24" ht="15.75" customHeight="1">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20312,7 +20346,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:24" ht="15.75" customHeight="1">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -20336,7 +20370,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:24" ht="15.75" customHeight="1">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -20360,7 +20394,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:24" ht="15.75" customHeight="1">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -20384,7 +20418,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:24" ht="15.75" customHeight="1">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -20408,7 +20442,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:24" ht="15.75" customHeight="1">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -20432,7 +20466,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:24" ht="15.75" customHeight="1">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -20456,7 +20490,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:24" ht="15.75" customHeight="1">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -20480,7 +20514,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:24" ht="15.75" customHeight="1">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -20504,7 +20538,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:24" ht="15.75" customHeight="1">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -20528,7 +20562,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:24" ht="15.75" customHeight="1">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -20552,7 +20586,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:24" ht="15.75" customHeight="1">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -20576,7 +20610,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:24" ht="15.75" customHeight="1">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -20600,7 +20634,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:24" ht="15.75" customHeight="1">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -20624,7 +20658,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:24" ht="15.75" customHeight="1">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -20648,7 +20682,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:24" ht="15.75" customHeight="1">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -20672,7 +20706,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:24" ht="15.75" customHeight="1">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -20696,7 +20730,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:24" ht="15.75" customHeight="1">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -20720,7 +20754,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:24" ht="15.75" customHeight="1">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -20744,7 +20778,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:24" ht="15.75" customHeight="1">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -20768,7 +20802,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:24" ht="15.75" customHeight="1">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -20792,7 +20826,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:24" ht="15.75" customHeight="1">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -20816,7 +20850,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:24" ht="15.75" customHeight="1">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -20840,7 +20874,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:24" ht="15.75" customHeight="1">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -20864,7 +20898,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:24" ht="15.75" customHeight="1">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -20888,7 +20922,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:24" ht="15.75" customHeight="1">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -20912,7 +20946,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:24" ht="15.75" customHeight="1">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -20936,7 +20970,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:24" ht="15.75" customHeight="1">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -20960,7 +20994,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:24" ht="15.75" customHeight="1">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -20984,7 +21018,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:24" ht="15.75" customHeight="1">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21008,7 +21042,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:24" ht="15.75" customHeight="1">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21032,7 +21066,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:24" ht="15.75" customHeight="1">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21056,7 +21090,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:24" ht="15.75" customHeight="1">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21080,7 +21114,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:24" ht="15.75" customHeight="1">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21104,7 +21138,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:24" ht="15.75" customHeight="1">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21128,7 +21162,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:24" ht="15.75" customHeight="1">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21152,7 +21186,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:24" ht="15.75" customHeight="1">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21176,7 +21210,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:24" ht="15.75" customHeight="1">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21200,7 +21234,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:24" ht="15.75" customHeight="1">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21224,7 +21258,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:24" ht="15.75" customHeight="1">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21248,7 +21282,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:24" ht="15.75" customHeight="1">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21272,7 +21306,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:24" ht="15.75" customHeight="1">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21296,7 +21330,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:24" ht="15.75" customHeight="1">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -21320,7 +21354,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:24" ht="15.75" customHeight="1">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -21344,7 +21378,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:24" ht="15.75" customHeight="1">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -21368,7 +21402,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:24" ht="15.75" customHeight="1">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -21392,7 +21426,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:24" ht="15.75" customHeight="1">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -21416,7 +21450,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:24" ht="15.75" customHeight="1">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -21440,7 +21474,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:24" ht="15.75" customHeight="1">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -21464,7 +21498,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:24" ht="15.75" customHeight="1">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -21488,7 +21522,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:24" ht="15.75" customHeight="1">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -21512,7 +21546,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:24" ht="15.75" customHeight="1">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -21536,7 +21570,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:24" ht="15.75" customHeight="1">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -21560,7 +21594,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:24" ht="15.75" customHeight="1">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -21584,7 +21618,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:24" ht="15.75" customHeight="1">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -21608,7 +21642,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:24" ht="15.75" customHeight="1">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -21632,7 +21666,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:24" ht="15.75" customHeight="1">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -21656,7 +21690,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:24" ht="15.75" customHeight="1">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -21680,7 +21714,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:24" ht="15.75" customHeight="1">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -21704,7 +21738,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:24" ht="15.75" customHeight="1">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -21728,7 +21762,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:24" ht="15.75" customHeight="1">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -21752,7 +21786,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:24" ht="15.75" customHeight="1">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -21776,7 +21810,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:24" ht="15.75" customHeight="1">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -21800,7 +21834,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:24" ht="15.75" customHeight="1">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -21824,7 +21858,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:24" ht="15.75" customHeight="1">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -21848,7 +21882,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:24" ht="15.75" customHeight="1">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -21872,7 +21906,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:24" ht="15.75" customHeight="1">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -21896,7 +21930,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:24" ht="15.75" customHeight="1">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -21920,7 +21954,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:24" ht="15.75" customHeight="1">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -21944,7 +21978,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:24" ht="15.75" customHeight="1">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -21968,7 +22002,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:24" ht="15.75" customHeight="1">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -21992,7 +22026,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:24" ht="15.75" customHeight="1">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22016,7 +22050,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:24" ht="15.75" customHeight="1">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22040,7 +22074,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:24" ht="15.75" customHeight="1">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22064,7 +22098,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:24" ht="15.75" customHeight="1">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22088,7 +22122,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:24" ht="15.75" customHeight="1">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22112,7 +22146,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:24" ht="15.75" customHeight="1">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22136,7 +22170,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:24" ht="15.75" customHeight="1">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22160,7 +22194,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:24" ht="15.75" customHeight="1">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22184,7 +22218,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:24" ht="15.75" customHeight="1">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22208,7 +22242,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:24" ht="15.75" customHeight="1">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22232,7 +22266,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:24" ht="15.75" customHeight="1">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22256,7 +22290,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:24" ht="15.75" customHeight="1">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22280,7 +22314,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:24" ht="15.75" customHeight="1">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22304,7 +22338,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:24" ht="15.75" customHeight="1">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -22328,7 +22362,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:24" ht="15.75" customHeight="1">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -22352,7 +22386,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:24" ht="15.75" customHeight="1">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -22376,7 +22410,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:24" ht="15.75" customHeight="1">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -22400,7 +22434,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:24" ht="15.75" customHeight="1">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -22424,7 +22458,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:24" ht="15.75" customHeight="1">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -22448,7 +22482,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:24" ht="15.75" customHeight="1">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -22472,7 +22506,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:24" ht="15.75" customHeight="1">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -22496,7 +22530,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:24" ht="15.75" customHeight="1">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -22520,7 +22554,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:24" ht="15.75" customHeight="1">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -22544,7 +22578,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:24" ht="15.75" customHeight="1">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -22568,7 +22602,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:24" ht="15.75" customHeight="1">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -22592,7 +22626,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:24" ht="15.75" customHeight="1">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -22616,7 +22650,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:24" ht="15.75" customHeight="1">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -22640,7 +22674,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:24" ht="15.75" customHeight="1">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -22664,7 +22698,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:24" ht="15.75" customHeight="1">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -22688,7 +22722,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:24" ht="15.75" customHeight="1">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -22712,7 +22746,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:24" ht="15.75" customHeight="1">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -22736,7 +22770,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:24" ht="15.75" customHeight="1">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -22760,7 +22794,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:24" ht="15.75" customHeight="1">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -22784,7 +22818,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:24" ht="15.75" customHeight="1">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -22808,7 +22842,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:24" ht="15.75" customHeight="1">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -22832,7 +22866,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:24" ht="15.75" customHeight="1">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -22856,7 +22890,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:24" ht="15.75" customHeight="1">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -22880,7 +22914,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:24" ht="15.75" customHeight="1">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -22904,7 +22938,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:24" ht="15.75" customHeight="1">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -22928,7 +22962,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:24" ht="15.75" customHeight="1">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -22952,7 +22986,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:24" ht="15.75" customHeight="1">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -22976,7 +23010,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:24" ht="15.75" customHeight="1">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23000,7 +23034,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:24" ht="15.75" customHeight="1">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23024,7 +23058,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:24" ht="15.75" customHeight="1">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23048,7 +23082,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:24" ht="15.75" customHeight="1">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23072,7 +23106,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:24" ht="15.75" customHeight="1">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23096,7 +23130,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:24" ht="15.75" customHeight="1">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23120,7 +23154,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:24" ht="15.75" customHeight="1">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23144,7 +23178,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:24" ht="15.75" customHeight="1">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23168,7 +23202,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:24" ht="15.75" customHeight="1">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23192,7 +23226,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:24" ht="15.75" customHeight="1">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23216,7 +23250,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:24" ht="15.75" customHeight="1">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23240,7 +23274,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:24" ht="15.75" customHeight="1">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23264,7 +23298,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:24" ht="15.75" customHeight="1">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23288,7 +23322,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:24" ht="15.75" customHeight="1">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23312,7 +23346,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:24" ht="15.75" customHeight="1">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -23336,7 +23370,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:24" ht="15.75" customHeight="1">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -23360,7 +23394,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:24" ht="15.75" customHeight="1">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -23384,7 +23418,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:24" ht="15.75" customHeight="1">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -23408,7 +23442,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:24" ht="15.75" customHeight="1">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -23432,7 +23466,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:24" ht="15.75" customHeight="1">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -23456,7 +23490,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:24" ht="15.75" customHeight="1">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -23480,7 +23514,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:24" ht="15.75" customHeight="1">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -23504,7 +23538,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:24" ht="15.75" customHeight="1">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -23528,7 +23562,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:24" ht="15.75" customHeight="1">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -23552,7 +23586,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:24" ht="15.75" customHeight="1">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -23576,7 +23610,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:24" ht="15.75" customHeight="1">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -23600,7 +23634,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:24" ht="15.75" customHeight="1">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -23624,7 +23658,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:24" ht="15.75" customHeight="1">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -23648,7 +23682,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:24" ht="15.75" customHeight="1">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -23672,7 +23706,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:24" ht="15.75" customHeight="1">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -23696,7 +23730,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:24" ht="15.75" customHeight="1">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -23720,7 +23754,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:24" ht="15.75" customHeight="1">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -23744,7 +23778,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:24" ht="15.75" customHeight="1">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -23768,7 +23802,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:24" ht="15.75" customHeight="1">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -23792,7 +23826,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:24" ht="15.75" customHeight="1">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -23816,7 +23850,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:24" ht="15.75" customHeight="1">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -23840,7 +23874,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:24" ht="15.75" customHeight="1">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -23864,7 +23898,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:24" ht="15.75" customHeight="1">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -23888,7 +23922,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:24" ht="15.75" customHeight="1">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -23912,7 +23946,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:24" ht="15.75" customHeight="1">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -23936,7 +23970,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:24" ht="15.75" customHeight="1">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -23960,7 +23994,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:24" ht="15.75" customHeight="1">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -23984,7 +24018,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:24" ht="15.75" customHeight="1">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24008,7 +24042,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:24" ht="15.75" customHeight="1">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24032,7 +24066,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:24" ht="15.75" customHeight="1">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24056,7 +24090,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:24" ht="15.75" customHeight="1">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24080,7 +24114,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:24" ht="15.75" customHeight="1">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24104,7 +24138,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:24" ht="15.75" customHeight="1">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24128,7 +24162,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:24" ht="15.75" customHeight="1">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24152,7 +24186,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:24" ht="15.75" customHeight="1">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24176,7 +24210,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:24" ht="15.75" customHeight="1">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24200,7 +24234,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:24" ht="15.75" customHeight="1">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24224,7 +24258,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:24" ht="15.75" customHeight="1">
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
@@ -24247,7 +24281,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:24" ht="15.75" customHeight="1">
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
@@ -24270,7 +24304,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:24" ht="15.75" customHeight="1">
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillk\Documents\GitHub\fs_ITMentoring_March2024\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intikhab Projects\demo_progects\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7740242-DEDF-455C-AC0F-B56836F864E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38999325-5EAB-41D1-BEA0-CA31CC233AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
@@ -453,28 +453,28 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="24" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="103.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -528,7 +528,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -548,7 +548,9 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="3"/>
@@ -562,7 +564,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -582,7 +584,9 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="3"/>
@@ -596,7 +600,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -616,7 +620,9 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="3"/>
@@ -630,7 +636,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -650,7 +656,9 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="3"/>
@@ -664,7 +672,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -684,7 +692,9 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="3"/>
@@ -698,7 +708,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -718,7 +728,9 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="3"/>
@@ -732,7 +744,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -752,7 +764,9 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="3"/>
@@ -766,7 +780,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -786,7 +800,9 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="3"/>
@@ -800,7 +816,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -820,7 +836,9 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="3"/>
@@ -834,7 +852,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -854,7 +872,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="3"/>
@@ -868,7 +888,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -900,7 +920,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -926,7 +946,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -952,7 +972,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -978,7 +998,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1004,7 +1024,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1030,7 +1050,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1056,7 +1076,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1082,7 +1102,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1108,7 +1128,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1134,7 +1154,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1160,7 +1180,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1186,7 +1206,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1212,7 +1232,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1238,7 +1258,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1264,7 +1284,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1290,7 +1310,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1316,7 +1336,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1342,7 +1362,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1368,7 +1388,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1394,7 +1414,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1420,7 +1440,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1446,7 +1466,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1472,7 +1492,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1496,7 +1516,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1520,7 +1540,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1544,7 +1564,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1568,7 +1588,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1592,7 +1612,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1616,7 +1636,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1640,7 +1660,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1664,7 +1684,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1688,7 +1708,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1712,7 +1732,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1736,7 +1756,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1760,7 +1780,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1784,7 +1804,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1808,7 +1828,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1832,7 +1852,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1856,7 +1876,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1880,7 +1900,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1904,7 +1924,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1928,7 +1948,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1952,7 +1972,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1976,7 +1996,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2000,7 +2020,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2024,7 +2044,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2048,7 +2068,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2072,7 +2092,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2096,7 +2116,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2120,7 +2140,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2144,7 +2164,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2168,7 +2188,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2192,7 +2212,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2216,7 +2236,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2240,7 +2260,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2264,7 +2284,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2288,7 +2308,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2312,7 +2332,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2336,7 +2356,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2360,7 +2380,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2384,7 +2404,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2408,7 +2428,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2432,7 +2452,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2456,7 +2476,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2480,7 +2500,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2504,7 +2524,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2528,7 +2548,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2552,7 +2572,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2576,7 +2596,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2600,7 +2620,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2624,7 +2644,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2648,7 +2668,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2672,7 +2692,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2696,7 +2716,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2720,7 +2740,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2744,7 +2764,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2768,7 +2788,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2792,7 +2812,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2816,7 +2836,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2840,7 +2860,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2864,7 +2884,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2888,7 +2908,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2912,7 +2932,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2936,7 +2956,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -2960,7 +2980,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2984,7 +3004,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3008,7 +3028,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3032,7 +3052,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3056,7 +3076,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3080,7 +3100,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3104,7 +3124,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3128,7 +3148,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3152,7 +3172,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3176,7 +3196,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3200,7 +3220,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3224,7 +3244,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3248,7 +3268,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3272,7 +3292,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3296,7 +3316,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3320,7 +3340,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3344,7 +3364,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3368,7 +3388,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3392,7 +3412,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3416,7 +3436,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3440,7 +3460,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3464,7 +3484,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3488,7 +3508,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3512,7 +3532,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3536,7 +3556,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3560,7 +3580,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3584,7 +3604,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3608,7 +3628,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3632,7 +3652,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3656,7 +3676,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3680,7 +3700,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3704,7 +3724,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3728,7 +3748,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3752,7 +3772,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3776,7 +3796,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3800,7 +3820,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3824,7 +3844,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3848,7 +3868,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3872,7 +3892,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3896,7 +3916,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3920,7 +3940,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3944,7 +3964,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3968,7 +3988,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3992,7 +4012,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4016,7 +4036,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4040,7 +4060,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4064,7 +4084,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4088,7 +4108,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4112,7 +4132,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4136,7 +4156,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4160,7 +4180,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4184,7 +4204,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4208,7 +4228,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4232,7 +4252,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4256,7 +4276,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4280,7 +4300,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4304,7 +4324,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4328,7 +4348,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4352,7 +4372,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4376,7 +4396,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4400,7 +4420,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4424,7 +4444,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4448,7 +4468,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4472,7 +4492,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4496,7 +4516,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4520,7 +4540,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4544,7 +4564,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4568,7 +4588,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4592,7 +4612,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4616,7 +4636,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4640,7 +4660,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4664,7 +4684,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4688,7 +4708,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4712,7 +4732,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4736,7 +4756,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4760,7 +4780,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4784,7 +4804,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4808,7 +4828,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4832,7 +4852,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4856,7 +4876,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4880,7 +4900,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4904,7 +4924,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4928,7 +4948,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4952,7 +4972,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4976,7 +4996,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5000,7 +5020,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5024,7 +5044,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5048,7 +5068,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5072,7 +5092,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5096,7 +5116,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5120,7 +5140,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5144,7 +5164,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5168,7 +5188,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5192,7 +5212,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5216,7 +5236,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5240,7 +5260,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5264,7 +5284,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5288,7 +5308,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5312,7 +5332,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5336,7 +5356,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5360,7 +5380,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5384,7 +5404,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5408,7 +5428,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5432,7 +5452,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5456,7 +5476,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5480,7 +5500,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5504,7 +5524,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5528,7 +5548,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5552,7 +5572,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5576,7 +5596,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5600,7 +5620,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5624,7 +5644,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5648,7 +5668,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5672,7 +5692,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5696,7 +5716,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5720,7 +5740,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5744,7 +5764,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5768,7 +5788,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5792,7 +5812,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5816,7 +5836,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5840,7 +5860,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5864,7 +5884,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5888,7 +5908,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5912,7 +5932,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5936,7 +5956,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5960,7 +5980,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5984,7 +6004,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6008,7 +6028,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6032,7 +6052,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6056,7 +6076,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6080,7 +6100,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6104,7 +6124,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6128,7 +6148,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6152,7 +6172,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6176,7 +6196,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6200,7 +6220,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6224,7 +6244,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6248,7 +6268,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6272,7 +6292,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6296,7 +6316,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6320,7 +6340,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6344,7 +6364,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6368,7 +6388,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6392,7 +6412,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6416,7 +6436,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6440,7 +6460,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6464,7 +6484,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6488,7 +6508,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6512,7 +6532,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6536,7 +6556,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6560,7 +6580,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6584,7 +6604,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6608,7 +6628,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6632,7 +6652,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6656,7 +6676,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6680,7 +6700,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6704,7 +6724,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6728,7 +6748,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6752,7 +6772,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6776,7 +6796,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6800,7 +6820,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6824,7 +6844,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6848,7 +6868,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6872,7 +6892,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6896,7 +6916,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6920,7 +6940,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6944,7 +6964,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6968,7 +6988,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6992,7 +7012,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7016,7 +7036,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7040,7 +7060,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7064,7 +7084,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7088,7 +7108,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7112,7 +7132,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7136,7 +7156,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7160,7 +7180,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7184,7 +7204,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7208,7 +7228,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7232,7 +7252,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7256,7 +7276,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7280,7 +7300,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7304,7 +7324,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7328,7 +7348,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7352,7 +7372,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7376,7 +7396,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7400,7 +7420,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7424,7 +7444,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7448,7 +7468,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7472,7 +7492,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7496,7 +7516,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7520,7 +7540,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7544,7 +7564,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7568,7 +7588,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7592,7 +7612,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7616,7 +7636,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7640,7 +7660,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7664,7 +7684,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7688,7 +7708,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7712,7 +7732,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7736,7 +7756,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7760,7 +7780,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7784,7 +7804,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7808,7 +7828,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7832,7 +7852,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7856,7 +7876,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7880,7 +7900,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7904,7 +7924,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -7928,7 +7948,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -7952,7 +7972,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -7976,7 +7996,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8000,7 +8020,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8024,7 +8044,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8048,7 +8068,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8072,7 +8092,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8096,7 +8116,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8120,7 +8140,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8144,7 +8164,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8168,7 +8188,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8192,7 +8212,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8216,7 +8236,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8240,7 +8260,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8264,7 +8284,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8288,7 +8308,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8312,7 +8332,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -8336,7 +8356,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -8360,7 +8380,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -8384,7 +8404,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8408,7 +8428,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -8432,7 +8452,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8456,7 +8476,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8480,7 +8500,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -8504,7 +8524,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8528,7 +8548,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8552,7 +8572,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -8576,7 +8596,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8600,7 +8620,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8624,7 +8644,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -8648,7 +8668,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8672,7 +8692,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8696,7 +8716,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -8720,7 +8740,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8744,7 +8764,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8768,7 +8788,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -8792,7 +8812,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8816,7 +8836,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8840,7 +8860,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -8864,7 +8884,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8888,7 +8908,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8912,7 +8932,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -8936,7 +8956,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -8960,7 +8980,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -8984,7 +9004,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9008,7 +9028,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9032,7 +9052,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9056,7 +9076,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9080,7 +9100,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9104,7 +9124,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9128,7 +9148,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9152,7 +9172,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9176,7 +9196,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9200,7 +9220,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9224,7 +9244,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9248,7 +9268,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9272,7 +9292,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9296,7 +9316,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -9320,7 +9340,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -9344,7 +9364,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -9368,7 +9388,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -9392,7 +9412,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -9416,7 +9436,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -9440,7 +9460,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -9464,7 +9484,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -9488,7 +9508,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -9512,7 +9532,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -9536,7 +9556,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -9560,7 +9580,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -9584,7 +9604,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -9608,7 +9628,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -9632,7 +9652,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -9656,7 +9676,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -9680,7 +9700,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9704,7 +9724,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -9728,7 +9748,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9752,7 +9772,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9776,7 +9796,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -9800,7 +9820,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9824,7 +9844,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9848,7 +9868,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -9872,7 +9892,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9896,7 +9916,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9920,7 +9940,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -9944,7 +9964,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -9968,7 +9988,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -9992,7 +10012,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10016,7 +10036,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10040,7 +10060,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10064,7 +10084,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10088,7 +10108,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10112,7 +10132,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10136,7 +10156,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10160,7 +10180,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10184,7 +10204,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10208,7 +10228,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10232,7 +10252,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10256,7 +10276,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10280,7 +10300,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10304,7 +10324,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -10328,7 +10348,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -10352,7 +10372,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -10376,7 +10396,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -10400,7 +10420,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -10424,7 +10444,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -10448,7 +10468,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -10472,7 +10492,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -10496,7 +10516,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -10520,7 +10540,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -10544,7 +10564,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -10568,7 +10588,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -10592,7 +10612,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -10616,7 +10636,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -10640,7 +10660,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -10664,7 +10684,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -10688,7 +10708,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -10712,7 +10732,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -10736,7 +10756,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -10760,7 +10780,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -10784,7 +10804,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -10808,7 +10828,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -10832,7 +10852,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -10856,7 +10876,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -10880,7 +10900,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -10904,7 +10924,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -10928,7 +10948,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -10952,7 +10972,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -10976,7 +10996,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11000,7 +11020,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11024,7 +11044,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11048,7 +11068,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11072,7 +11092,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11096,7 +11116,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11120,7 +11140,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11144,7 +11164,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11168,7 +11188,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11192,7 +11212,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11216,7 +11236,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11240,7 +11260,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11264,7 +11284,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11288,7 +11308,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11312,7 +11332,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -11336,7 +11356,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -11360,7 +11380,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -11384,7 +11404,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -11408,7 +11428,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -11432,7 +11452,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -11456,7 +11476,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -11480,7 +11500,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -11504,7 +11524,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -11528,7 +11548,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -11552,7 +11572,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -11576,7 +11596,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -11600,7 +11620,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -11624,7 +11644,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -11648,7 +11668,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -11672,7 +11692,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -11696,7 +11716,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -11720,7 +11740,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -11744,7 +11764,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11768,7 +11788,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -11792,7 +11812,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -11816,7 +11836,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -11840,7 +11860,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -11864,7 +11884,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -11888,7 +11908,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -11912,7 +11932,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -11936,7 +11956,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -11960,7 +11980,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -11984,7 +12004,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12008,7 +12028,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12032,7 +12052,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12056,7 +12076,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12080,7 +12100,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12104,7 +12124,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12128,7 +12148,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12152,7 +12172,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12176,7 +12196,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12200,7 +12220,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12224,7 +12244,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12248,7 +12268,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12272,7 +12292,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12296,7 +12316,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -12320,7 +12340,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -12344,7 +12364,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -12368,7 +12388,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -12392,7 +12412,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -12416,7 +12436,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -12440,7 +12460,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -12464,7 +12484,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -12488,7 +12508,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -12512,7 +12532,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -12536,7 +12556,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -12560,7 +12580,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -12584,7 +12604,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -12608,7 +12628,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -12632,7 +12652,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -12656,7 +12676,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -12680,7 +12700,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -12704,7 +12724,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -12728,7 +12748,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -12752,7 +12772,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -12776,7 +12796,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -12800,7 +12820,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -12824,7 +12844,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -12848,7 +12868,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -12872,7 +12892,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -12896,7 +12916,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -12920,7 +12940,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -12944,7 +12964,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -12968,7 +12988,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -12992,7 +13012,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13016,7 +13036,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13040,7 +13060,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13064,7 +13084,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13088,7 +13108,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13112,7 +13132,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13136,7 +13156,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13160,7 +13180,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13184,7 +13204,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13208,7 +13228,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13232,7 +13252,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13256,7 +13276,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13280,7 +13300,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13304,7 +13324,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -13328,7 +13348,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -13352,7 +13372,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -13376,7 +13396,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -13400,7 +13420,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -13424,7 +13444,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -13448,7 +13468,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -13472,7 +13492,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -13496,7 +13516,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -13520,7 +13540,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -13544,7 +13564,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -13568,7 +13588,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -13592,7 +13612,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -13616,7 +13636,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -13640,7 +13660,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -13664,7 +13684,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -13688,7 +13708,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -13712,7 +13732,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -13736,7 +13756,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -13760,7 +13780,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -13784,7 +13804,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -13808,7 +13828,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -13832,7 +13852,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -13856,7 +13876,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -13880,7 +13900,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -13904,7 +13924,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -13928,7 +13948,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -13952,7 +13972,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -13976,7 +13996,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14000,7 +14020,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14024,7 +14044,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14048,7 +14068,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14072,7 +14092,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14096,7 +14116,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14120,7 +14140,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14144,7 +14164,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14168,7 +14188,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14192,7 +14212,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14216,7 +14236,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14240,7 +14260,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14264,7 +14284,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14288,7 +14308,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14312,7 +14332,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -14336,7 +14356,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -14360,7 +14380,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -14384,7 +14404,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -14408,7 +14428,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -14432,7 +14452,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -14456,7 +14476,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -14480,7 +14500,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -14504,7 +14524,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -14528,7 +14548,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -14552,7 +14572,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -14576,7 +14596,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -14600,7 +14620,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -14624,7 +14644,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -14648,7 +14668,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -14672,7 +14692,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -14696,7 +14716,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -14720,7 +14740,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -14744,7 +14764,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -14768,7 +14788,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -14792,7 +14812,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -14816,7 +14836,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -14840,7 +14860,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -14864,7 +14884,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -14888,7 +14908,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -14912,7 +14932,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -14936,7 +14956,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -14960,7 +14980,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -14984,7 +15004,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15008,7 +15028,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15032,7 +15052,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15056,7 +15076,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15080,7 +15100,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15104,7 +15124,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15128,7 +15148,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15152,7 +15172,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15176,7 +15196,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15200,7 +15220,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15224,7 +15244,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15248,7 +15268,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15272,7 +15292,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15296,7 +15316,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -15320,7 +15340,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -15344,7 +15364,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -15368,7 +15388,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -15392,7 +15412,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -15416,7 +15436,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -15440,7 +15460,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -15464,7 +15484,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -15488,7 +15508,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -15512,7 +15532,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -15536,7 +15556,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -15560,7 +15580,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -15584,7 +15604,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -15608,7 +15628,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -15632,7 +15652,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -15656,7 +15676,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -15680,7 +15700,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -15704,7 +15724,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -15728,7 +15748,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -15752,7 +15772,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -15776,7 +15796,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -15800,7 +15820,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -15824,7 +15844,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -15848,7 +15868,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -15872,7 +15892,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -15896,7 +15916,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -15920,7 +15940,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -15944,7 +15964,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -15968,7 +15988,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -15992,7 +16012,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16016,7 +16036,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16040,7 +16060,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16064,7 +16084,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16088,7 +16108,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16112,7 +16132,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16136,7 +16156,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16160,7 +16180,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16184,7 +16204,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16208,7 +16228,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16232,7 +16252,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16256,7 +16276,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16280,7 +16300,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16304,7 +16324,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -16328,7 +16348,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -16352,7 +16372,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -16376,7 +16396,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -16400,7 +16420,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -16424,7 +16444,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -16448,7 +16468,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -16472,7 +16492,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -16496,7 +16516,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -16520,7 +16540,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -16544,7 +16564,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -16568,7 +16588,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -16592,7 +16612,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -16616,7 +16636,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -16640,7 +16660,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -16664,7 +16684,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -16688,7 +16708,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -16712,7 +16732,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -16736,7 +16756,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -16760,7 +16780,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -16784,7 +16804,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -16808,7 +16828,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -16832,7 +16852,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -16856,7 +16876,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -16880,7 +16900,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -16904,7 +16924,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -16928,7 +16948,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -16952,7 +16972,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -16976,7 +16996,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17000,7 +17020,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17024,7 +17044,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17048,7 +17068,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17072,7 +17092,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17096,7 +17116,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17120,7 +17140,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17144,7 +17164,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17168,7 +17188,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17192,7 +17212,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17216,7 +17236,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17240,7 +17260,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17264,7 +17284,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17288,7 +17308,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17312,7 +17332,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -17336,7 +17356,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -17360,7 +17380,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -17384,7 +17404,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -17408,7 +17428,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -17432,7 +17452,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -17456,7 +17476,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -17480,7 +17500,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -17504,7 +17524,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -17528,7 +17548,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -17552,7 +17572,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -17576,7 +17596,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -17600,7 +17620,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -17624,7 +17644,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -17648,7 +17668,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -17672,7 +17692,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -17696,7 +17716,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -17720,7 +17740,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -17744,7 +17764,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -17768,7 +17788,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -17792,7 +17812,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -17816,7 +17836,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -17840,7 +17860,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -17864,7 +17884,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -17888,7 +17908,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -17912,7 +17932,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -17936,7 +17956,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -17960,7 +17980,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -17984,7 +18004,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18008,7 +18028,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18032,7 +18052,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18056,7 +18076,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18080,7 +18100,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18104,7 +18124,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18128,7 +18148,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18152,7 +18172,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18176,7 +18196,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18200,7 +18220,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18224,7 +18244,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18248,7 +18268,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18272,7 +18292,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18296,7 +18316,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -18320,7 +18340,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -18344,7 +18364,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -18368,7 +18388,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -18392,7 +18412,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -18416,7 +18436,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -18440,7 +18460,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -18464,7 +18484,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -18488,7 +18508,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -18512,7 +18532,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -18536,7 +18556,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -18560,7 +18580,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -18584,7 +18604,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -18608,7 +18628,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -18632,7 +18652,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -18656,7 +18676,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -18680,7 +18700,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -18704,7 +18724,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -18728,7 +18748,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -18752,7 +18772,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -18776,7 +18796,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -18800,7 +18820,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -18824,7 +18844,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -18848,7 +18868,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -18872,7 +18892,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -18896,7 +18916,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -18920,7 +18940,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -18944,7 +18964,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -18968,7 +18988,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -18992,7 +19012,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19016,7 +19036,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19040,7 +19060,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19064,7 +19084,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19088,7 +19108,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19112,7 +19132,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19136,7 +19156,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19160,7 +19180,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19184,7 +19204,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19208,7 +19228,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19232,7 +19252,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19256,7 +19276,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19280,7 +19300,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19304,7 +19324,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -19328,7 +19348,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -19352,7 +19372,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -19376,7 +19396,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -19400,7 +19420,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -19424,7 +19444,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -19448,7 +19468,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -19472,7 +19492,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -19496,7 +19516,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -19520,7 +19540,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -19544,7 +19564,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -19568,7 +19588,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -19592,7 +19612,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -19616,7 +19636,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -19640,7 +19660,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -19664,7 +19684,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -19688,7 +19708,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -19712,7 +19732,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -19736,7 +19756,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -19760,7 +19780,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -19784,7 +19804,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -19808,7 +19828,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -19832,7 +19852,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -19856,7 +19876,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -19880,7 +19900,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -19904,7 +19924,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -19928,7 +19948,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -19952,7 +19972,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -19976,7 +19996,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20000,7 +20020,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20024,7 +20044,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20048,7 +20068,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20072,7 +20092,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20096,7 +20116,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20120,7 +20140,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20144,7 +20164,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20168,7 +20188,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20192,7 +20212,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20216,7 +20236,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20240,7 +20260,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20264,7 +20284,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20288,7 +20308,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20312,7 +20332,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -20336,7 +20356,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -20360,7 +20380,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -20384,7 +20404,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -20408,7 +20428,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -20432,7 +20452,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -20456,7 +20476,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -20480,7 +20500,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -20504,7 +20524,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -20528,7 +20548,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -20552,7 +20572,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -20576,7 +20596,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -20600,7 +20620,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -20624,7 +20644,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -20648,7 +20668,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -20672,7 +20692,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -20696,7 +20716,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -20720,7 +20740,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -20744,7 +20764,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -20768,7 +20788,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -20792,7 +20812,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -20816,7 +20836,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -20840,7 +20860,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -20864,7 +20884,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -20888,7 +20908,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -20912,7 +20932,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -20936,7 +20956,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -20960,7 +20980,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -20984,7 +21004,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21008,7 +21028,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21032,7 +21052,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21056,7 +21076,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21080,7 +21100,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21104,7 +21124,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21128,7 +21148,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21152,7 +21172,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21176,7 +21196,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21200,7 +21220,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21224,7 +21244,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21248,7 +21268,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21272,7 +21292,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21296,7 +21316,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -21320,7 +21340,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -21344,7 +21364,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -21368,7 +21388,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -21392,7 +21412,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -21416,7 +21436,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -21440,7 +21460,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -21464,7 +21484,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -21488,7 +21508,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -21512,7 +21532,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -21536,7 +21556,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -21560,7 +21580,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -21584,7 +21604,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -21608,7 +21628,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -21632,7 +21652,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -21656,7 +21676,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -21680,7 +21700,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -21704,7 +21724,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -21728,7 +21748,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -21752,7 +21772,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -21776,7 +21796,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -21800,7 +21820,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -21824,7 +21844,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -21848,7 +21868,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -21872,7 +21892,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -21896,7 +21916,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -21920,7 +21940,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -21944,7 +21964,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -21968,7 +21988,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -21992,7 +22012,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22016,7 +22036,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22040,7 +22060,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22064,7 +22084,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22088,7 +22108,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22112,7 +22132,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22136,7 +22156,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22160,7 +22180,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22184,7 +22204,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22208,7 +22228,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22232,7 +22252,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22256,7 +22276,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22280,7 +22300,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22304,7 +22324,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -22328,7 +22348,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -22352,7 +22372,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -22376,7 +22396,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -22400,7 +22420,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -22424,7 +22444,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -22448,7 +22468,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -22472,7 +22492,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -22496,7 +22516,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -22520,7 +22540,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -22544,7 +22564,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -22568,7 +22588,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -22592,7 +22612,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -22616,7 +22636,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -22640,7 +22660,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -22664,7 +22684,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -22688,7 +22708,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -22712,7 +22732,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -22736,7 +22756,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -22760,7 +22780,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -22784,7 +22804,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -22808,7 +22828,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -22832,7 +22852,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -22856,7 +22876,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -22880,7 +22900,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -22904,7 +22924,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -22928,7 +22948,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -22952,7 +22972,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -22976,7 +22996,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23000,7 +23020,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23024,7 +23044,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23048,7 +23068,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23072,7 +23092,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23096,7 +23116,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23120,7 +23140,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23144,7 +23164,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23168,7 +23188,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23192,7 +23212,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23216,7 +23236,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23240,7 +23260,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23264,7 +23284,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23288,7 +23308,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23312,7 +23332,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -23336,7 +23356,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -23360,7 +23380,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -23384,7 +23404,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -23408,7 +23428,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -23432,7 +23452,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -23456,7 +23476,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -23480,7 +23500,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -23504,7 +23524,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -23528,7 +23548,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -23552,7 +23572,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -23576,7 +23596,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -23600,7 +23620,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -23624,7 +23644,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -23648,7 +23668,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -23672,7 +23692,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -23696,7 +23716,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -23720,7 +23740,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -23744,7 +23764,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -23768,7 +23788,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -23792,7 +23812,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -23816,7 +23836,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -23840,7 +23860,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -23864,7 +23884,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -23888,7 +23908,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -23912,7 +23932,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -23936,7 +23956,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -23960,7 +23980,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -23984,7 +24004,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24008,7 +24028,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24032,7 +24052,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24056,7 +24076,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24080,7 +24100,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24104,7 +24124,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24128,7 +24148,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24152,7 +24172,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24176,7 +24196,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24200,7 +24220,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24224,7 +24244,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
@@ -24247,7 +24267,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
@@ -24270,7 +24290,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillk\Documents\GitHub\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7740242-DEDF-455C-AC0F-B56836F864E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8B183-5116-4AB3-A555-044188E83A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08857C63-4C1E-44C5-82E9-14225726381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD6A62-A82A-4DF4-B668-381B169EA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="xVZS5a/E8qws//PLhbk6vpqXulO7KwKAGCvX5FlAURA="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -190,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -227,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -453,7 +451,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -542,12 +540,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
       <c r="L2" s="9">
         <v>1</v>
       </c>
@@ -578,12 +580,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
       <c r="L3" s="9">
         <v>1</v>
       </c>
@@ -614,12 +620,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
       <c r="L4" s="9">
         <v>1</v>
       </c>
@@ -650,12 +660,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="15">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="9">
         <v>1</v>
       </c>
@@ -686,12 +700,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
       <c r="L6" s="9">
         <v>1</v>
       </c>
@@ -722,12 +740,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
       <c r="L7" s="9">
         <v>1</v>
       </c>
@@ -758,12 +780,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
       <c r="L8" s="9">
         <v>1</v>
       </c>
@@ -799,7 +825,9 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
       <c r="L9" s="9">
         <v>1</v>
       </c>
@@ -835,7 +863,9 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
       <c r="L10" s="9">
         <v>1</v>
       </c>
@@ -871,7 +901,9 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="15">
+        <v>0.8</v>
+      </c>
       <c r="L11" s="9">
         <v>1</v>
       </c>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\horizon\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD6A62-A82A-4DF4-B668-381B169EA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3973CB33-A66C-4A08-95B5-94BAF1264574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -222,9 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,31 +445,31 @@
   <dimension ref="A1:X985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K11"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="103.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
-    <col min="15" max="24" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="103.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -526,7 +523,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -547,14 +544,16 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="15">
+      <c r="K2" s="9">
         <v>1</v>
       </c>
       <c r="L2" s="9">
         <v>1</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -566,7 +565,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -587,14 +586,16 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="15">
+      <c r="K3" s="9">
         <v>1</v>
       </c>
       <c r="L3" s="9">
         <v>1</v>
       </c>
       <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -606,7 +607,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -627,14 +628,16 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="15">
+      <c r="K4" s="9">
         <v>1</v>
       </c>
       <c r="L4" s="9">
         <v>1</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -646,7 +649,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -667,14 +670,16 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="15">
+      <c r="K5" s="9">
         <v>0.5</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
       </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -686,7 +691,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -707,14 +712,16 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="15">
+      <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -726,7 +733,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -747,14 +754,16 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="15">
+      <c r="K7" s="9">
         <v>1</v>
       </c>
       <c r="L7" s="9">
         <v>1</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -766,7 +775,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -787,14 +796,16 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="15">
+      <c r="K8" s="9">
         <v>1</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -806,7 +817,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -825,14 +836,16 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="15">
+      <c r="K9" s="9">
         <v>1</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -844,7 +857,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -863,14 +876,16 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="15">
+      <c r="K10" s="9">
         <v>1</v>
       </c>
       <c r="L10" s="9">
         <v>1</v>
       </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -882,7 +897,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -901,14 +916,16 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="15">
+      <c r="K11" s="9">
         <v>0.8</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -920,7 +937,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -952,7 +969,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -978,7 +995,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -1004,7 +1021,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1030,7 +1047,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1056,7 +1073,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1082,7 +1099,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1108,7 +1125,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1134,7 +1151,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1160,7 +1177,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1186,7 +1203,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1212,7 +1229,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1238,7 +1255,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1264,7 +1281,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1290,7 +1307,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1316,7 +1333,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1342,7 +1359,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1368,7 +1385,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1394,7 +1411,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1420,7 +1437,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1446,7 +1463,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1472,7 +1489,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1498,7 +1515,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1524,7 +1541,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1548,7 +1565,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1572,7 +1589,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1596,7 +1613,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1620,7 +1637,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1644,7 +1661,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1668,7 +1685,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1692,7 +1709,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1716,7 +1733,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1740,7 +1757,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1764,7 +1781,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1788,7 +1805,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1812,7 +1829,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1836,7 +1853,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1860,7 +1877,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1884,7 +1901,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1908,7 +1925,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1932,7 +1949,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1956,7 +1973,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1980,7 +1997,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2004,7 +2021,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2028,7 +2045,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2052,7 +2069,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2076,7 +2093,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2100,7 +2117,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2124,7 +2141,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2148,7 +2165,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2172,7 +2189,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2196,7 +2213,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2220,7 +2237,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2244,7 +2261,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2268,7 +2285,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2292,7 +2309,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2316,7 +2333,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2340,7 +2357,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2364,7 +2381,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2388,7 +2405,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2412,7 +2429,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2436,7 +2453,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2460,7 +2477,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2484,7 +2501,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2508,7 +2525,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2532,7 +2549,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2556,7 +2573,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2580,7 +2597,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2604,7 +2621,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2628,7 +2645,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2652,7 +2669,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2676,7 +2693,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2700,7 +2717,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2724,7 +2741,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2748,7 +2765,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2772,7 +2789,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2796,7 +2813,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2820,7 +2837,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2844,7 +2861,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2868,7 +2885,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2892,7 +2909,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2916,7 +2933,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2940,7 +2957,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2964,7 +2981,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2988,7 +3005,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3012,7 +3029,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3036,7 +3053,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3060,7 +3077,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3084,7 +3101,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3108,7 +3125,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3132,7 +3149,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3156,7 +3173,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3180,7 +3197,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3204,7 +3221,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3228,7 +3245,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3252,7 +3269,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3276,7 +3293,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3300,7 +3317,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3324,7 +3341,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3348,7 +3365,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3372,7 +3389,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3396,7 +3413,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3420,7 +3437,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3444,7 +3461,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3468,7 +3485,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3492,7 +3509,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3516,7 +3533,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3540,7 +3557,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3564,7 +3581,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3588,7 +3605,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3612,7 +3629,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3636,7 +3653,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3660,7 +3677,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3684,7 +3701,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3708,7 +3725,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3732,7 +3749,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3756,7 +3773,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3780,7 +3797,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3804,7 +3821,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3828,7 +3845,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3852,7 +3869,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3876,7 +3893,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3900,7 +3917,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3924,7 +3941,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3948,7 +3965,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3972,7 +3989,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3996,7 +4013,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4020,7 +4037,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4044,7 +4061,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4068,7 +4085,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4092,7 +4109,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4116,7 +4133,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4140,7 +4157,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4164,7 +4181,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4188,7 +4205,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4212,7 +4229,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4236,7 +4253,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4260,7 +4277,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4284,7 +4301,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4308,7 +4325,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4332,7 +4349,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4356,7 +4373,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4380,7 +4397,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4404,7 +4421,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4428,7 +4445,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4452,7 +4469,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4476,7 +4493,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4500,7 +4517,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4524,7 +4541,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4548,7 +4565,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4572,7 +4589,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4596,7 +4613,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4620,7 +4637,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4644,7 +4661,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4668,7 +4685,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4692,7 +4709,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4716,7 +4733,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4740,7 +4757,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4764,7 +4781,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4788,7 +4805,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4812,7 +4829,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4836,7 +4853,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4860,7 +4877,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4884,7 +4901,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4908,7 +4925,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4932,7 +4949,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4956,7 +4973,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4980,7 +4997,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5004,7 +5021,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5028,7 +5045,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5052,7 +5069,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5076,7 +5093,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5100,7 +5117,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5124,7 +5141,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5148,7 +5165,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5172,7 +5189,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5196,7 +5213,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5220,7 +5237,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5244,7 +5261,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5268,7 +5285,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5292,7 +5309,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5316,7 +5333,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5340,7 +5357,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5364,7 +5381,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5388,7 +5405,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5412,7 +5429,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5436,7 +5453,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5460,7 +5477,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5484,7 +5501,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5508,7 +5525,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5532,7 +5549,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5556,7 +5573,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5580,7 +5597,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5604,7 +5621,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5628,7 +5645,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5652,7 +5669,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5676,7 +5693,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5700,7 +5717,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5724,7 +5741,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5748,7 +5765,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5772,7 +5789,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5796,7 +5813,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5820,7 +5837,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5844,7 +5861,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5868,7 +5885,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5892,7 +5909,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5916,7 +5933,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5940,7 +5957,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5964,7 +5981,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5988,7 +6005,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6012,7 +6029,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6036,7 +6053,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6060,7 +6077,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6084,7 +6101,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6108,7 +6125,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6132,7 +6149,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6156,7 +6173,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6180,7 +6197,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6204,7 +6221,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6228,7 +6245,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6252,7 +6269,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6276,7 +6293,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6300,7 +6317,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6324,7 +6341,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6348,7 +6365,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6372,7 +6389,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6396,7 +6413,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6420,7 +6437,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6444,7 +6461,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6468,7 +6485,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6492,7 +6509,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6516,7 +6533,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6540,7 +6557,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6564,7 +6581,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6588,7 +6605,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6612,7 +6629,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6636,7 +6653,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6660,7 +6677,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6684,7 +6701,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6708,7 +6725,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6732,7 +6749,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6756,7 +6773,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6780,7 +6797,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6804,7 +6821,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6828,7 +6845,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6852,7 +6869,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6876,7 +6893,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6900,7 +6917,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6924,7 +6941,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6948,7 +6965,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6972,7 +6989,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6996,7 +7013,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7020,7 +7037,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7044,7 +7061,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7068,7 +7085,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7092,7 +7109,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7116,7 +7133,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7140,7 +7157,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7164,7 +7181,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7188,7 +7205,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7212,7 +7229,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7236,7 +7253,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7260,7 +7277,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7284,7 +7301,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7308,7 +7325,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7332,7 +7349,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7356,7 +7373,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7380,7 +7397,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7404,7 +7421,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7428,7 +7445,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7452,7 +7469,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7476,7 +7493,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7500,7 +7517,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7524,7 +7541,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7548,7 +7565,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7572,7 +7589,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7596,7 +7613,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7620,7 +7637,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7644,7 +7661,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7668,7 +7685,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7692,7 +7709,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7716,7 +7733,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7740,7 +7757,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7764,7 +7781,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7788,7 +7805,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7812,7 +7829,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7836,7 +7853,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7860,7 +7877,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7884,7 +7901,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7908,7 +7925,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7932,7 +7949,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7956,7 +7973,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -7980,7 +7997,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -8004,7 +8021,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -8028,7 +8045,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8052,7 +8069,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8076,7 +8093,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8100,7 +8117,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8124,7 +8141,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8148,7 +8165,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8172,7 +8189,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8196,7 +8213,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8220,7 +8237,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8244,7 +8261,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8268,7 +8285,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8292,7 +8309,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8316,7 +8333,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8340,7 +8357,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8364,7 +8381,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -8388,7 +8405,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -8412,7 +8429,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -8436,7 +8453,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8460,7 +8477,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -8484,7 +8501,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8508,7 +8525,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8532,7 +8549,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -8556,7 +8573,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8580,7 +8597,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8604,7 +8621,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -8628,7 +8645,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8652,7 +8669,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8676,7 +8693,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -8700,7 +8717,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8724,7 +8741,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8748,7 +8765,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -8772,7 +8789,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8796,7 +8813,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8820,7 +8837,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -8844,7 +8861,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8868,7 +8885,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8892,7 +8909,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -8916,7 +8933,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8940,7 +8957,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8964,7 +8981,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -8988,7 +9005,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -9012,7 +9029,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -9036,7 +9053,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9060,7 +9077,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9084,7 +9101,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9108,7 +9125,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9132,7 +9149,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9156,7 +9173,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9180,7 +9197,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9204,7 +9221,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9228,7 +9245,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9252,7 +9269,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9276,7 +9293,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9300,7 +9317,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9324,7 +9341,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9348,7 +9365,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -9372,7 +9389,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -9396,7 +9413,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -9420,7 +9437,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -9444,7 +9461,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -9468,7 +9485,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -9492,7 +9509,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -9516,7 +9533,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -9540,7 +9557,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -9564,7 +9581,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -9588,7 +9605,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -9612,7 +9629,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -9636,7 +9653,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -9660,7 +9677,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -9684,7 +9701,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -9708,7 +9725,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -9732,7 +9749,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9756,7 +9773,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -9780,7 +9797,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9804,7 +9821,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9828,7 +9845,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -9852,7 +9869,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9876,7 +9893,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9900,7 +9917,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -9924,7 +9941,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9948,7 +9965,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9972,7 +9989,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -9996,7 +10013,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -10020,7 +10037,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -10044,7 +10061,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10068,7 +10085,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10092,7 +10109,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10116,7 +10133,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10140,7 +10157,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10164,7 +10181,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10188,7 +10205,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10212,7 +10229,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10236,7 +10253,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10260,7 +10277,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10284,7 +10301,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10308,7 +10325,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10332,7 +10349,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10356,7 +10373,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -10380,7 +10397,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -10404,7 +10421,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -10428,7 +10445,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -10452,7 +10469,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -10476,7 +10493,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -10500,7 +10517,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -10524,7 +10541,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -10548,7 +10565,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -10572,7 +10589,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -10596,7 +10613,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -10620,7 +10637,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -10644,7 +10661,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -10668,7 +10685,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -10692,7 +10709,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -10716,7 +10733,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -10740,7 +10757,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -10764,7 +10781,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -10788,7 +10805,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -10812,7 +10829,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -10836,7 +10853,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -10860,7 +10877,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -10884,7 +10901,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -10908,7 +10925,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -10932,7 +10949,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -10956,7 +10973,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -10980,7 +10997,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -11004,7 +11021,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -11028,7 +11045,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11052,7 +11069,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11076,7 +11093,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11100,7 +11117,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11124,7 +11141,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11148,7 +11165,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11172,7 +11189,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11196,7 +11213,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11220,7 +11237,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11244,7 +11261,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11268,7 +11285,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11292,7 +11309,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11316,7 +11333,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11340,7 +11357,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11364,7 +11381,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -11388,7 +11405,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -11412,7 +11429,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -11436,7 +11453,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -11460,7 +11477,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -11484,7 +11501,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -11508,7 +11525,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -11532,7 +11549,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -11556,7 +11573,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -11580,7 +11597,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -11604,7 +11621,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -11628,7 +11645,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -11652,7 +11669,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -11676,7 +11693,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -11700,7 +11717,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -11724,7 +11741,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -11748,7 +11765,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -11772,7 +11789,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -11796,7 +11813,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11820,7 +11837,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -11844,7 +11861,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -11868,7 +11885,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -11892,7 +11909,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -11916,7 +11933,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -11940,7 +11957,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -11964,7 +11981,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -11988,7 +12005,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -12012,7 +12029,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -12036,7 +12053,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12060,7 +12077,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12084,7 +12101,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12108,7 +12125,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12132,7 +12149,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12156,7 +12173,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12180,7 +12197,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12204,7 +12221,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12228,7 +12245,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12252,7 +12269,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12276,7 +12293,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12300,7 +12317,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12324,7 +12341,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12348,7 +12365,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -12372,7 +12389,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -12396,7 +12413,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -12420,7 +12437,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -12444,7 +12461,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -12468,7 +12485,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -12492,7 +12509,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -12516,7 +12533,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -12540,7 +12557,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -12564,7 +12581,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -12588,7 +12605,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -12612,7 +12629,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -12636,7 +12653,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -12660,7 +12677,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -12684,7 +12701,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -12708,7 +12725,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -12732,7 +12749,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -12756,7 +12773,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -12780,7 +12797,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -12804,7 +12821,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -12828,7 +12845,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -12852,7 +12869,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -12876,7 +12893,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -12900,7 +12917,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -12924,7 +12941,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -12948,7 +12965,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -12972,7 +12989,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -12996,7 +13013,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -13020,7 +13037,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -13044,7 +13061,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13068,7 +13085,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13092,7 +13109,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13116,7 +13133,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13140,7 +13157,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13164,7 +13181,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13188,7 +13205,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13212,7 +13229,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13236,7 +13253,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13260,7 +13277,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13284,7 +13301,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13308,7 +13325,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13332,7 +13349,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13356,7 +13373,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -13380,7 +13397,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -13404,7 +13421,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -13428,7 +13445,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -13452,7 +13469,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -13476,7 +13493,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -13500,7 +13517,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -13524,7 +13541,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -13548,7 +13565,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -13572,7 +13589,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -13596,7 +13613,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -13620,7 +13637,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -13644,7 +13661,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -13668,7 +13685,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -13692,7 +13709,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -13716,7 +13733,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -13740,7 +13757,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -13764,7 +13781,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -13788,7 +13805,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -13812,7 +13829,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -13836,7 +13853,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -13860,7 +13877,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -13884,7 +13901,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -13908,7 +13925,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -13932,7 +13949,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -13956,7 +13973,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -13980,7 +13997,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -14004,7 +14021,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -14028,7 +14045,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14052,7 +14069,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14076,7 +14093,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14100,7 +14117,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14124,7 +14141,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14148,7 +14165,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14172,7 +14189,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14196,7 +14213,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14220,7 +14237,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14244,7 +14261,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14268,7 +14285,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14292,7 +14309,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14316,7 +14333,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14340,7 +14357,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14364,7 +14381,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -14388,7 +14405,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -14412,7 +14429,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -14436,7 +14453,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -14460,7 +14477,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -14484,7 +14501,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -14508,7 +14525,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -14532,7 +14549,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -14556,7 +14573,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -14580,7 +14597,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -14604,7 +14621,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -14628,7 +14645,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -14652,7 +14669,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -14676,7 +14693,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -14700,7 +14717,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -14724,7 +14741,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -14748,7 +14765,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -14772,7 +14789,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -14796,7 +14813,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -14820,7 +14837,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -14844,7 +14861,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -14868,7 +14885,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -14892,7 +14909,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -14916,7 +14933,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -14940,7 +14957,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -14964,7 +14981,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -14988,7 +15005,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -15012,7 +15029,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -15036,7 +15053,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15060,7 +15077,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15084,7 +15101,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15108,7 +15125,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15132,7 +15149,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15156,7 +15173,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15180,7 +15197,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15204,7 +15221,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15228,7 +15245,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15252,7 +15269,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15276,7 +15293,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15300,7 +15317,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15324,7 +15341,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15348,7 +15365,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -15372,7 +15389,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -15396,7 +15413,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -15420,7 +15437,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -15444,7 +15461,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -15468,7 +15485,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -15492,7 +15509,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -15516,7 +15533,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -15540,7 +15557,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -15564,7 +15581,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -15588,7 +15605,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -15612,7 +15629,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -15636,7 +15653,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -15660,7 +15677,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -15684,7 +15701,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -15708,7 +15725,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -15732,7 +15749,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -15756,7 +15773,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -15780,7 +15797,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -15804,7 +15821,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -15828,7 +15845,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -15852,7 +15869,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -15876,7 +15893,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -15900,7 +15917,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -15924,7 +15941,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -15948,7 +15965,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -15972,7 +15989,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -15996,7 +16013,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -16020,7 +16037,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -16044,7 +16061,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16068,7 +16085,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16092,7 +16109,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16116,7 +16133,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16140,7 +16157,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16164,7 +16181,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16188,7 +16205,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16212,7 +16229,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16236,7 +16253,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16260,7 +16277,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16284,7 +16301,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16308,7 +16325,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16332,7 +16349,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16356,7 +16373,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -16380,7 +16397,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -16404,7 +16421,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -16428,7 +16445,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -16452,7 +16469,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -16476,7 +16493,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -16500,7 +16517,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -16524,7 +16541,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -16548,7 +16565,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -16572,7 +16589,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -16596,7 +16613,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -16620,7 +16637,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -16644,7 +16661,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -16668,7 +16685,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -16692,7 +16709,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -16716,7 +16733,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -16740,7 +16757,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -16764,7 +16781,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -16788,7 +16805,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -16812,7 +16829,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -16836,7 +16853,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -16860,7 +16877,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -16884,7 +16901,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -16908,7 +16925,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -16932,7 +16949,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -16956,7 +16973,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -16980,7 +16997,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -17004,7 +17021,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -17028,7 +17045,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17052,7 +17069,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17076,7 +17093,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17100,7 +17117,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17124,7 +17141,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17148,7 +17165,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17172,7 +17189,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17196,7 +17213,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17220,7 +17237,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17244,7 +17261,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17268,7 +17285,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17292,7 +17309,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17316,7 +17333,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17340,7 +17357,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17364,7 +17381,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -17388,7 +17405,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -17412,7 +17429,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -17436,7 +17453,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -17460,7 +17477,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -17484,7 +17501,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -17508,7 +17525,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -17532,7 +17549,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -17556,7 +17573,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -17580,7 +17597,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -17604,7 +17621,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -17628,7 +17645,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -17652,7 +17669,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -17676,7 +17693,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -17700,7 +17717,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -17724,7 +17741,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -17748,7 +17765,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -17772,7 +17789,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -17796,7 +17813,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -17820,7 +17837,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -17844,7 +17861,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -17868,7 +17885,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -17892,7 +17909,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -17916,7 +17933,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -17940,7 +17957,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -17964,7 +17981,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -17988,7 +18005,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -18012,7 +18029,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -18036,7 +18053,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18060,7 +18077,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18084,7 +18101,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18108,7 +18125,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18132,7 +18149,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18156,7 +18173,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18180,7 +18197,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18204,7 +18221,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18228,7 +18245,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18252,7 +18269,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18276,7 +18293,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18300,7 +18317,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18324,7 +18341,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18348,7 +18365,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -18372,7 +18389,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -18396,7 +18413,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -18420,7 +18437,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -18444,7 +18461,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -18468,7 +18485,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -18492,7 +18509,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -18516,7 +18533,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -18540,7 +18557,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -18564,7 +18581,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -18588,7 +18605,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -18612,7 +18629,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -18636,7 +18653,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -18660,7 +18677,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -18684,7 +18701,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -18708,7 +18725,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -18732,7 +18749,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -18756,7 +18773,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -18780,7 +18797,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -18804,7 +18821,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -18828,7 +18845,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -18852,7 +18869,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -18876,7 +18893,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -18900,7 +18917,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -18924,7 +18941,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -18948,7 +18965,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -18972,7 +18989,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -18996,7 +19013,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -19020,7 +19037,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -19044,7 +19061,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19068,7 +19085,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19092,7 +19109,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19116,7 +19133,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19140,7 +19157,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19164,7 +19181,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19188,7 +19205,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19212,7 +19229,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19236,7 +19253,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19260,7 +19277,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19284,7 +19301,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19308,7 +19325,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19332,7 +19349,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19356,7 +19373,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -19380,7 +19397,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -19404,7 +19421,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -19428,7 +19445,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -19452,7 +19469,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -19476,7 +19493,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -19500,7 +19517,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -19524,7 +19541,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -19548,7 +19565,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -19572,7 +19589,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -19596,7 +19613,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -19620,7 +19637,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -19644,7 +19661,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -19668,7 +19685,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -19692,7 +19709,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -19716,7 +19733,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -19740,7 +19757,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -19764,7 +19781,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -19788,7 +19805,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -19812,7 +19829,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -19836,7 +19853,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -19860,7 +19877,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -19884,7 +19901,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -19908,7 +19925,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -19932,7 +19949,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -19956,7 +19973,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -19980,7 +19997,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -20004,7 +20021,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -20028,7 +20045,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20052,7 +20069,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20076,7 +20093,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20100,7 +20117,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20124,7 +20141,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20148,7 +20165,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20172,7 +20189,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20196,7 +20213,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20220,7 +20237,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20244,7 +20261,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20268,7 +20285,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20292,7 +20309,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20316,7 +20333,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20340,7 +20357,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20364,7 +20381,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -20388,7 +20405,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -20412,7 +20429,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -20436,7 +20453,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -20460,7 +20477,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -20484,7 +20501,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -20508,7 +20525,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -20532,7 +20549,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -20556,7 +20573,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -20580,7 +20597,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -20604,7 +20621,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -20628,7 +20645,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -20652,7 +20669,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -20676,7 +20693,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -20700,7 +20717,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -20724,7 +20741,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -20748,7 +20765,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -20772,7 +20789,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -20796,7 +20813,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -20820,7 +20837,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -20844,7 +20861,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -20868,7 +20885,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -20892,7 +20909,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -20916,7 +20933,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -20940,7 +20957,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -20964,7 +20981,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -20988,7 +21005,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -21012,7 +21029,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -21036,7 +21053,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21060,7 +21077,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21084,7 +21101,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21108,7 +21125,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21132,7 +21149,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21156,7 +21173,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21180,7 +21197,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21204,7 +21221,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21228,7 +21245,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21252,7 +21269,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21276,7 +21293,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21300,7 +21317,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21324,7 +21341,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21348,7 +21365,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -21372,7 +21389,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -21396,7 +21413,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -21420,7 +21437,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -21444,7 +21461,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -21468,7 +21485,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -21492,7 +21509,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -21516,7 +21533,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -21540,7 +21557,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -21564,7 +21581,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -21588,7 +21605,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -21612,7 +21629,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -21636,7 +21653,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -21660,7 +21677,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -21684,7 +21701,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -21708,7 +21725,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -21732,7 +21749,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -21756,7 +21773,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -21780,7 +21797,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -21804,7 +21821,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -21828,7 +21845,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -21852,7 +21869,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -21876,7 +21893,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -21900,7 +21917,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -21924,7 +21941,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -21948,7 +21965,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -21972,7 +21989,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -21996,7 +22013,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -22020,7 +22037,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -22044,7 +22061,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22068,7 +22085,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22092,7 +22109,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22116,7 +22133,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22140,7 +22157,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22164,7 +22181,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22188,7 +22205,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22212,7 +22229,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22236,7 +22253,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22260,7 +22277,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22284,7 +22301,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22308,7 +22325,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22332,7 +22349,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22356,7 +22373,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -22380,7 +22397,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -22404,7 +22421,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -22428,7 +22445,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -22452,7 +22469,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -22476,7 +22493,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -22500,7 +22517,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -22524,7 +22541,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -22548,7 +22565,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -22572,7 +22589,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -22596,7 +22613,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -22620,7 +22637,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -22644,7 +22661,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -22668,7 +22685,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -22692,7 +22709,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -22716,7 +22733,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -22740,7 +22757,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -22764,7 +22781,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -22788,7 +22805,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -22812,7 +22829,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -22836,7 +22853,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -22860,7 +22877,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -22884,7 +22901,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -22908,7 +22925,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -22932,7 +22949,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -22956,7 +22973,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -22980,7 +22997,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -23004,7 +23021,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -23028,7 +23045,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23052,7 +23069,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23076,7 +23093,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23100,7 +23117,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23124,7 +23141,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23148,7 +23165,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23172,7 +23189,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23196,7 +23213,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23220,7 +23237,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23244,7 +23261,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23268,7 +23285,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23292,7 +23309,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23316,7 +23333,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23340,7 +23357,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23364,7 +23381,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -23388,7 +23405,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -23412,7 +23429,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -23436,7 +23453,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -23460,7 +23477,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -23484,7 +23501,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -23508,7 +23525,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -23532,7 +23549,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -23556,7 +23573,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -23580,7 +23597,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -23604,7 +23621,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -23628,7 +23645,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -23652,7 +23669,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -23676,7 +23693,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -23700,7 +23717,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -23724,7 +23741,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -23748,7 +23765,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -23772,7 +23789,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -23796,7 +23813,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -23820,7 +23837,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -23844,7 +23861,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -23868,7 +23885,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -23892,7 +23909,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -23916,7 +23933,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -23940,7 +23957,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -23964,7 +23981,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -23988,7 +24005,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -24012,7 +24029,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -24036,7 +24053,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24060,7 +24077,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24084,7 +24101,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24108,7 +24125,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24132,7 +24149,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24156,7 +24173,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24180,7 +24197,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24204,7 +24221,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24228,7 +24245,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24252,7 +24269,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24276,7 +24293,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
@@ -24299,7 +24316,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
@@ -24322,7 +24339,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\horizon\fs_ITMentoring_March2024\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3973CB33-A66C-4A08-95B5-94BAF1264574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D96D8DE-E9F0-4130-93EE-C1C4D44D5CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
@@ -445,31 +445,31 @@
   <dimension ref="A1:X985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="24" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="103.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -540,7 +540,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -565,7 +567,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -582,7 +584,9 @@
       <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -607,7 +611,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -624,7 +628,9 @@
       <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -649,7 +655,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -666,7 +672,9 @@
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -691,7 +699,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -708,7 +716,9 @@
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -733,7 +743,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -750,7 +760,9 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -775,7 +787,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -792,7 +804,9 @@
       <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -817,7 +831,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -832,7 +846,9 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -857,7 +873,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -872,7 +888,9 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -897,7 +915,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -912,7 +930,9 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -937,7 +957,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -969,7 +989,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -995,7 +1015,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -1021,7 +1041,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1047,7 +1067,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1073,7 +1093,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1099,7 +1119,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1125,7 +1145,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1151,7 +1171,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1177,7 +1197,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1203,7 +1223,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1229,7 +1249,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1255,7 +1275,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1281,7 +1301,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1307,7 +1327,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1333,7 +1353,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1359,7 +1379,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1385,7 +1405,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1411,7 +1431,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1437,7 +1457,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1463,7 +1483,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1489,7 +1509,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1515,7 +1535,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1541,7 +1561,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1565,7 +1585,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1589,7 +1609,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1613,7 +1633,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1637,7 +1657,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1661,7 +1681,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1685,7 +1705,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1709,7 +1729,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1733,7 +1753,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1757,7 +1777,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1781,7 +1801,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1805,7 +1825,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1829,7 +1849,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1853,7 +1873,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1877,7 +1897,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1901,7 +1921,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1925,7 +1945,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1949,7 +1969,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1973,7 +1993,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1997,7 +2017,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2021,7 +2041,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2045,7 +2065,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2069,7 +2089,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2093,7 +2113,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2117,7 +2137,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2141,7 +2161,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2165,7 +2185,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2189,7 +2209,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2213,7 +2233,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2237,7 +2257,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2261,7 +2281,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2285,7 +2305,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2309,7 +2329,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2333,7 +2353,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2357,7 +2377,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2381,7 +2401,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2405,7 +2425,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2429,7 +2449,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2453,7 +2473,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2477,7 +2497,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2501,7 +2521,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2525,7 +2545,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2549,7 +2569,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2573,7 +2593,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2597,7 +2617,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2621,7 +2641,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2645,7 +2665,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2669,7 +2689,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2693,7 +2713,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2717,7 +2737,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2741,7 +2761,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2765,7 +2785,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2789,7 +2809,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2813,7 +2833,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2837,7 +2857,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2861,7 +2881,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2885,7 +2905,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2909,7 +2929,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2933,7 +2953,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2957,7 +2977,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2981,7 +3001,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3005,7 +3025,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3029,7 +3049,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3053,7 +3073,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3077,7 +3097,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3101,7 +3121,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3125,7 +3145,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3149,7 +3169,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3173,7 +3193,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3197,7 +3217,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3221,7 +3241,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3245,7 +3265,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3269,7 +3289,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3293,7 +3313,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3317,7 +3337,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3341,7 +3361,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3365,7 +3385,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3389,7 +3409,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3413,7 +3433,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3437,7 +3457,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3461,7 +3481,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3485,7 +3505,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3509,7 +3529,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3533,7 +3553,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3557,7 +3577,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3581,7 +3601,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3605,7 +3625,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3629,7 +3649,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3653,7 +3673,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3677,7 +3697,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3701,7 +3721,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3725,7 +3745,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3749,7 +3769,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3773,7 +3793,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3797,7 +3817,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3821,7 +3841,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3845,7 +3865,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3869,7 +3889,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3893,7 +3913,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3917,7 +3937,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3941,7 +3961,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3965,7 +3985,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3989,7 +4009,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4013,7 +4033,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4037,7 +4057,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4061,7 +4081,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4085,7 +4105,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4109,7 +4129,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4133,7 +4153,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4157,7 +4177,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4181,7 +4201,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4205,7 +4225,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4229,7 +4249,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4253,7 +4273,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4277,7 +4297,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4301,7 +4321,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4325,7 +4345,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4349,7 +4369,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4373,7 +4393,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4397,7 +4417,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4421,7 +4441,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4445,7 +4465,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4469,7 +4489,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4493,7 +4513,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4517,7 +4537,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4541,7 +4561,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4565,7 +4585,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4589,7 +4609,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4613,7 +4633,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4637,7 +4657,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4661,7 +4681,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4685,7 +4705,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4709,7 +4729,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4733,7 +4753,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4757,7 +4777,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4781,7 +4801,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4805,7 +4825,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4829,7 +4849,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4853,7 +4873,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4877,7 +4897,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4901,7 +4921,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4925,7 +4945,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4949,7 +4969,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4973,7 +4993,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4997,7 +5017,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5021,7 +5041,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5045,7 +5065,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5069,7 +5089,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5093,7 +5113,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5117,7 +5137,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5141,7 +5161,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5165,7 +5185,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5189,7 +5209,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5213,7 +5233,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5237,7 +5257,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5261,7 +5281,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5285,7 +5305,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5309,7 +5329,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5333,7 +5353,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5357,7 +5377,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5381,7 +5401,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5405,7 +5425,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5429,7 +5449,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5453,7 +5473,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5477,7 +5497,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5501,7 +5521,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5525,7 +5545,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5549,7 +5569,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5573,7 +5593,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5597,7 +5617,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5621,7 +5641,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5645,7 +5665,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5669,7 +5689,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5693,7 +5713,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5717,7 +5737,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5741,7 +5761,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5765,7 +5785,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5789,7 +5809,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5813,7 +5833,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5837,7 +5857,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5861,7 +5881,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5885,7 +5905,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5909,7 +5929,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5933,7 +5953,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5957,7 +5977,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5981,7 +6001,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6005,7 +6025,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6029,7 +6049,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6053,7 +6073,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6077,7 +6097,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6101,7 +6121,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6125,7 +6145,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6149,7 +6169,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6173,7 +6193,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6197,7 +6217,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6221,7 +6241,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6245,7 +6265,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6269,7 +6289,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6293,7 +6313,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6317,7 +6337,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6341,7 +6361,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6365,7 +6385,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6389,7 +6409,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6413,7 +6433,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6437,7 +6457,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6461,7 +6481,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6485,7 +6505,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6509,7 +6529,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6533,7 +6553,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6557,7 +6577,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6581,7 +6601,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6605,7 +6625,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6629,7 +6649,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6653,7 +6673,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6677,7 +6697,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6701,7 +6721,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6725,7 +6745,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6749,7 +6769,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6773,7 +6793,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6797,7 +6817,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6821,7 +6841,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6845,7 +6865,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6869,7 +6889,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6893,7 +6913,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6917,7 +6937,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6941,7 +6961,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6965,7 +6985,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6989,7 +7009,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7013,7 +7033,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7037,7 +7057,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7061,7 +7081,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7085,7 +7105,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7109,7 +7129,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7133,7 +7153,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7157,7 +7177,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7181,7 +7201,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7205,7 +7225,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7229,7 +7249,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7253,7 +7273,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7277,7 +7297,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7301,7 +7321,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7325,7 +7345,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7349,7 +7369,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7373,7 +7393,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7397,7 +7417,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7421,7 +7441,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7445,7 +7465,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7469,7 +7489,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7493,7 +7513,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7517,7 +7537,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7541,7 +7561,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7565,7 +7585,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7589,7 +7609,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7613,7 +7633,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7637,7 +7657,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7661,7 +7681,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7685,7 +7705,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7709,7 +7729,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7733,7 +7753,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7757,7 +7777,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7781,7 +7801,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7805,7 +7825,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7829,7 +7849,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7853,7 +7873,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7877,7 +7897,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7901,7 +7921,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7925,7 +7945,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7949,7 +7969,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7973,7 +7993,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -7997,7 +8017,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -8021,7 +8041,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -8045,7 +8065,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8069,7 +8089,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8093,7 +8113,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8117,7 +8137,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8141,7 +8161,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8165,7 +8185,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8189,7 +8209,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8213,7 +8233,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8237,7 +8257,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8261,7 +8281,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8285,7 +8305,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8309,7 +8329,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8333,7 +8353,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8357,7 +8377,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8381,7 +8401,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -8405,7 +8425,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -8429,7 +8449,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -8453,7 +8473,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8477,7 +8497,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -8501,7 +8521,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8525,7 +8545,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8549,7 +8569,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -8573,7 +8593,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8597,7 +8617,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8621,7 +8641,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -8645,7 +8665,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8669,7 +8689,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8693,7 +8713,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -8717,7 +8737,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8741,7 +8761,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8765,7 +8785,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -8789,7 +8809,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8813,7 +8833,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8837,7 +8857,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -8861,7 +8881,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8885,7 +8905,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8909,7 +8929,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -8933,7 +8953,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8957,7 +8977,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8981,7 +9001,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -9005,7 +9025,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -9029,7 +9049,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -9053,7 +9073,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9077,7 +9097,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9101,7 +9121,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9125,7 +9145,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9149,7 +9169,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9173,7 +9193,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9197,7 +9217,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9221,7 +9241,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9245,7 +9265,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9269,7 +9289,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9293,7 +9313,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9317,7 +9337,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9341,7 +9361,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9365,7 +9385,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -9389,7 +9409,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -9413,7 +9433,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -9437,7 +9457,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -9461,7 +9481,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -9485,7 +9505,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -9509,7 +9529,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -9533,7 +9553,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -9557,7 +9577,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -9581,7 +9601,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -9605,7 +9625,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -9629,7 +9649,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -9653,7 +9673,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -9677,7 +9697,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -9701,7 +9721,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -9725,7 +9745,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -9749,7 +9769,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9773,7 +9793,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -9797,7 +9817,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9821,7 +9841,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9845,7 +9865,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -9869,7 +9889,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9893,7 +9913,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9917,7 +9937,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -9941,7 +9961,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9965,7 +9985,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9989,7 +10009,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -10013,7 +10033,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -10037,7 +10057,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -10061,7 +10081,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10085,7 +10105,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10109,7 +10129,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10133,7 +10153,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10157,7 +10177,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10181,7 +10201,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10205,7 +10225,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10229,7 +10249,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10253,7 +10273,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10277,7 +10297,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10301,7 +10321,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10325,7 +10345,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10349,7 +10369,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10373,7 +10393,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -10397,7 +10417,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -10421,7 +10441,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -10445,7 +10465,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -10469,7 +10489,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -10493,7 +10513,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -10517,7 +10537,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -10541,7 +10561,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -10565,7 +10585,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -10589,7 +10609,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -10613,7 +10633,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -10637,7 +10657,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -10661,7 +10681,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -10685,7 +10705,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -10709,7 +10729,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -10733,7 +10753,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -10757,7 +10777,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -10781,7 +10801,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -10805,7 +10825,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -10829,7 +10849,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -10853,7 +10873,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -10877,7 +10897,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -10901,7 +10921,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -10925,7 +10945,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -10949,7 +10969,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -10973,7 +10993,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -10997,7 +11017,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -11021,7 +11041,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -11045,7 +11065,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11069,7 +11089,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11093,7 +11113,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11117,7 +11137,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11141,7 +11161,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11165,7 +11185,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11189,7 +11209,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11213,7 +11233,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11237,7 +11257,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11261,7 +11281,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11285,7 +11305,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11309,7 +11329,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11333,7 +11353,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11357,7 +11377,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11381,7 +11401,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -11405,7 +11425,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -11429,7 +11449,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -11453,7 +11473,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -11477,7 +11497,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -11501,7 +11521,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -11525,7 +11545,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -11549,7 +11569,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -11573,7 +11593,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -11597,7 +11617,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -11621,7 +11641,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -11645,7 +11665,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -11669,7 +11689,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -11693,7 +11713,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -11717,7 +11737,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -11741,7 +11761,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -11765,7 +11785,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -11789,7 +11809,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -11813,7 +11833,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11837,7 +11857,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -11861,7 +11881,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -11885,7 +11905,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -11909,7 +11929,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -11933,7 +11953,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -11957,7 +11977,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -11981,7 +12001,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -12005,7 +12025,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -12029,7 +12049,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -12053,7 +12073,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12077,7 +12097,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12101,7 +12121,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12125,7 +12145,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12149,7 +12169,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12173,7 +12193,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12197,7 +12217,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12221,7 +12241,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12245,7 +12265,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12269,7 +12289,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12293,7 +12313,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12317,7 +12337,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12341,7 +12361,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12365,7 +12385,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -12389,7 +12409,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -12413,7 +12433,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -12437,7 +12457,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -12461,7 +12481,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -12485,7 +12505,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -12509,7 +12529,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -12533,7 +12553,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -12557,7 +12577,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -12581,7 +12601,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -12605,7 +12625,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -12629,7 +12649,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -12653,7 +12673,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -12677,7 +12697,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -12701,7 +12721,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -12725,7 +12745,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -12749,7 +12769,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -12773,7 +12793,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -12797,7 +12817,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -12821,7 +12841,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -12845,7 +12865,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -12869,7 +12889,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -12893,7 +12913,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -12917,7 +12937,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -12941,7 +12961,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -12965,7 +12985,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -12989,7 +13009,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -13013,7 +13033,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -13037,7 +13057,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -13061,7 +13081,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13085,7 +13105,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13109,7 +13129,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13133,7 +13153,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13157,7 +13177,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13181,7 +13201,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13205,7 +13225,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13229,7 +13249,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13253,7 +13273,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13277,7 +13297,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13301,7 +13321,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13325,7 +13345,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13349,7 +13369,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13373,7 +13393,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -13397,7 +13417,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -13421,7 +13441,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -13445,7 +13465,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -13469,7 +13489,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -13493,7 +13513,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -13517,7 +13537,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -13541,7 +13561,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -13565,7 +13585,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -13589,7 +13609,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -13613,7 +13633,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -13637,7 +13657,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -13661,7 +13681,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -13685,7 +13705,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -13709,7 +13729,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -13733,7 +13753,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -13757,7 +13777,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -13781,7 +13801,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -13805,7 +13825,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -13829,7 +13849,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -13853,7 +13873,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -13877,7 +13897,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -13901,7 +13921,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -13925,7 +13945,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -13949,7 +13969,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -13973,7 +13993,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -13997,7 +14017,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -14021,7 +14041,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -14045,7 +14065,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14069,7 +14089,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14093,7 +14113,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14117,7 +14137,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14141,7 +14161,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14165,7 +14185,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14189,7 +14209,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14213,7 +14233,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14237,7 +14257,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14261,7 +14281,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14285,7 +14305,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14309,7 +14329,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14333,7 +14353,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14357,7 +14377,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14381,7 +14401,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -14405,7 +14425,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -14429,7 +14449,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -14453,7 +14473,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -14477,7 +14497,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -14501,7 +14521,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -14525,7 +14545,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -14549,7 +14569,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -14573,7 +14593,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -14597,7 +14617,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -14621,7 +14641,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -14645,7 +14665,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -14669,7 +14689,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -14693,7 +14713,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -14717,7 +14737,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -14741,7 +14761,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -14765,7 +14785,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -14789,7 +14809,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -14813,7 +14833,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -14837,7 +14857,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -14861,7 +14881,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -14885,7 +14905,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -14909,7 +14929,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -14933,7 +14953,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -14957,7 +14977,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -14981,7 +15001,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -15005,7 +15025,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -15029,7 +15049,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -15053,7 +15073,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15077,7 +15097,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15101,7 +15121,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15125,7 +15145,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15149,7 +15169,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15173,7 +15193,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15197,7 +15217,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15221,7 +15241,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15245,7 +15265,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15269,7 +15289,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15293,7 +15313,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15317,7 +15337,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15341,7 +15361,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15365,7 +15385,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -15389,7 +15409,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -15413,7 +15433,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -15437,7 +15457,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -15461,7 +15481,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -15485,7 +15505,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -15509,7 +15529,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -15533,7 +15553,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -15557,7 +15577,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -15581,7 +15601,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -15605,7 +15625,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -15629,7 +15649,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -15653,7 +15673,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -15677,7 +15697,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -15701,7 +15721,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -15725,7 +15745,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -15749,7 +15769,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -15773,7 +15793,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -15797,7 +15817,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -15821,7 +15841,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -15845,7 +15865,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -15869,7 +15889,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -15893,7 +15913,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -15917,7 +15937,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -15941,7 +15961,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -15965,7 +15985,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -15989,7 +16009,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -16013,7 +16033,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -16037,7 +16057,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -16061,7 +16081,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16085,7 +16105,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16109,7 +16129,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16133,7 +16153,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16157,7 +16177,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16181,7 +16201,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16205,7 +16225,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16229,7 +16249,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16253,7 +16273,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16277,7 +16297,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16301,7 +16321,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16325,7 +16345,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16349,7 +16369,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16373,7 +16393,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -16397,7 +16417,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -16421,7 +16441,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -16445,7 +16465,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -16469,7 +16489,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -16493,7 +16513,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -16517,7 +16537,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -16541,7 +16561,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -16565,7 +16585,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -16589,7 +16609,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -16613,7 +16633,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -16637,7 +16657,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -16661,7 +16681,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -16685,7 +16705,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -16709,7 +16729,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -16733,7 +16753,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -16757,7 +16777,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -16781,7 +16801,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -16805,7 +16825,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -16829,7 +16849,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -16853,7 +16873,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -16877,7 +16897,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -16901,7 +16921,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -16925,7 +16945,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -16949,7 +16969,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -16973,7 +16993,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -16997,7 +17017,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -17021,7 +17041,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -17045,7 +17065,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17069,7 +17089,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17093,7 +17113,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17117,7 +17137,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17141,7 +17161,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17165,7 +17185,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17189,7 +17209,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17213,7 +17233,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17237,7 +17257,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17261,7 +17281,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17285,7 +17305,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17309,7 +17329,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17333,7 +17353,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17357,7 +17377,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17381,7 +17401,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -17405,7 +17425,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -17429,7 +17449,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -17453,7 +17473,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -17477,7 +17497,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -17501,7 +17521,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -17525,7 +17545,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -17549,7 +17569,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -17573,7 +17593,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -17597,7 +17617,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -17621,7 +17641,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -17645,7 +17665,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -17669,7 +17689,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -17693,7 +17713,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -17717,7 +17737,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -17741,7 +17761,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -17765,7 +17785,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -17789,7 +17809,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -17813,7 +17833,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -17837,7 +17857,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -17861,7 +17881,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -17885,7 +17905,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -17909,7 +17929,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -17933,7 +17953,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -17957,7 +17977,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -17981,7 +18001,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -18005,7 +18025,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -18029,7 +18049,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -18053,7 +18073,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18077,7 +18097,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18101,7 +18121,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18125,7 +18145,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18149,7 +18169,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18173,7 +18193,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18197,7 +18217,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18221,7 +18241,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18245,7 +18265,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18269,7 +18289,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18293,7 +18313,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18317,7 +18337,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18341,7 +18361,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18365,7 +18385,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -18389,7 +18409,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -18413,7 +18433,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -18437,7 +18457,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -18461,7 +18481,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -18485,7 +18505,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -18509,7 +18529,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -18533,7 +18553,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -18557,7 +18577,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -18581,7 +18601,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -18605,7 +18625,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -18629,7 +18649,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -18653,7 +18673,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -18677,7 +18697,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -18701,7 +18721,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -18725,7 +18745,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -18749,7 +18769,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -18773,7 +18793,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -18797,7 +18817,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -18821,7 +18841,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -18845,7 +18865,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -18869,7 +18889,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -18893,7 +18913,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -18917,7 +18937,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -18941,7 +18961,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -18965,7 +18985,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -18989,7 +19009,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -19013,7 +19033,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -19037,7 +19057,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -19061,7 +19081,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19085,7 +19105,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19109,7 +19129,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19133,7 +19153,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19157,7 +19177,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19181,7 +19201,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19205,7 +19225,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19229,7 +19249,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19253,7 +19273,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19277,7 +19297,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19301,7 +19321,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19325,7 +19345,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19349,7 +19369,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19373,7 +19393,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -19397,7 +19417,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -19421,7 +19441,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -19445,7 +19465,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -19469,7 +19489,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -19493,7 +19513,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -19517,7 +19537,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -19541,7 +19561,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -19565,7 +19585,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -19589,7 +19609,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -19613,7 +19633,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -19637,7 +19657,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -19661,7 +19681,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -19685,7 +19705,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -19709,7 +19729,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -19733,7 +19753,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -19757,7 +19777,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -19781,7 +19801,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -19805,7 +19825,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -19829,7 +19849,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -19853,7 +19873,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -19877,7 +19897,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -19901,7 +19921,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -19925,7 +19945,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -19949,7 +19969,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -19973,7 +19993,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -19997,7 +20017,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -20021,7 +20041,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -20045,7 +20065,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20069,7 +20089,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20093,7 +20113,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20117,7 +20137,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20141,7 +20161,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20165,7 +20185,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20189,7 +20209,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20213,7 +20233,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20237,7 +20257,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20261,7 +20281,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20285,7 +20305,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20309,7 +20329,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20333,7 +20353,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20357,7 +20377,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20381,7 +20401,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -20405,7 +20425,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -20429,7 +20449,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -20453,7 +20473,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -20477,7 +20497,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -20501,7 +20521,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -20525,7 +20545,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -20549,7 +20569,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -20573,7 +20593,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -20597,7 +20617,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -20621,7 +20641,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -20645,7 +20665,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -20669,7 +20689,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -20693,7 +20713,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -20717,7 +20737,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -20741,7 +20761,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -20765,7 +20785,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -20789,7 +20809,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -20813,7 +20833,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -20837,7 +20857,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -20861,7 +20881,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -20885,7 +20905,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -20909,7 +20929,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -20933,7 +20953,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -20957,7 +20977,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -20981,7 +21001,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -21005,7 +21025,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -21029,7 +21049,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -21053,7 +21073,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21077,7 +21097,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21101,7 +21121,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21125,7 +21145,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21149,7 +21169,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21173,7 +21193,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21197,7 +21217,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21221,7 +21241,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21245,7 +21265,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21269,7 +21289,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21293,7 +21313,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21317,7 +21337,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21341,7 +21361,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21365,7 +21385,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -21389,7 +21409,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -21413,7 +21433,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -21437,7 +21457,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -21461,7 +21481,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -21485,7 +21505,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -21509,7 +21529,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -21533,7 +21553,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -21557,7 +21577,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -21581,7 +21601,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -21605,7 +21625,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -21629,7 +21649,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -21653,7 +21673,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -21677,7 +21697,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -21701,7 +21721,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -21725,7 +21745,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -21749,7 +21769,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -21773,7 +21793,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -21797,7 +21817,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -21821,7 +21841,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -21845,7 +21865,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -21869,7 +21889,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -21893,7 +21913,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -21917,7 +21937,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -21941,7 +21961,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -21965,7 +21985,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -21989,7 +22009,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -22013,7 +22033,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -22037,7 +22057,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -22061,7 +22081,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22085,7 +22105,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22109,7 +22129,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22133,7 +22153,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22157,7 +22177,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22181,7 +22201,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22205,7 +22225,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22229,7 +22249,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22253,7 +22273,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22277,7 +22297,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22301,7 +22321,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22325,7 +22345,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22349,7 +22369,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22373,7 +22393,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -22397,7 +22417,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -22421,7 +22441,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -22445,7 +22465,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -22469,7 +22489,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -22493,7 +22513,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -22517,7 +22537,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -22541,7 +22561,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -22565,7 +22585,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -22589,7 +22609,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -22613,7 +22633,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -22637,7 +22657,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -22661,7 +22681,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -22685,7 +22705,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -22709,7 +22729,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -22733,7 +22753,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -22757,7 +22777,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -22781,7 +22801,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -22805,7 +22825,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -22829,7 +22849,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -22853,7 +22873,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -22877,7 +22897,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -22901,7 +22921,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -22925,7 +22945,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -22949,7 +22969,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -22973,7 +22993,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -22997,7 +23017,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -23021,7 +23041,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -23045,7 +23065,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23069,7 +23089,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23093,7 +23113,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23117,7 +23137,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23141,7 +23161,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23165,7 +23185,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23189,7 +23209,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23213,7 +23233,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23237,7 +23257,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23261,7 +23281,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23285,7 +23305,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23309,7 +23329,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23333,7 +23353,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23357,7 +23377,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23381,7 +23401,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -23405,7 +23425,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -23429,7 +23449,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -23453,7 +23473,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -23477,7 +23497,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -23501,7 +23521,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -23525,7 +23545,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -23549,7 +23569,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -23573,7 +23593,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -23597,7 +23617,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -23621,7 +23641,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -23645,7 +23665,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -23669,7 +23689,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -23693,7 +23713,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -23717,7 +23737,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -23741,7 +23761,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -23765,7 +23785,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -23789,7 +23809,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -23813,7 +23833,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -23837,7 +23857,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -23861,7 +23881,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -23885,7 +23905,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -23909,7 +23929,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -23933,7 +23953,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -23957,7 +23977,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -23981,7 +24001,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -24005,7 +24025,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -24029,7 +24049,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -24053,7 +24073,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24077,7 +24097,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24101,7 +24121,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24125,7 +24145,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24149,7 +24169,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24173,7 +24193,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24197,7 +24217,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24221,7 +24241,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24245,7 +24265,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24269,7 +24289,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24293,7 +24313,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
@@ -24316,7 +24336,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
@@ -24339,7 +24359,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD6A62-A82A-4DF4-B668-381B169EA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,7 +435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
@@ -451,10 +445,10 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K11"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="103.44140625" customWidth="1"/>
@@ -472,7 +466,7 @@
     <col min="15" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.4">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -526,7 +520,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.4">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -543,7 +537,9 @@
       <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -566,7 +562,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14.4">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -583,7 +579,9 @@
       <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -606,7 +604,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -623,7 +621,9 @@
       <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -646,7 +646,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14.4">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -663,7 +663,9 @@
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -686,7 +688,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="14.4">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -703,7 +705,9 @@
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -726,7 +730,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14.4">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -743,7 +747,9 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -766,7 +772,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -783,7 +789,9 @@
       <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -806,7 +814,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -821,7 +829,9 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -844,7 +854,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="18" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -859,7 +869,9 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -882,7 +894,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -920,7 +932,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -952,7 +964,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -978,7 +990,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -1004,7 +1016,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1030,7 +1042,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1056,7 +1068,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -1082,7 +1094,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1108,7 +1120,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1134,7 +1146,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1160,7 +1172,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -1186,7 +1198,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1212,7 +1224,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1238,7 +1250,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1264,7 +1276,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1290,7 +1302,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1316,7 +1328,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1342,7 +1354,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1368,7 +1380,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1394,7 +1406,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1420,7 +1432,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1446,7 +1458,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1472,7 +1484,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1498,7 +1510,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1524,7 +1536,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1548,7 +1560,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1572,7 +1584,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1596,7 +1608,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1620,7 +1632,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1644,7 +1656,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1668,7 +1680,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1692,7 +1704,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1716,7 +1728,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1740,7 +1752,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1764,7 +1776,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1788,7 +1800,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1812,7 +1824,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1836,7 +1848,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1860,7 +1872,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:24" ht="15.75" customHeight="1">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1884,7 +1896,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:24" ht="15.75" customHeight="1">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1908,7 +1920,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:24" ht="15.75" customHeight="1">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1932,7 +1944,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:24" ht="15.75" customHeight="1">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1956,7 +1968,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:24" ht="15.75" customHeight="1">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1980,7 +1992,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:24" ht="15.75" customHeight="1">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2004,7 +2016,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:24" ht="15.75" customHeight="1">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2028,7 +2040,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:24" ht="15.75" customHeight="1">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2052,7 +2064,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:24" ht="15.75" customHeight="1">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2076,7 +2088,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:24" ht="15.75" customHeight="1">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2100,7 +2112,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:24" ht="15.75" customHeight="1">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2124,7 +2136,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:24" ht="15.75" customHeight="1">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2148,7 +2160,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:24" ht="15.75" customHeight="1">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2172,7 +2184,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:24" ht="15.75" customHeight="1">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2196,7 +2208,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:24" ht="15.75" customHeight="1">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2220,7 +2232,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:24" ht="15.75" customHeight="1">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2244,7 +2256,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:24" ht="15.75" customHeight="1">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2268,7 +2280,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:24" ht="15.75" customHeight="1">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2292,7 +2304,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:24" ht="15.75" customHeight="1">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2316,7 +2328,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:24" ht="15.75" customHeight="1">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2340,7 +2352,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:24" ht="15.75" customHeight="1">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2364,7 +2376,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:24" ht="15.75" customHeight="1">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2388,7 +2400,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:24" ht="15.75" customHeight="1">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2412,7 +2424,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:24" ht="15.75" customHeight="1">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2436,7 +2448,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:24" ht="15.75" customHeight="1">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2460,7 +2472,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:24" ht="15.75" customHeight="1">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2484,7 +2496,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:24" ht="15.75" customHeight="1">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2508,7 +2520,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:24" ht="15.75" customHeight="1">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2532,7 +2544,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:24" ht="15.75" customHeight="1">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2556,7 +2568,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:24" ht="15.75" customHeight="1">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2580,7 +2592,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:24" ht="15.75" customHeight="1">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2604,7 +2616,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:24" ht="15.75" customHeight="1">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2628,7 +2640,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:24" ht="15.75" customHeight="1">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2652,7 +2664,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:24" ht="15.75" customHeight="1">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2676,7 +2688,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:24" ht="15.75" customHeight="1">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2700,7 +2712,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:24" ht="15.75" customHeight="1">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2724,7 +2736,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:24" ht="15.75" customHeight="1">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2748,7 +2760,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:24" ht="15.75" customHeight="1">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2772,7 +2784,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:24" ht="15.75" customHeight="1">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2796,7 +2808,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:24" ht="15.75" customHeight="1">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2820,7 +2832,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:24" ht="15.75" customHeight="1">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2844,7 +2856,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:24" ht="15.75" customHeight="1">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2868,7 +2880,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" ht="15.75" customHeight="1">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2892,7 +2904,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:24" ht="15.75" customHeight="1">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2916,7 +2928,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:24" ht="15.75" customHeight="1">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -2940,7 +2952,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:24" ht="15.75" customHeight="1">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -2964,7 +2976,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:24" ht="15.75" customHeight="1">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -2988,7 +3000,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:24" ht="15.75" customHeight="1">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3012,7 +3024,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:24" ht="15.75" customHeight="1">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3036,7 +3048,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:24" ht="15.75" customHeight="1">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3060,7 +3072,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:24" ht="15.75" customHeight="1">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3084,7 +3096,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:24" ht="15.75" customHeight="1">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3108,7 +3120,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:24" ht="15.75" customHeight="1">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3132,7 +3144,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:24" ht="15.75" customHeight="1">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3156,7 +3168,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:24" ht="15.75" customHeight="1">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3180,7 +3192,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:24" ht="15.75" customHeight="1">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3204,7 +3216,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:24" ht="15.75" customHeight="1">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3228,7 +3240,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:24" ht="15.75" customHeight="1">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3252,7 +3264,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:24" ht="15.75" customHeight="1">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3276,7 +3288,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:24" ht="15.75" customHeight="1">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3300,7 +3312,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:24" ht="15.75" customHeight="1">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3324,7 +3336,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:24" ht="15.75" customHeight="1">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3348,7 +3360,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:24" ht="15.75" customHeight="1">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3372,7 +3384,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:24" ht="15.75" customHeight="1">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3396,7 +3408,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:24" ht="15.75" customHeight="1">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3420,7 +3432,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:24" ht="15.75" customHeight="1">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3444,7 +3456,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:24" ht="15.75" customHeight="1">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3468,7 +3480,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:24" ht="15.75" customHeight="1">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3492,7 +3504,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:24" ht="15.75" customHeight="1">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3516,7 +3528,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:24" ht="15.75" customHeight="1">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3540,7 +3552,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:24" ht="15.75" customHeight="1">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3564,7 +3576,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:24" ht="15.75" customHeight="1">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3588,7 +3600,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:24" ht="15.75" customHeight="1">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3612,7 +3624,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:24" ht="15.75" customHeight="1">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3636,7 +3648,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:24" ht="15.75" customHeight="1">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3660,7 +3672,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:24" ht="15.75" customHeight="1">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3684,7 +3696,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:24" ht="15.75" customHeight="1">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3708,7 +3720,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:24" ht="15.75" customHeight="1">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3732,7 +3744,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:24" ht="15.75" customHeight="1">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -3756,7 +3768,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:24" ht="15.75" customHeight="1">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3780,7 +3792,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:24" ht="15.75" customHeight="1">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3804,7 +3816,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:24" ht="15.75" customHeight="1">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3828,7 +3840,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:24" ht="15.75" customHeight="1">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3852,7 +3864,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:24" ht="15.75" customHeight="1">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3876,7 +3888,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:24" ht="15.75" customHeight="1">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3900,7 +3912,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:24" ht="15.75" customHeight="1">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3924,7 +3936,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:24" ht="15.75" customHeight="1">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3948,7 +3960,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:24" ht="15.75" customHeight="1">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3972,7 +3984,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:24" ht="15.75" customHeight="1">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3996,7 +4008,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:24" ht="15.75" customHeight="1">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4020,7 +4032,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:24" ht="15.75" customHeight="1">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4044,7 +4056,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:24" ht="15.75" customHeight="1">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4068,7 +4080,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:24" ht="15.75" customHeight="1">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4092,7 +4104,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:24" ht="15.75" customHeight="1">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4116,7 +4128,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:24" ht="15.75" customHeight="1">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4140,7 +4152,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:24" ht="15.75" customHeight="1">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4164,7 +4176,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:24" ht="15.75" customHeight="1">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4188,7 +4200,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:24" ht="15.75" customHeight="1">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4212,7 +4224,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:24" ht="15.75" customHeight="1">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4236,7 +4248,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:24" ht="15.75" customHeight="1">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4260,7 +4272,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:24" ht="15.75" customHeight="1">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4284,7 +4296,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:24" ht="15.75" customHeight="1">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4308,7 +4320,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:24" ht="15.75" customHeight="1">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4332,7 +4344,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:24" ht="15.75" customHeight="1">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4356,7 +4368,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:24" ht="15.75" customHeight="1">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4380,7 +4392,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:24" ht="15.75" customHeight="1">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4404,7 +4416,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:24" ht="15.75" customHeight="1">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4428,7 +4440,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:24" ht="15.75" customHeight="1">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4452,7 +4464,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:24" ht="15.75" customHeight="1">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4476,7 +4488,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:24" ht="15.75" customHeight="1">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4500,7 +4512,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:24" ht="15.75" customHeight="1">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4524,7 +4536,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:24" ht="15.75" customHeight="1">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4548,7 +4560,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:24" ht="15.75" customHeight="1">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4572,7 +4584,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:24" ht="15.75" customHeight="1">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4596,7 +4608,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:24" ht="15.75" customHeight="1">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4620,7 +4632,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:24" ht="15.75" customHeight="1">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4644,7 +4656,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:24" ht="15.75" customHeight="1">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4668,7 +4680,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:24" ht="15.75" customHeight="1">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4692,7 +4704,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:24" ht="15.75" customHeight="1">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4716,7 +4728,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:24" ht="15.75" customHeight="1">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4740,7 +4752,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:24" ht="15.75" customHeight="1">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4764,7 +4776,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:24" ht="15.75" customHeight="1">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4788,7 +4800,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:24" ht="15.75" customHeight="1">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4812,7 +4824,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:24" ht="15.75" customHeight="1">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4836,7 +4848,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:24" ht="15.75" customHeight="1">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4860,7 +4872,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:24" ht="15.75" customHeight="1">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4884,7 +4896,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:24" ht="15.75" customHeight="1">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4908,7 +4920,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:24" ht="15.75" customHeight="1">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4932,7 +4944,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:24" ht="15.75" customHeight="1">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4956,7 +4968,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:24" ht="15.75" customHeight="1">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4980,7 +4992,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:24" ht="15.75" customHeight="1">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5004,7 +5016,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:24" ht="15.75" customHeight="1">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5028,7 +5040,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:24" ht="15.75" customHeight="1">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5052,7 +5064,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:24" ht="15.75" customHeight="1">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5076,7 +5088,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:24" ht="15.75" customHeight="1">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5100,7 +5112,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:24" ht="15.75" customHeight="1">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5124,7 +5136,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:24" ht="15.75" customHeight="1">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5148,7 +5160,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:24" ht="15.75" customHeight="1">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5172,7 +5184,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:24" ht="15.75" customHeight="1">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5196,7 +5208,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:24" ht="15.75" customHeight="1">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5220,7 +5232,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:24" ht="15.75" customHeight="1">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5244,7 +5256,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:24" ht="15.75" customHeight="1">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5268,7 +5280,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:24" ht="15.75" customHeight="1">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5292,7 +5304,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:24" ht="15.75" customHeight="1">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5316,7 +5328,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:24" ht="15.75" customHeight="1">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5340,7 +5352,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:24" ht="15.75" customHeight="1">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5364,7 +5376,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:24" ht="15.75" customHeight="1">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5388,7 +5400,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:24" ht="15.75" customHeight="1">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5412,7 +5424,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:24" ht="15.75" customHeight="1">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5436,7 +5448,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:24" ht="15.75" customHeight="1">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5460,7 +5472,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:24" ht="15.75" customHeight="1">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5484,7 +5496,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:24" ht="15.75" customHeight="1">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5508,7 +5520,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:24" ht="15.75" customHeight="1">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5532,7 +5544,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:24" ht="15.75" customHeight="1">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5556,7 +5568,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:24" ht="15.75" customHeight="1">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5580,7 +5592,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:24" ht="15.75" customHeight="1">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5604,7 +5616,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:24" ht="15.75" customHeight="1">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5628,7 +5640,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:24" ht="15.75" customHeight="1">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5652,7 +5664,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:24" ht="15.75" customHeight="1">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5676,7 +5688,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:24" ht="15.75" customHeight="1">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5700,7 +5712,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:24" ht="15.75" customHeight="1">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5724,7 +5736,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:24" ht="15.75" customHeight="1">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5748,7 +5760,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:24" ht="15.75" customHeight="1">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5772,7 +5784,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:24" ht="15.75" customHeight="1">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5796,7 +5808,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:24" ht="15.75" customHeight="1">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5820,7 +5832,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:24" ht="15.75" customHeight="1">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5844,7 +5856,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:24" ht="15.75" customHeight="1">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5868,7 +5880,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:24" ht="15.75" customHeight="1">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5892,7 +5904,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:24" ht="15.75" customHeight="1">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5916,7 +5928,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:24" ht="15.75" customHeight="1">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5940,7 +5952,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:24" ht="15.75" customHeight="1">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5964,7 +5976,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:24" ht="15.75" customHeight="1">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5988,7 +6000,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:24" ht="15.75" customHeight="1">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6012,7 +6024,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:24" ht="15.75" customHeight="1">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6036,7 +6048,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:24" ht="15.75" customHeight="1">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6060,7 +6072,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:24" ht="15.75" customHeight="1">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6084,7 +6096,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:24" ht="15.75" customHeight="1">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6108,7 +6120,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:24" ht="15.75" customHeight="1">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6132,7 +6144,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:24" ht="15.75" customHeight="1">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6156,7 +6168,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:24" ht="15.75" customHeight="1">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6180,7 +6192,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:24" ht="15.75" customHeight="1">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6204,7 +6216,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:24" ht="15.75" customHeight="1">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6228,7 +6240,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:24" ht="15.75" customHeight="1">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6252,7 +6264,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:24" ht="15.75" customHeight="1">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6276,7 +6288,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:24" ht="15.75" customHeight="1">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6300,7 +6312,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:24" ht="15.75" customHeight="1">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6324,7 +6336,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:24" ht="15.75" customHeight="1">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6348,7 +6360,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:24" ht="15.75" customHeight="1">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6372,7 +6384,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:24" ht="15.75" customHeight="1">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6396,7 +6408,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:24" ht="15.75" customHeight="1">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6420,7 +6432,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:24" ht="15.75" customHeight="1">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6444,7 +6456,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:24" ht="15.75" customHeight="1">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6468,7 +6480,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:24" ht="15.75" customHeight="1">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6492,7 +6504,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:24" ht="15.75" customHeight="1">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6516,7 +6528,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:24" ht="15.75" customHeight="1">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6540,7 +6552,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:24" ht="15.75" customHeight="1">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6564,7 +6576,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:24" ht="15.75" customHeight="1">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6588,7 +6600,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:24" ht="15.75" customHeight="1">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6612,7 +6624,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:24" ht="15.75" customHeight="1">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6636,7 +6648,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:24" ht="15.75" customHeight="1">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6660,7 +6672,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:24" ht="15.75" customHeight="1">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6684,7 +6696,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:24" ht="15.75" customHeight="1">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6708,7 +6720,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:24" ht="15.75" customHeight="1">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6732,7 +6744,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:24" ht="15.75" customHeight="1">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6756,7 +6768,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:24" ht="15.75" customHeight="1">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6780,7 +6792,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:24" ht="15.75" customHeight="1">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6804,7 +6816,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:24" ht="15.75" customHeight="1">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6828,7 +6840,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:24" ht="15.75" customHeight="1">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6852,7 +6864,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:24" ht="15.75" customHeight="1">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6876,7 +6888,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:24" ht="15.75" customHeight="1">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6900,7 +6912,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:24" ht="15.75" customHeight="1">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6924,7 +6936,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:24" ht="15.75" customHeight="1">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6948,7 +6960,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:24" ht="15.75" customHeight="1">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6972,7 +6984,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:24" ht="15.75" customHeight="1">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6996,7 +7008,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:24" ht="15.75" customHeight="1">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7020,7 +7032,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:24" ht="15.75" customHeight="1">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7044,7 +7056,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:24" ht="15.75" customHeight="1">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7068,7 +7080,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:24" ht="15.75" customHeight="1">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7092,7 +7104,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:24" ht="15.75" customHeight="1">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7116,7 +7128,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:24" ht="15.75" customHeight="1">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7140,7 +7152,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:24" ht="15.75" customHeight="1">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7164,7 +7176,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:24" ht="15.75" customHeight="1">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7188,7 +7200,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:24" ht="15.75" customHeight="1">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7212,7 +7224,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:24" ht="15.75" customHeight="1">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7236,7 +7248,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:24" ht="15.75" customHeight="1">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7260,7 +7272,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:24" ht="15.75" customHeight="1">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7284,7 +7296,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:24" ht="15.75" customHeight="1">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7308,7 +7320,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:24" ht="15.75" customHeight="1">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7332,7 +7344,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:24" ht="15.75" customHeight="1">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7356,7 +7368,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:24" ht="15.75" customHeight="1">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7380,7 +7392,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:24" ht="15.75" customHeight="1">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7404,7 +7416,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:24" ht="15.75" customHeight="1">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7428,7 +7440,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:24" ht="15.75" customHeight="1">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7452,7 +7464,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:24" ht="15.75" customHeight="1">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7476,7 +7488,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:24" ht="15.75" customHeight="1">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7500,7 +7512,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:24" ht="15.75" customHeight="1">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7524,7 +7536,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:24" ht="15.75" customHeight="1">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7548,7 +7560,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:24" ht="15.75" customHeight="1">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7572,7 +7584,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:24" ht="15.75" customHeight="1">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7596,7 +7608,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:24" ht="15.75" customHeight="1">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7620,7 +7632,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:24" ht="15.75" customHeight="1">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7644,7 +7656,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:24" ht="15.75" customHeight="1">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7668,7 +7680,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:24" ht="15.75" customHeight="1">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7692,7 +7704,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:24" ht="15.75" customHeight="1">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7716,7 +7728,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:24" ht="15.75" customHeight="1">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7740,7 +7752,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:24" ht="15.75" customHeight="1">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7764,7 +7776,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:24" ht="15.75" customHeight="1">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7788,7 +7800,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:24" ht="15.75" customHeight="1">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7812,7 +7824,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:24" ht="15.75" customHeight="1">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7836,7 +7848,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:24" ht="15.75" customHeight="1">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7860,7 +7872,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:24" ht="15.75" customHeight="1">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7884,7 +7896,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:24" ht="15.75" customHeight="1">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7908,7 +7920,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:24" ht="15.75" customHeight="1">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7932,7 +7944,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:24" ht="15.75" customHeight="1">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7956,7 +7968,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:24" ht="15.75" customHeight="1">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -7980,7 +7992,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:24" ht="15.75" customHeight="1">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -8004,7 +8016,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:24" ht="15.75" customHeight="1">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -8028,7 +8040,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:24" ht="15.75" customHeight="1">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8052,7 +8064,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:24" ht="15.75" customHeight="1">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8076,7 +8088,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:24" ht="15.75" customHeight="1">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8100,7 +8112,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:24" ht="15.75" customHeight="1">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8124,7 +8136,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:24" ht="15.75" customHeight="1">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8148,7 +8160,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:24" ht="15.75" customHeight="1">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8172,7 +8184,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:24" ht="15.75" customHeight="1">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8196,7 +8208,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:24" ht="15.75" customHeight="1">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8220,7 +8232,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:24" ht="15.75" customHeight="1">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8244,7 +8256,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:24" ht="15.75" customHeight="1">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8268,7 +8280,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:24" ht="15.75" customHeight="1">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8292,7 +8304,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:24" ht="15.75" customHeight="1">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8316,7 +8328,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:24" ht="15.75" customHeight="1">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8340,7 +8352,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:24" ht="15.75" customHeight="1">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8364,7 +8376,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:24" ht="15.75" customHeight="1">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -8388,7 +8400,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:24" ht="15.75" customHeight="1">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -8412,7 +8424,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:24" ht="15.75" customHeight="1">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -8436,7 +8448,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:24" ht="15.75" customHeight="1">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8460,7 +8472,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:24" ht="15.75" customHeight="1">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -8484,7 +8496,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:24" ht="15.75" customHeight="1">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8508,7 +8520,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:24" ht="15.75" customHeight="1">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8532,7 +8544,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:24" ht="15.75" customHeight="1">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -8556,7 +8568,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:24" ht="15.75" customHeight="1">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8580,7 +8592,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:24" ht="15.75" customHeight="1">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8604,7 +8616,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:24" ht="15.75" customHeight="1">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -8628,7 +8640,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:24" ht="15.75" customHeight="1">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8652,7 +8664,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:24" ht="15.75" customHeight="1">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8676,7 +8688,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:24" ht="15.75" customHeight="1">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -8700,7 +8712,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:24" ht="15.75" customHeight="1">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8724,7 +8736,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:24" ht="15.75" customHeight="1">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8748,7 +8760,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:24" ht="15.75" customHeight="1">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -8772,7 +8784,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:24" ht="15.75" customHeight="1">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8796,7 +8808,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:24" ht="15.75" customHeight="1">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8820,7 +8832,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:24" ht="15.75" customHeight="1">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -8844,7 +8856,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:24" ht="15.75" customHeight="1">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8868,7 +8880,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:24" ht="15.75" customHeight="1">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8892,7 +8904,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:24" ht="15.75" customHeight="1">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -8916,7 +8928,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:24" ht="15.75" customHeight="1">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8940,7 +8952,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:24" ht="15.75" customHeight="1">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8964,7 +8976,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:24" ht="15.75" customHeight="1">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -8988,7 +9000,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:24" ht="15.75" customHeight="1">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -9012,7 +9024,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:24" ht="15.75" customHeight="1">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -9036,7 +9048,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:24" ht="15.75" customHeight="1">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9060,7 +9072,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:24" ht="15.75" customHeight="1">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9084,7 +9096,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:24" ht="15.75" customHeight="1">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9108,7 +9120,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:24" ht="15.75" customHeight="1">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9132,7 +9144,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:24" ht="15.75" customHeight="1">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9156,7 +9168,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:24" ht="15.75" customHeight="1">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9180,7 +9192,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:24" ht="15.75" customHeight="1">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9204,7 +9216,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:24" ht="15.75" customHeight="1">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9228,7 +9240,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:24" ht="15.75" customHeight="1">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9252,7 +9264,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:24" ht="15.75" customHeight="1">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9276,7 +9288,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:24" ht="15.75" customHeight="1">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9300,7 +9312,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:24" ht="15.75" customHeight="1">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9324,7 +9336,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:24" ht="15.75" customHeight="1">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9348,7 +9360,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:24" ht="15.75" customHeight="1">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -9372,7 +9384,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:24" ht="15.75" customHeight="1">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -9396,7 +9408,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:24" ht="15.75" customHeight="1">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -9420,7 +9432,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:24" ht="15.75" customHeight="1">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -9444,7 +9456,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:24" ht="15.75" customHeight="1">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -9468,7 +9480,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:24" ht="15.75" customHeight="1">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -9492,7 +9504,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:24" ht="15.75" customHeight="1">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -9516,7 +9528,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:24" ht="15.75" customHeight="1">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -9540,7 +9552,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:24" ht="15.75" customHeight="1">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -9564,7 +9576,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:24" ht="15.75" customHeight="1">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -9588,7 +9600,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:24" ht="15.75" customHeight="1">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -9612,7 +9624,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:24" ht="15.75" customHeight="1">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -9636,7 +9648,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:24" ht="15.75" customHeight="1">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -9660,7 +9672,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:24" ht="15.75" customHeight="1">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -9684,7 +9696,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:24" ht="15.75" customHeight="1">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -9708,7 +9720,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:24" ht="15.75" customHeight="1">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -9732,7 +9744,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:24" ht="15.75" customHeight="1">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9756,7 +9768,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:24" ht="15.75" customHeight="1">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -9780,7 +9792,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:24" ht="15.75" customHeight="1">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9804,7 +9816,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:24" ht="15.75" customHeight="1">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9828,7 +9840,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:24" ht="15.75" customHeight="1">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -9852,7 +9864,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:24" ht="15.75" customHeight="1">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9876,7 +9888,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:24" ht="15.75" customHeight="1">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9900,7 +9912,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:24" ht="15.75" customHeight="1">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -9924,7 +9936,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:24" ht="15.75" customHeight="1">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9948,7 +9960,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:24" ht="15.75" customHeight="1">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9972,7 +9984,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:24" ht="15.75" customHeight="1">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -9996,7 +10008,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:24" ht="15.75" customHeight="1">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -10020,7 +10032,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:24" ht="15.75" customHeight="1">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -10044,7 +10056,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:24" ht="15.75" customHeight="1">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10068,7 +10080,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:24" ht="15.75" customHeight="1">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10092,7 +10104,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:24" ht="15.75" customHeight="1">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10116,7 +10128,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:24" ht="15.75" customHeight="1">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10140,7 +10152,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:24" ht="15.75" customHeight="1">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10164,7 +10176,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:24" ht="15.75" customHeight="1">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10188,7 +10200,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:24" ht="15.75" customHeight="1">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10212,7 +10224,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:24" ht="15.75" customHeight="1">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10236,7 +10248,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:24" ht="15.75" customHeight="1">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10260,7 +10272,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:24" ht="15.75" customHeight="1">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10284,7 +10296,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:24" ht="15.75" customHeight="1">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10308,7 +10320,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:24" ht="15.75" customHeight="1">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10332,7 +10344,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:24" ht="15.75" customHeight="1">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10356,7 +10368,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:24" ht="15.75" customHeight="1">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -10380,7 +10392,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:24" ht="15.75" customHeight="1">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -10404,7 +10416,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:24" ht="15.75" customHeight="1">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -10428,7 +10440,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:24" ht="15.75" customHeight="1">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -10452,7 +10464,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:24" ht="15.75" customHeight="1">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -10476,7 +10488,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:24" ht="15.75" customHeight="1">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -10500,7 +10512,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:24" ht="15.75" customHeight="1">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -10524,7 +10536,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:24" ht="15.75" customHeight="1">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -10548,7 +10560,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:24" ht="15.75" customHeight="1">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -10572,7 +10584,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:24" ht="15.75" customHeight="1">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -10596,7 +10608,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:24" ht="15.75" customHeight="1">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -10620,7 +10632,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:24" ht="15.75" customHeight="1">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -10644,7 +10656,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:24" ht="15.75" customHeight="1">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -10668,7 +10680,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:24" ht="15.75" customHeight="1">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -10692,7 +10704,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:24" ht="15.75" customHeight="1">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -10716,7 +10728,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:24" ht="15.75" customHeight="1">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -10740,7 +10752,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:24" ht="15.75" customHeight="1">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -10764,7 +10776,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:24" ht="15.75" customHeight="1">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -10788,7 +10800,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:24" ht="15.75" customHeight="1">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -10812,7 +10824,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:24" ht="15.75" customHeight="1">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -10836,7 +10848,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:24" ht="15.75" customHeight="1">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -10860,7 +10872,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:24" ht="15.75" customHeight="1">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -10884,7 +10896,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:24" ht="15.75" customHeight="1">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -10908,7 +10920,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:24" ht="15.75" customHeight="1">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -10932,7 +10944,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:24" ht="15.75" customHeight="1">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -10956,7 +10968,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:24" ht="15.75" customHeight="1">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -10980,7 +10992,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:24" ht="15.75" customHeight="1">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -11004,7 +11016,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:24" ht="15.75" customHeight="1">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -11028,7 +11040,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:24" ht="15.75" customHeight="1">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11052,7 +11064,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:24" ht="15.75" customHeight="1">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11076,7 +11088,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:24" ht="15.75" customHeight="1">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11100,7 +11112,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:24" ht="15.75" customHeight="1">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11124,7 +11136,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:24" ht="15.75" customHeight="1">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11148,7 +11160,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:24" ht="15.75" customHeight="1">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11172,7 +11184,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:24" ht="15.75" customHeight="1">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11196,7 +11208,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:24" ht="15.75" customHeight="1">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11220,7 +11232,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:24" ht="15.75" customHeight="1">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11244,7 +11256,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:24" ht="15.75" customHeight="1">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11268,7 +11280,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:24" ht="15.75" customHeight="1">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11292,7 +11304,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:24" ht="15.75" customHeight="1">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11316,7 +11328,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:24" ht="15.75" customHeight="1">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11340,7 +11352,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:24" ht="15.75" customHeight="1">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11364,7 +11376,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:24" ht="15.75" customHeight="1">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -11388,7 +11400,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:24" ht="15.75" customHeight="1">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -11412,7 +11424,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:24" ht="15.75" customHeight="1">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -11436,7 +11448,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:24" ht="15.75" customHeight="1">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -11460,7 +11472,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:24" ht="15.75" customHeight="1">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -11484,7 +11496,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:24" ht="15.75" customHeight="1">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -11508,7 +11520,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:24" ht="15.75" customHeight="1">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -11532,7 +11544,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:24" ht="15.75" customHeight="1">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -11556,7 +11568,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:24" ht="15.75" customHeight="1">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -11580,7 +11592,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:24" ht="15.75" customHeight="1">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -11604,7 +11616,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:24" ht="15.75" customHeight="1">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -11628,7 +11640,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:24" ht="15.75" customHeight="1">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -11652,7 +11664,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:24" ht="15.75" customHeight="1">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -11676,7 +11688,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:24" ht="15.75" customHeight="1">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -11700,7 +11712,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:24" ht="15.75" customHeight="1">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -11724,7 +11736,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:24" ht="15.75" customHeight="1">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -11748,7 +11760,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:24" ht="15.75" customHeight="1">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -11772,7 +11784,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:24" ht="15.75" customHeight="1">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -11796,7 +11808,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:24" ht="15.75" customHeight="1">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11820,7 +11832,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:24" ht="15.75" customHeight="1">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -11844,7 +11856,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:24" ht="15.75" customHeight="1">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -11868,7 +11880,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:24" ht="15.75" customHeight="1">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -11892,7 +11904,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:24" ht="15.75" customHeight="1">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -11916,7 +11928,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:24" ht="15.75" customHeight="1">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -11940,7 +11952,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:24" ht="15.75" customHeight="1">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -11964,7 +11976,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:24" ht="15.75" customHeight="1">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -11988,7 +12000,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:24" ht="15.75" customHeight="1">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -12012,7 +12024,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:24" ht="15.75" customHeight="1">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -12036,7 +12048,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:24" ht="15.75" customHeight="1">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12060,7 +12072,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:24" ht="15.75" customHeight="1">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12084,7 +12096,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:24" ht="15.75" customHeight="1">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12108,7 +12120,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:24" ht="15.75" customHeight="1">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12132,7 +12144,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:24" ht="15.75" customHeight="1">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12156,7 +12168,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:24" ht="15.75" customHeight="1">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12180,7 +12192,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:24" ht="15.75" customHeight="1">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12204,7 +12216,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:24" ht="15.75" customHeight="1">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12228,7 +12240,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:24" ht="15.75" customHeight="1">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12252,7 +12264,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:24" ht="15.75" customHeight="1">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12276,7 +12288,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:24" ht="15.75" customHeight="1">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12300,7 +12312,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:24" ht="15.75" customHeight="1">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12324,7 +12336,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:24" ht="15.75" customHeight="1">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12348,7 +12360,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:24" ht="15.75" customHeight="1">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -12372,7 +12384,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:24" ht="15.75" customHeight="1">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -12396,7 +12408,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:24" ht="15.75" customHeight="1">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -12420,7 +12432,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:24" ht="15.75" customHeight="1">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -12444,7 +12456,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:24" ht="15.75" customHeight="1">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -12468,7 +12480,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:24" ht="15.75" customHeight="1">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -12492,7 +12504,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:24" ht="15.75" customHeight="1">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -12516,7 +12528,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:24" ht="15.75" customHeight="1">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -12540,7 +12552,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:24" ht="15.75" customHeight="1">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -12564,7 +12576,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:24" ht="15.75" customHeight="1">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -12588,7 +12600,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:24" ht="15.75" customHeight="1">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -12612,7 +12624,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:24" ht="15.75" customHeight="1">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -12636,7 +12648,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:24" ht="15.75" customHeight="1">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -12660,7 +12672,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:24" ht="15.75" customHeight="1">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -12684,7 +12696,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:24" ht="15.75" customHeight="1">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -12708,7 +12720,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:24" ht="15.75" customHeight="1">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -12732,7 +12744,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:24" ht="15.75" customHeight="1">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -12756,7 +12768,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:24" ht="15.75" customHeight="1">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -12780,7 +12792,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:24" ht="15.75" customHeight="1">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -12804,7 +12816,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:24" ht="15.75" customHeight="1">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -12828,7 +12840,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:24" ht="15.75" customHeight="1">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -12852,7 +12864,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:24" ht="15.75" customHeight="1">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -12876,7 +12888,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:24" ht="15.75" customHeight="1">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -12900,7 +12912,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:24" ht="15.75" customHeight="1">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -12924,7 +12936,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:24" ht="15.75" customHeight="1">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -12948,7 +12960,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:24" ht="15.75" customHeight="1">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -12972,7 +12984,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:24" ht="15.75" customHeight="1">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -12996,7 +13008,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:24" ht="15.75" customHeight="1">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -13020,7 +13032,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:24" ht="15.75" customHeight="1">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -13044,7 +13056,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:24" ht="15.75" customHeight="1">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13068,7 +13080,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:24" ht="15.75" customHeight="1">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13092,7 +13104,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:24" ht="15.75" customHeight="1">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13116,7 +13128,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:24" ht="15.75" customHeight="1">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13140,7 +13152,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:24" ht="15.75" customHeight="1">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13164,7 +13176,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:24" ht="15.75" customHeight="1">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13188,7 +13200,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:24" ht="15.75" customHeight="1">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13212,7 +13224,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:24" ht="15.75" customHeight="1">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13236,7 +13248,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:24" ht="15.75" customHeight="1">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13260,7 +13272,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:24" ht="15.75" customHeight="1">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13284,7 +13296,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:24" ht="15.75" customHeight="1">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13308,7 +13320,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:24" ht="15.75" customHeight="1">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13332,7 +13344,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:24" ht="15.75" customHeight="1">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13356,7 +13368,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:24" ht="15.75" customHeight="1">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -13380,7 +13392,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:24" ht="15.75" customHeight="1">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -13404,7 +13416,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:24" ht="15.75" customHeight="1">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -13428,7 +13440,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:24" ht="15.75" customHeight="1">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -13452,7 +13464,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:24" ht="15.75" customHeight="1">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -13476,7 +13488,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:24" ht="15.75" customHeight="1">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -13500,7 +13512,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:24" ht="15.75" customHeight="1">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -13524,7 +13536,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:24" ht="15.75" customHeight="1">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -13548,7 +13560,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:24" ht="15.75" customHeight="1">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -13572,7 +13584,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:24" ht="15.75" customHeight="1">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -13596,7 +13608,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:24" ht="15.75" customHeight="1">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -13620,7 +13632,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:24" ht="15.75" customHeight="1">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -13644,7 +13656,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:24" ht="15.75" customHeight="1">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -13668,7 +13680,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:24" ht="15.75" customHeight="1">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -13692,7 +13704,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:24" ht="15.75" customHeight="1">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -13716,7 +13728,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:24" ht="15.75" customHeight="1">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -13740,7 +13752,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:24" ht="15.75" customHeight="1">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -13764,7 +13776,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:24" ht="15.75" customHeight="1">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -13788,7 +13800,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:24" ht="15.75" customHeight="1">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -13812,7 +13824,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:24" ht="15.75" customHeight="1">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -13836,7 +13848,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:24" ht="15.75" customHeight="1">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -13860,7 +13872,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:24" ht="15.75" customHeight="1">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -13884,7 +13896,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:24" ht="15.75" customHeight="1">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -13908,7 +13920,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:24" ht="15.75" customHeight="1">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -13932,7 +13944,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:24" ht="15.75" customHeight="1">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -13956,7 +13968,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:24" ht="15.75" customHeight="1">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -13980,7 +13992,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:24" ht="15.75" customHeight="1">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -14004,7 +14016,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:24" ht="15.75" customHeight="1">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -14028,7 +14040,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:24" ht="15.75" customHeight="1">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14052,7 +14064,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:24" ht="15.75" customHeight="1">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14076,7 +14088,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:24" ht="15.75" customHeight="1">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14100,7 +14112,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:24" ht="15.75" customHeight="1">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14124,7 +14136,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:24" ht="15.75" customHeight="1">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14148,7 +14160,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:24" ht="15.75" customHeight="1">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14172,7 +14184,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:24" ht="15.75" customHeight="1">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14196,7 +14208,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:24" ht="15.75" customHeight="1">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14220,7 +14232,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:24" ht="15.75" customHeight="1">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14244,7 +14256,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:24" ht="15.75" customHeight="1">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14268,7 +14280,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:24" ht="15.75" customHeight="1">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14292,7 +14304,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:24" ht="15.75" customHeight="1">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14316,7 +14328,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:24" ht="15.75" customHeight="1">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14340,7 +14352,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:24" ht="15.75" customHeight="1">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14364,7 +14376,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:24" ht="15.75" customHeight="1">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -14388,7 +14400,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:24" ht="15.75" customHeight="1">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -14412,7 +14424,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:24" ht="15.75" customHeight="1">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -14436,7 +14448,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:24" ht="15.75" customHeight="1">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -14460,7 +14472,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:24" ht="15.75" customHeight="1">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -14484,7 +14496,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:24" ht="15.75" customHeight="1">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -14508,7 +14520,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:24" ht="15.75" customHeight="1">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -14532,7 +14544,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:24" ht="15.75" customHeight="1">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -14556,7 +14568,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:24" ht="15.75" customHeight="1">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -14580,7 +14592,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:24" ht="15.75" customHeight="1">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -14604,7 +14616,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:24" ht="15.75" customHeight="1">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -14628,7 +14640,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:24" ht="15.75" customHeight="1">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -14652,7 +14664,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:24" ht="15.75" customHeight="1">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -14676,7 +14688,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:24" ht="15.75" customHeight="1">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -14700,7 +14712,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:24" ht="15.75" customHeight="1">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -14724,7 +14736,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:24" ht="15.75" customHeight="1">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -14748,7 +14760,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:24" ht="15.75" customHeight="1">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -14772,7 +14784,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:24" ht="15.75" customHeight="1">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -14796,7 +14808,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:24" ht="15.75" customHeight="1">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -14820,7 +14832,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:24" ht="15.75" customHeight="1">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -14844,7 +14856,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:24" ht="15.75" customHeight="1">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -14868,7 +14880,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:24" ht="15.75" customHeight="1">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -14892,7 +14904,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:24" ht="15.75" customHeight="1">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -14916,7 +14928,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:24" ht="15.75" customHeight="1">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -14940,7 +14952,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:24" ht="15.75" customHeight="1">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -14964,7 +14976,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:24" ht="15.75" customHeight="1">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -14988,7 +15000,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:24" ht="15.75" customHeight="1">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -15012,7 +15024,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:24" ht="15.75" customHeight="1">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -15036,7 +15048,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:24" ht="15.75" customHeight="1">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15060,7 +15072,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:24" ht="15.75" customHeight="1">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15084,7 +15096,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:24" ht="15.75" customHeight="1">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15108,7 +15120,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:24" ht="15.75" customHeight="1">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15132,7 +15144,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:24" ht="15.75" customHeight="1">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15156,7 +15168,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:24" ht="15.75" customHeight="1">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15180,7 +15192,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:24" ht="15.75" customHeight="1">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15204,7 +15216,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:24" ht="15.75" customHeight="1">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15228,7 +15240,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:24" ht="15.75" customHeight="1">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15252,7 +15264,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:24" ht="15.75" customHeight="1">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15276,7 +15288,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:24" ht="15.75" customHeight="1">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15300,7 +15312,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:24" ht="15.75" customHeight="1">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15324,7 +15336,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:24" ht="15.75" customHeight="1">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15348,7 +15360,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:24" ht="15.75" customHeight="1">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -15372,7 +15384,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:24" ht="15.75" customHeight="1">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -15396,7 +15408,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:24" ht="15.75" customHeight="1">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -15420,7 +15432,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:24" ht="15.75" customHeight="1">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -15444,7 +15456,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:24" ht="15.75" customHeight="1">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -15468,7 +15480,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:24" ht="15.75" customHeight="1">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -15492,7 +15504,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:24" ht="15.75" customHeight="1">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -15516,7 +15528,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:24" ht="15.75" customHeight="1">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -15540,7 +15552,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:24" ht="15.75" customHeight="1">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -15564,7 +15576,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:24" ht="15.75" customHeight="1">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -15588,7 +15600,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:24" ht="15.75" customHeight="1">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -15612,7 +15624,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:24" ht="15.75" customHeight="1">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -15636,7 +15648,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:24" ht="15.75" customHeight="1">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -15660,7 +15672,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:24" ht="15.75" customHeight="1">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -15684,7 +15696,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:24" ht="15.75" customHeight="1">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -15708,7 +15720,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:24" ht="15.75" customHeight="1">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -15732,7 +15744,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:24" ht="15.75" customHeight="1">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -15756,7 +15768,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:24" ht="15.75" customHeight="1">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -15780,7 +15792,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:24" ht="15.75" customHeight="1">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -15804,7 +15816,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:24" ht="15.75" customHeight="1">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -15828,7 +15840,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:24" ht="15.75" customHeight="1">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -15852,7 +15864,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:24" ht="15.75" customHeight="1">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -15876,7 +15888,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:24" ht="15.75" customHeight="1">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -15900,7 +15912,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:24" ht="15.75" customHeight="1">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -15924,7 +15936,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:24" ht="15.75" customHeight="1">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -15948,7 +15960,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:24" ht="15.75" customHeight="1">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -15972,7 +15984,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:24" ht="15.75" customHeight="1">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -15996,7 +16008,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:24" ht="15.75" customHeight="1">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -16020,7 +16032,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:24" ht="15.75" customHeight="1">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -16044,7 +16056,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:24" ht="15.75" customHeight="1">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16068,7 +16080,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:24" ht="15.75" customHeight="1">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16092,7 +16104,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:24" ht="15.75" customHeight="1">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16116,7 +16128,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:24" ht="15.75" customHeight="1">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16140,7 +16152,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:24" ht="15.75" customHeight="1">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16164,7 +16176,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:24" ht="15.75" customHeight="1">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16188,7 +16200,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:24" ht="15.75" customHeight="1">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16212,7 +16224,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:24" ht="15.75" customHeight="1">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16236,7 +16248,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:24" ht="15.75" customHeight="1">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16260,7 +16272,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:24" ht="15.75" customHeight="1">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16284,7 +16296,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:24" ht="15.75" customHeight="1">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16308,7 +16320,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:24" ht="15.75" customHeight="1">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16332,7 +16344,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:24" ht="15.75" customHeight="1">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16356,7 +16368,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:24" ht="15.75" customHeight="1">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -16380,7 +16392,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:24" ht="15.75" customHeight="1">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -16404,7 +16416,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:24" ht="15.75" customHeight="1">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -16428,7 +16440,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:24" ht="15.75" customHeight="1">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -16452,7 +16464,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:24" ht="15.75" customHeight="1">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -16476,7 +16488,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:24" ht="15.75" customHeight="1">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -16500,7 +16512,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:24" ht="15.75" customHeight="1">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -16524,7 +16536,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:24" ht="15.75" customHeight="1">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -16548,7 +16560,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:24" ht="15.75" customHeight="1">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -16572,7 +16584,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:24" ht="15.75" customHeight="1">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -16596,7 +16608,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:24" ht="15.75" customHeight="1">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -16620,7 +16632,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:24" ht="15.75" customHeight="1">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -16644,7 +16656,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:24" ht="15.75" customHeight="1">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -16668,7 +16680,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:24" ht="15.75" customHeight="1">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -16692,7 +16704,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:24" ht="15.75" customHeight="1">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -16716,7 +16728,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:24" ht="15.75" customHeight="1">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -16740,7 +16752,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:24" ht="15.75" customHeight="1">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -16764,7 +16776,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:24" ht="15.75" customHeight="1">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -16788,7 +16800,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:24" ht="15.75" customHeight="1">
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -16812,7 +16824,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:24" ht="15.75" customHeight="1">
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -16836,7 +16848,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:24" ht="15.75" customHeight="1">
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -16860,7 +16872,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:24" ht="15.75" customHeight="1">
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -16884,7 +16896,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:24" ht="15.75" customHeight="1">
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -16908,7 +16920,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:24" ht="15.75" customHeight="1">
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -16932,7 +16944,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:24" ht="15.75" customHeight="1">
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -16956,7 +16968,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:24" ht="15.75" customHeight="1">
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -16980,7 +16992,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:24" ht="15.75" customHeight="1">
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -17004,7 +17016,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:24" ht="15.75" customHeight="1">
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -17028,7 +17040,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:24" ht="15.75" customHeight="1">
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17052,7 +17064,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:24" ht="15.75" customHeight="1">
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17076,7 +17088,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:24" ht="15.75" customHeight="1">
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17100,7 +17112,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:24" ht="15.75" customHeight="1">
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17124,7 +17136,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:24" ht="15.75" customHeight="1">
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17148,7 +17160,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:24" ht="15.75" customHeight="1">
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17172,7 +17184,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:24" ht="15.75" customHeight="1">
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17196,7 +17208,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:24" ht="15.75" customHeight="1">
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17220,7 +17232,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:24" ht="15.75" customHeight="1">
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17244,7 +17256,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:24" ht="15.75" customHeight="1">
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17268,7 +17280,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:24" ht="15.75" customHeight="1">
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17292,7 +17304,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:24" ht="15.75" customHeight="1">
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17316,7 +17328,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:24" ht="15.75" customHeight="1">
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17340,7 +17352,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:24" ht="15.75" customHeight="1">
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17364,7 +17376,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:24" ht="15.75" customHeight="1">
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -17388,7 +17400,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:24" ht="15.75" customHeight="1">
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -17412,7 +17424,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:24" ht="15.75" customHeight="1">
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -17436,7 +17448,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:24" ht="15.75" customHeight="1">
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -17460,7 +17472,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:24" ht="15.75" customHeight="1">
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -17484,7 +17496,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:24" ht="15.75" customHeight="1">
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -17508,7 +17520,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:24" ht="15.75" customHeight="1">
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -17532,7 +17544,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:24" ht="15.75" customHeight="1">
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -17556,7 +17568,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:24" ht="15.75" customHeight="1">
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -17580,7 +17592,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:24" ht="15.75" customHeight="1">
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -17604,7 +17616,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:24" ht="15.75" customHeight="1">
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -17628,7 +17640,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:24" ht="15.75" customHeight="1">
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -17652,7 +17664,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:24" ht="15.75" customHeight="1">
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -17676,7 +17688,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:24" ht="15.75" customHeight="1">
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -17700,7 +17712,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:24" ht="15.75" customHeight="1">
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -17724,7 +17736,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:24" ht="15.75" customHeight="1">
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -17748,7 +17760,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:24" ht="15.75" customHeight="1">
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -17772,7 +17784,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:24" ht="15.75" customHeight="1">
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -17796,7 +17808,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:24" ht="15.75" customHeight="1">
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -17820,7 +17832,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:24" ht="15.75" customHeight="1">
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -17844,7 +17856,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:24" ht="15.75" customHeight="1">
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -17868,7 +17880,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:24" ht="15.75" customHeight="1">
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -17892,7 +17904,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:24" ht="15.75" customHeight="1">
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -17916,7 +17928,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:24" ht="15.75" customHeight="1">
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -17940,7 +17952,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:24" ht="15.75" customHeight="1">
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -17964,7 +17976,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:24" ht="15.75" customHeight="1">
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -17988,7 +18000,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:24" ht="15.75" customHeight="1">
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -18012,7 +18024,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:24" ht="15.75" customHeight="1">
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -18036,7 +18048,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:24" ht="15.75" customHeight="1">
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18060,7 +18072,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:24" ht="15.75" customHeight="1">
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18084,7 +18096,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:24" ht="15.75" customHeight="1">
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18108,7 +18120,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:24" ht="15.75" customHeight="1">
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18132,7 +18144,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:24" ht="15.75" customHeight="1">
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18156,7 +18168,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:24" ht="15.75" customHeight="1">
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18180,7 +18192,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:24" ht="15.75" customHeight="1">
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18204,7 +18216,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:24" ht="15.75" customHeight="1">
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18228,7 +18240,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:24" ht="15.75" customHeight="1">
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18252,7 +18264,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:24" ht="15.75" customHeight="1">
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18276,7 +18288,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:24" ht="15.75" customHeight="1">
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18300,7 +18312,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:24" ht="15.75" customHeight="1">
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18324,7 +18336,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:24" ht="15.75" customHeight="1">
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18348,7 +18360,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:24" ht="15.75" customHeight="1">
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -18372,7 +18384,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:24" ht="15.75" customHeight="1">
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -18396,7 +18408,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:24" ht="15.75" customHeight="1">
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -18420,7 +18432,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:24" ht="15.75" customHeight="1">
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -18444,7 +18456,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:24" ht="15.75" customHeight="1">
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -18468,7 +18480,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:24" ht="15.75" customHeight="1">
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -18492,7 +18504,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:24" ht="15.75" customHeight="1">
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -18516,7 +18528,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:24" ht="15.75" customHeight="1">
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -18540,7 +18552,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:24" ht="15.75" customHeight="1">
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -18564,7 +18576,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:24" ht="15.75" customHeight="1">
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -18588,7 +18600,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:24" ht="15.75" customHeight="1">
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -18612,7 +18624,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:24" ht="15.75" customHeight="1">
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -18636,7 +18648,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:24" ht="15.75" customHeight="1">
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -18660,7 +18672,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:24" ht="15.75" customHeight="1">
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -18684,7 +18696,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:24" ht="15.75" customHeight="1">
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -18708,7 +18720,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:24" ht="15.75" customHeight="1">
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -18732,7 +18744,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:24" ht="15.75" customHeight="1">
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -18756,7 +18768,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:24" ht="15.75" customHeight="1">
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -18780,7 +18792,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:24" ht="15.75" customHeight="1">
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -18804,7 +18816,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:24" ht="15.75" customHeight="1">
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -18828,7 +18840,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:24" ht="15.75" customHeight="1">
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -18852,7 +18864,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:24" ht="15.75" customHeight="1">
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -18876,7 +18888,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:24" ht="15.75" customHeight="1">
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -18900,7 +18912,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:24" ht="15.75" customHeight="1">
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -18924,7 +18936,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:24" ht="15.75" customHeight="1">
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -18948,7 +18960,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:24" ht="15.75" customHeight="1">
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -18972,7 +18984,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:24" ht="15.75" customHeight="1">
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -18996,7 +19008,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:24" ht="15.75" customHeight="1">
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -19020,7 +19032,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:24" ht="15.75" customHeight="1">
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -19044,7 +19056,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:24" ht="15.75" customHeight="1">
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19068,7 +19080,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:24" ht="15.75" customHeight="1">
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19092,7 +19104,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:24" ht="15.75" customHeight="1">
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19116,7 +19128,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:24" ht="15.75" customHeight="1">
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19140,7 +19152,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:24" ht="15.75" customHeight="1">
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19164,7 +19176,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:24" ht="15.75" customHeight="1">
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19188,7 +19200,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:24" ht="15.75" customHeight="1">
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19212,7 +19224,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:24" ht="15.75" customHeight="1">
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19236,7 +19248,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:24" ht="15.75" customHeight="1">
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19260,7 +19272,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:24" ht="15.75" customHeight="1">
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19284,7 +19296,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:24" ht="15.75" customHeight="1">
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19308,7 +19320,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:24" ht="15.75" customHeight="1">
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19332,7 +19344,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:24" ht="15.75" customHeight="1">
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19356,7 +19368,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:24" ht="15.75" customHeight="1">
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -19380,7 +19392,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:24" ht="15.75" customHeight="1">
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -19404,7 +19416,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:24" ht="15.75" customHeight="1">
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -19428,7 +19440,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:24" ht="15.75" customHeight="1">
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -19452,7 +19464,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:24" ht="15.75" customHeight="1">
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -19476,7 +19488,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:24" ht="15.75" customHeight="1">
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -19500,7 +19512,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:24" ht="15.75" customHeight="1">
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -19524,7 +19536,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:24" ht="15.75" customHeight="1">
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -19548,7 +19560,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:24" ht="15.75" customHeight="1">
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -19572,7 +19584,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:24" ht="15.75" customHeight="1">
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -19596,7 +19608,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:24" ht="15.75" customHeight="1">
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -19620,7 +19632,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:24" ht="15.75" customHeight="1">
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -19644,7 +19656,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:24" ht="15.75" customHeight="1">
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -19668,7 +19680,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:24" ht="15.75" customHeight="1">
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -19692,7 +19704,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:24" ht="15.75" customHeight="1">
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -19716,7 +19728,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:24" ht="15.75" customHeight="1">
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -19740,7 +19752,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:24" ht="15.75" customHeight="1">
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -19764,7 +19776,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:24" ht="15.75" customHeight="1">
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -19788,7 +19800,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:24" ht="15.75" customHeight="1">
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -19812,7 +19824,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:24" ht="15.75" customHeight="1">
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -19836,7 +19848,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:24" ht="15.75" customHeight="1">
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -19860,7 +19872,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:24" ht="15.75" customHeight="1">
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -19884,7 +19896,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:24" ht="15.75" customHeight="1">
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -19908,7 +19920,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:24" ht="15.75" customHeight="1">
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -19932,7 +19944,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:24" ht="15.75" customHeight="1">
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -19956,7 +19968,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:24" ht="15.75" customHeight="1">
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -19980,7 +19992,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:24" ht="15.75" customHeight="1">
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -20004,7 +20016,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:24" ht="15.75" customHeight="1">
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -20028,7 +20040,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:24" ht="15.75" customHeight="1">
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20052,7 +20064,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:24" ht="15.75" customHeight="1">
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20076,7 +20088,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:24" ht="15.75" customHeight="1">
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20100,7 +20112,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:24" ht="15.75" customHeight="1">
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20124,7 +20136,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:24" ht="15.75" customHeight="1">
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20148,7 +20160,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:24" ht="15.75" customHeight="1">
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20172,7 +20184,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:24" ht="15.75" customHeight="1">
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20196,7 +20208,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:24" ht="15.75" customHeight="1">
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20220,7 +20232,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:24" ht="15.75" customHeight="1">
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20244,7 +20256,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:24" ht="15.75" customHeight="1">
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20268,7 +20280,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:24" ht="15.75" customHeight="1">
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20292,7 +20304,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:24" ht="15.75" customHeight="1">
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20316,7 +20328,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:24" ht="15.75" customHeight="1">
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20340,7 +20352,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:24" ht="15.75" customHeight="1">
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20364,7 +20376,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:24" ht="15.75" customHeight="1">
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -20388,7 +20400,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:24" ht="15.75" customHeight="1">
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -20412,7 +20424,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:24" ht="15.75" customHeight="1">
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -20436,7 +20448,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:24" ht="15.75" customHeight="1">
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -20460,7 +20472,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:24" ht="15.75" customHeight="1">
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -20484,7 +20496,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:24" ht="15.75" customHeight="1">
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -20508,7 +20520,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:24" ht="15.75" customHeight="1">
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -20532,7 +20544,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:24" ht="15.75" customHeight="1">
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -20556,7 +20568,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:24" ht="15.75" customHeight="1">
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -20580,7 +20592,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:24" ht="15.75" customHeight="1">
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -20604,7 +20616,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:24" ht="15.75" customHeight="1">
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -20628,7 +20640,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:24" ht="15.75" customHeight="1">
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -20652,7 +20664,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:24" ht="15.75" customHeight="1">
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -20676,7 +20688,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:24" ht="15.75" customHeight="1">
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -20700,7 +20712,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:24" ht="15.75" customHeight="1">
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -20724,7 +20736,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:24" ht="15.75" customHeight="1">
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -20748,7 +20760,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:24" ht="15.75" customHeight="1">
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -20772,7 +20784,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:24" ht="15.75" customHeight="1">
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -20796,7 +20808,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:24" ht="15.75" customHeight="1">
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -20820,7 +20832,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:24" ht="15.75" customHeight="1">
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -20844,7 +20856,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:24" ht="15.75" customHeight="1">
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -20868,7 +20880,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:24" ht="15.75" customHeight="1">
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -20892,7 +20904,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:24" ht="15.75" customHeight="1">
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -20916,7 +20928,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:24" ht="15.75" customHeight="1">
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -20940,7 +20952,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:24" ht="15.75" customHeight="1">
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -20964,7 +20976,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:24" ht="15.75" customHeight="1">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -20988,7 +21000,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:24" ht="15.75" customHeight="1">
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -21012,7 +21024,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:24" ht="15.75" customHeight="1">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -21036,7 +21048,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:24" ht="15.75" customHeight="1">
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21060,7 +21072,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:24" ht="15.75" customHeight="1">
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21084,7 +21096,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:24" ht="15.75" customHeight="1">
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21108,7 +21120,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:24" ht="15.75" customHeight="1">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21132,7 +21144,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:24" ht="15.75" customHeight="1">
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21156,7 +21168,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:24" ht="15.75" customHeight="1">
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21180,7 +21192,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:24" ht="15.75" customHeight="1">
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21204,7 +21216,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:24" ht="15.75" customHeight="1">
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21228,7 +21240,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:24" ht="15.75" customHeight="1">
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21252,7 +21264,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:24" ht="15.75" customHeight="1">
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21276,7 +21288,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:24" ht="15.75" customHeight="1">
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21300,7 +21312,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:24" ht="15.75" customHeight="1">
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21324,7 +21336,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:24" ht="15.75" customHeight="1">
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21348,7 +21360,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:24" ht="15.75" customHeight="1">
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -21372,7 +21384,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:24" ht="15.75" customHeight="1">
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -21396,7 +21408,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:24" ht="15.75" customHeight="1">
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -21420,7 +21432,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:24" ht="15.75" customHeight="1">
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -21444,7 +21456,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:24" ht="15.75" customHeight="1">
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -21468,7 +21480,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:24" ht="15.75" customHeight="1">
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -21492,7 +21504,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:24" ht="15.75" customHeight="1">
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -21516,7 +21528,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:24" ht="15.75" customHeight="1">
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -21540,7 +21552,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:24" ht="15.75" customHeight="1">
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -21564,7 +21576,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:24" ht="15.75" customHeight="1">
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -21588,7 +21600,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:24" ht="15.75" customHeight="1">
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -21612,7 +21624,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:24" ht="15.75" customHeight="1">
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -21636,7 +21648,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:24" ht="15.75" customHeight="1">
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -21660,7 +21672,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:24" ht="15.75" customHeight="1">
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -21684,7 +21696,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:24" ht="15.75" customHeight="1">
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -21708,7 +21720,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:24" ht="15.75" customHeight="1">
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -21732,7 +21744,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:24" ht="15.75" customHeight="1">
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -21756,7 +21768,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:24" ht="15.75" customHeight="1">
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -21780,7 +21792,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:24" ht="15.75" customHeight="1">
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -21804,7 +21816,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:24" ht="15.75" customHeight="1">
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -21828,7 +21840,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:24" ht="15.75" customHeight="1">
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -21852,7 +21864,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:24" ht="15.75" customHeight="1">
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -21876,7 +21888,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:24" ht="15.75" customHeight="1">
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -21900,7 +21912,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:24" ht="15.75" customHeight="1">
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -21924,7 +21936,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:24" ht="15.75" customHeight="1">
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -21948,7 +21960,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:24" ht="15.75" customHeight="1">
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -21972,7 +21984,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:24" ht="15.75" customHeight="1">
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -21996,7 +22008,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:24" ht="15.75" customHeight="1">
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -22020,7 +22032,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:24" ht="15.75" customHeight="1">
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -22044,7 +22056,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:24" ht="15.75" customHeight="1">
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22068,7 +22080,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:24" ht="15.75" customHeight="1">
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22092,7 +22104,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:24" ht="15.75" customHeight="1">
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22116,7 +22128,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:24" ht="15.75" customHeight="1">
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22140,7 +22152,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:24" ht="15.75" customHeight="1">
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22164,7 +22176,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:24" ht="15.75" customHeight="1">
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22188,7 +22200,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:24" ht="15.75" customHeight="1">
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22212,7 +22224,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:24" ht="15.75" customHeight="1">
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22236,7 +22248,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:24" ht="15.75" customHeight="1">
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22260,7 +22272,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:24" ht="15.75" customHeight="1">
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22284,7 +22296,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:24" ht="15.75" customHeight="1">
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22308,7 +22320,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:24" ht="15.75" customHeight="1">
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22332,7 +22344,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:24" ht="15.75" customHeight="1">
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22356,7 +22368,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:24" ht="15.75" customHeight="1">
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -22380,7 +22392,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:24" ht="15.75" customHeight="1">
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -22404,7 +22416,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:24" ht="15.75" customHeight="1">
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -22428,7 +22440,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:24" ht="15.75" customHeight="1">
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -22452,7 +22464,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:24" ht="15.75" customHeight="1">
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -22476,7 +22488,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:24" ht="15.75" customHeight="1">
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -22500,7 +22512,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:24" ht="15.75" customHeight="1">
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -22524,7 +22536,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:24" ht="15.75" customHeight="1">
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -22548,7 +22560,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:24" ht="15.75" customHeight="1">
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -22572,7 +22584,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:24" ht="15.75" customHeight="1">
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -22596,7 +22608,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:24" ht="15.75" customHeight="1">
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -22620,7 +22632,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:24" ht="15.75" customHeight="1">
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -22644,7 +22656,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:24" ht="15.75" customHeight="1">
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -22668,7 +22680,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:24" ht="15.75" customHeight="1">
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -22692,7 +22704,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:24" ht="15.75" customHeight="1">
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -22716,7 +22728,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:24" ht="15.75" customHeight="1">
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -22740,7 +22752,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:24" ht="15.75" customHeight="1">
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -22764,7 +22776,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:24" ht="15.75" customHeight="1">
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -22788,7 +22800,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:24" ht="15.75" customHeight="1">
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -22812,7 +22824,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:24" ht="15.75" customHeight="1">
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -22836,7 +22848,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:24" ht="15.75" customHeight="1">
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -22860,7 +22872,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:24" ht="15.75" customHeight="1">
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -22884,7 +22896,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:24" ht="15.75" customHeight="1">
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -22908,7 +22920,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:24" ht="15.75" customHeight="1">
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -22932,7 +22944,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:24" ht="15.75" customHeight="1">
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -22956,7 +22968,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:24" ht="15.75" customHeight="1">
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -22980,7 +22992,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:24" ht="15.75" customHeight="1">
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -23004,7 +23016,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:24" ht="15.75" customHeight="1">
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -23028,7 +23040,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:24" ht="15.75" customHeight="1">
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23052,7 +23064,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:24" ht="15.75" customHeight="1">
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23076,7 +23088,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:24" ht="15.75" customHeight="1">
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23100,7 +23112,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:24" ht="15.75" customHeight="1">
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23124,7 +23136,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:24" ht="15.75" customHeight="1">
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23148,7 +23160,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:24" ht="15.75" customHeight="1">
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23172,7 +23184,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:24" ht="15.75" customHeight="1">
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23196,7 +23208,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:24" ht="15.75" customHeight="1">
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23220,7 +23232,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:24" ht="15.75" customHeight="1">
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23244,7 +23256,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:24" ht="15.75" customHeight="1">
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23268,7 +23280,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:24" ht="15.75" customHeight="1">
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23292,7 +23304,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:24" ht="15.75" customHeight="1">
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23316,7 +23328,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:24" ht="15.75" customHeight="1">
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23340,7 +23352,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:24" ht="15.75" customHeight="1">
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23364,7 +23376,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:24" ht="15.75" customHeight="1">
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -23388,7 +23400,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:24" ht="15.75" customHeight="1">
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -23412,7 +23424,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:24" ht="15.75" customHeight="1">
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -23436,7 +23448,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:24" ht="15.75" customHeight="1">
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -23460,7 +23472,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:24" ht="15.75" customHeight="1">
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -23484,7 +23496,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:24" ht="15.75" customHeight="1">
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -23508,7 +23520,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:24" ht="15.75" customHeight="1">
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -23532,7 +23544,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:24" ht="15.75" customHeight="1">
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -23556,7 +23568,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:24" ht="15.75" customHeight="1">
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -23580,7 +23592,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:24" ht="15.75" customHeight="1">
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -23604,7 +23616,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:24" ht="15.75" customHeight="1">
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -23628,7 +23640,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:24" ht="15.75" customHeight="1">
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -23652,7 +23664,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:24" ht="15.75" customHeight="1">
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -23676,7 +23688,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:24" ht="15.75" customHeight="1">
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -23700,7 +23712,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:24" ht="15.75" customHeight="1">
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -23724,7 +23736,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:24" ht="15.75" customHeight="1">
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -23748,7 +23760,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:24" ht="15.75" customHeight="1">
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -23772,7 +23784,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:24" ht="15.75" customHeight="1">
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -23796,7 +23808,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:24" ht="15.75" customHeight="1">
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -23820,7 +23832,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:24" ht="15.75" customHeight="1">
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -23844,7 +23856,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:24" ht="15.75" customHeight="1">
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -23868,7 +23880,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:24" ht="15.75" customHeight="1">
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -23892,7 +23904,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:24" ht="15.75" customHeight="1">
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -23916,7 +23928,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:24" ht="15.75" customHeight="1">
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -23940,7 +23952,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:24" ht="15.75" customHeight="1">
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -23964,7 +23976,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:24" ht="15.75" customHeight="1">
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -23988,7 +24000,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:24" ht="15.75" customHeight="1">
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -24012,7 +24024,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:24" ht="15.75" customHeight="1">
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -24036,7 +24048,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:24" ht="15.75" customHeight="1">
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24060,7 +24072,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:24" ht="15.75" customHeight="1">
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24084,7 +24096,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:24" ht="15.75" customHeight="1">
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24108,7 +24120,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:24" ht="15.75" customHeight="1">
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24132,7 +24144,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:24" ht="15.75" customHeight="1">
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24156,7 +24168,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:24" ht="15.75" customHeight="1">
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24180,7 +24192,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:24" ht="15.75" customHeight="1">
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24204,7 +24216,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:24" ht="15.75" customHeight="1">
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24228,7 +24240,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:24" ht="15.75" customHeight="1">
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24252,7 +24264,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:24" ht="15.75" customHeight="1">
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24276,7 +24288,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:24" ht="15.75" customHeight="1">
       <c r="D983" s="1"/>
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
@@ -24299,7 +24311,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:24" ht="15.75" customHeight="1">
       <c r="D984" s="1"/>
       <c r="E984" s="1"/>
       <c r="F984" s="1"/>
@@ -24322,7 +24334,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="3:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:24" ht="15.75" customHeight="1">
       <c r="D985" s="1"/>
       <c r="E985" s="1"/>
       <c r="F985" s="1"/>

--- a/Assignments/Assignments Tracker.xlsx
+++ b/Assignments/Assignments Tracker.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\fs_ITMentoring_March2024\Assignments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA83867-1096-493B-A386-A3AD3542C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Tracker" sheetId="1" r:id="rId1"/>
@@ -103,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -216,9 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -435,7 +438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
@@ -445,10 +448,10 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetForm